--- a/1 Planeación de casos de pruebas CMMS(Recuperado automáticamente).xlsx
+++ b/1 Planeación de casos de pruebas CMMS(Recuperado automáticamente).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milenio\Desktop\testing\Pruebas\envios CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{965E992B-4CE0-4122-B36D-989AA456AA18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8477715-E3F2-48FD-8CF4-5704FE40B205}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1444,7 +1444,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2138,6 +2138,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2145,72 +2155,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2224,6 +2173,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,55 +2212,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="11" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2304,34 +2251,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="11" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2693,10 +2693,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="50"/>
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2711,10 +2711,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="2">
         <f>'Planeación detallada'!H6</f>
         <v>43283</v>
@@ -2725,18 +2725,18 @@
       </c>
       <c r="F3" s="3">
         <f>'Planeación detallada'!J6</f>
-        <v>0.578125</v>
+        <v>0.7109375</v>
       </c>
       <c r="G3" s="47">
         <f>'Planeación detallada'!K6</f>
-        <v>5.8199999999999994</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2">
         <f>'Planeación detallada'!H138</f>
         <v>43297</v>
@@ -2755,10 +2755,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2">
         <f>'Planeación detallada'!H238</f>
         <v>43298</v>
@@ -2777,10 +2777,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2">
         <f>'Planeación detallada'!H306</f>
         <v>43299</v>
@@ -2799,10 +2799,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="2">
         <f>'Planeación detallada'!H334</f>
         <v>43300</v>
@@ -2841,8 +2841,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85:F88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2852,7 +2852,7 @@
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="77.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="116" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="50" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2862,7 +2862,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="115"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -2873,35 +2873,35 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="99">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="92">
         <f>SUM(J6,J138,J238,J306,J334)/5</f>
-        <v>0.11562500000000001</v>
-      </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+        <v>0.14218749999999999</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -2912,7 +2912,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="115"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2922,15 +2922,15 @@
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="7" t="s">
         <v>1</v>
       </c>
@@ -2952,43 +2952,43 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="52">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="95">
         <v>43283</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="95">
         <v>43318</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="93">
         <f>AVERAGE(J9:J136)</f>
-        <v>0.578125</v>
-      </c>
-      <c r="K6" s="110">
+        <v>0.7109375</v>
+      </c>
+      <c r="K6" s="56">
         <f>SUM(F9:F136)</f>
-        <v>5.8199999999999994</v>
+        <v>24.92</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="12"/>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="110"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
@@ -3025,13 +3025,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="97" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -3040,7 +3040,7 @@
       <c r="E9" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="57">
         <v>0.48</v>
       </c>
       <c r="G9" s="12"/>
@@ -3055,16 +3055,16 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="101"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="12"/>
       <c r="H10" s="30">
         <v>43283</v>
@@ -3077,16 +3077,16 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="101"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="9"/>
       <c r="H11" s="30">
         <v>43283</v>
@@ -3099,16 +3099,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="101"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="12"/>
       <c r="H12" s="30">
         <v>43283</v>
@@ -3121,9 +3121,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="65" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="62" t="s">
         <v>276</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -3132,7 +3132,7 @@
       <c r="E13" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="57">
         <v>0.3</v>
       </c>
       <c r="G13" s="12"/>
@@ -3147,16 +3147,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="92"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="12"/>
       <c r="H14" s="30">
         <v>43283</v>
@@ -3169,16 +3169,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="92"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="12"/>
       <c r="H15" s="30">
         <v>43283</v>
@@ -3191,16 +3191,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="92"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="12"/>
       <c r="H16" s="30">
         <v>43283</v>
@@ -3213,9 +3213,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="62" t="s">
+      <c r="A17" s="105"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="71" t="s">
         <v>277</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -3224,7 +3224,7 @@
       <c r="E17" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="57">
         <v>0.15</v>
       </c>
       <c r="G17" s="12"/>
@@ -3239,16 +3239,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48"/>
       <c r="H18" s="30">
         <v>43283</v>
@@ -3261,16 +3261,16 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
       <c r="H19" s="30">
         <v>43283</v>
@@ -3283,16 +3283,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="9"/>
       <c r="H20" s="30">
         <v>43283</v>
@@ -3305,9 +3305,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="77" t="s">
+      <c r="A21" s="105"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="58" t="s">
         <v>278</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -3316,7 +3316,7 @@
       <c r="E21" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="57">
         <v>0.05</v>
       </c>
       <c r="G21" s="48"/>
@@ -3331,16 +3331,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="78"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
       <c r="H22" s="30">
         <v>43283</v>
@@ -3353,16 +3353,16 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="78"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="48"/>
       <c r="H23" s="30">
         <v>43283</v>
@@ -3375,16 +3375,16 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="25" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="48"/>
       <c r="H24" s="30">
         <v>43283</v>
@@ -3397,13 +3397,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="62" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -3412,7 +3412,7 @@
       <c r="E25" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="57">
         <v>0.15</v>
       </c>
       <c r="G25" s="48"/>
@@ -3427,16 +3427,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="92"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="48"/>
       <c r="H26" s="30">
         <v>43283</v>
@@ -3449,16 +3449,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="92"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="48"/>
       <c r="H27" s="30">
         <v>43283</v>
@@ -3471,16 +3471,16 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="48"/>
       <c r="H28" s="30">
         <v>43283</v>
@@ -3493,9 +3493,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="65" t="s">
+      <c r="A29" s="103"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="62" t="s">
         <v>281</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -3504,7 +3504,7 @@
       <c r="E29" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="72">
         <v>0.12</v>
       </c>
       <c r="G29" s="48"/>
@@ -3519,16 +3519,16 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="94"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F30" s="82"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="48"/>
       <c r="H30" s="30">
         <v>43283</v>
@@ -3541,16 +3541,16 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="94"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F31" s="82"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="48"/>
       <c r="H31" s="30">
         <v>43283</v>
@@ -3563,16 +3563,16 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="94"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F32" s="83"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="48"/>
       <c r="H32" s="30">
         <v>43283</v>
@@ -3585,9 +3585,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="62" t="s">
+      <c r="A33" s="103"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="71" t="s">
         <v>282</v>
       </c>
       <c r="D33" s="25" t="s">
@@ -3596,7 +3596,7 @@
       <c r="E33" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="72">
         <v>0.3</v>
       </c>
       <c r="G33" s="48"/>
@@ -3611,16 +3611,16 @@
       </c>
     </row>
     <row r="34" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="25" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F34" s="82"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="48"/>
       <c r="H34" s="30">
         <v>43283</v>
@@ -3633,16 +3633,16 @@
       </c>
     </row>
     <row r="35" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F35" s="82"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="48"/>
       <c r="H35" s="30">
         <v>43283</v>
@@ -3655,16 +3655,16 @@
       </c>
     </row>
     <row r="36" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="25" t="s">
         <v>79</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="83"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="9"/>
       <c r="H36" s="30">
         <v>43283</v>
@@ -3677,9 +3677,9 @@
       </c>
     </row>
     <row r="37" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="90"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="62" t="s">
+      <c r="A37" s="103"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="71" t="s">
         <v>283</v>
       </c>
       <c r="D37" s="25" t="s">
@@ -3688,7 +3688,7 @@
       <c r="E37" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="57">
         <v>0.2</v>
       </c>
       <c r="G37" s="48"/>
@@ -3703,16 +3703,16 @@
       </c>
     </row>
     <row r="38" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="25" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="48"/>
       <c r="H38" s="30">
         <v>43283</v>
@@ -3725,16 +3725,16 @@
       </c>
     </row>
     <row r="39" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="25" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="48"/>
       <c r="H39" s="30">
         <v>43283</v>
@@ -3747,16 +3747,16 @@
       </c>
     </row>
     <row r="40" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="25" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="48"/>
       <c r="H40" s="30">
         <v>43283</v>
@@ -3769,13 +3769,13 @@
       </c>
     </row>
     <row r="41" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="62" t="s">
         <v>284</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -3784,7 +3784,7 @@
       <c r="E41" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="57">
         <v>1</v>
       </c>
       <c r="G41" s="48"/>
@@ -3799,16 +3799,16 @@
       </c>
     </row>
     <row r="42" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="92"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="25" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="9"/>
       <c r="H42" s="30">
         <v>43283</v>
@@ -3822,16 +3822,16 @@
       <c r="Z42" s="27"/>
     </row>
     <row r="43" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="90"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="92"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="25" t="s">
         <v>87</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="48"/>
       <c r="H43" s="30">
         <v>43283</v>
@@ -3844,16 +3844,16 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="90"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="92"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="25" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="48"/>
       <c r="H44" s="30">
         <v>43283</v>
@@ -3866,9 +3866,9 @@
       </c>
     </row>
     <row r="45" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="90"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="65" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="62" t="s">
         <v>285</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -3877,7 +3877,7 @@
       <c r="E45" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="57">
         <v>0.22</v>
       </c>
       <c r="G45" s="48"/>
@@ -3892,16 +3892,16 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="90"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="92"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="9"/>
       <c r="H46" s="30">
         <v>43283</v>
@@ -3914,16 +3914,16 @@
       </c>
     </row>
     <row r="47" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="90"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="92"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="25" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="48"/>
       <c r="H47" s="30">
         <v>43283</v>
@@ -3936,16 +3936,16 @@
       </c>
     </row>
     <row r="48" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="90"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="92"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="25" t="s">
         <v>92</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="9"/>
       <c r="H48" s="30">
         <v>43283</v>
@@ -3958,9 +3958,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="77" t="s">
+      <c r="A49" s="103"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="58" t="s">
         <v>286</v>
       </c>
       <c r="D49" s="25" t="s">
@@ -3969,7 +3969,7 @@
       <c r="E49" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="57">
         <v>0.31</v>
       </c>
       <c r="G49" s="48"/>
@@ -3984,16 +3984,16 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="78"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="25" t="s">
         <v>94</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="48"/>
       <c r="H50" s="30">
         <v>43283</v>
@@ -4006,16 +4006,16 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="78"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="25" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="48"/>
       <c r="H51" s="30">
         <v>43283</v>
@@ -4028,16 +4028,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="90"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="78"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F52" s="58"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="9"/>
       <c r="H52" s="30">
         <v>43283</v>
@@ -4050,9 +4050,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="90"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="62" t="s">
+      <c r="A53" s="103"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="71" t="s">
         <v>287</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -4061,7 +4061,7 @@
       <c r="E53" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="57">
         <v>0.3</v>
       </c>
       <c r="G53" s="48"/>
@@ -4076,16 +4076,16 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="62"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="48"/>
       <c r="H54" s="30">
         <v>43283</v>
@@ -4098,16 +4098,16 @@
       </c>
     </row>
     <row r="55" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="90"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="91"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="25" t="s">
         <v>99</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="48"/>
       <c r="H55" s="30">
         <v>43283</v>
@@ -4120,16 +4120,16 @@
       </c>
     </row>
     <row r="56" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="90"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="91"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="25" t="s">
         <v>100</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F56" s="58"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="48"/>
       <c r="H56" s="30">
         <v>43283</v>
@@ -4142,13 +4142,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="62" t="s">
         <v>288</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -4157,7 +4157,7 @@
       <c r="E57" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="57">
         <v>0.3</v>
       </c>
       <c r="G57" s="48"/>
@@ -4172,16 +4172,16 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="94"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F58" s="58"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="48"/>
       <c r="H58" s="30">
         <v>43283</v>
@@ -4194,16 +4194,16 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="94"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="25" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F59" s="58"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="48"/>
       <c r="H59" s="30">
         <v>43283</v>
@@ -4216,16 +4216,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="108"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="9"/>
       <c r="H60" s="30">
         <v>43283</v>
@@ -4238,9 +4238,9 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="65" t="s">
+      <c r="A61" s="89"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="62" t="s">
         <v>289</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -4249,7 +4249,7 @@
       <c r="E61" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F61" s="58">
+      <c r="F61" s="57">
         <v>0.3</v>
       </c>
       <c r="G61" s="48"/>
@@ -4264,16 +4264,16 @@
       </c>
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="94"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="48"/>
       <c r="H62" s="30">
         <v>43283</v>
@@ -4286,16 +4286,16 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="94"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="48"/>
       <c r="H63" s="30">
         <v>43283</v>
@@ -4308,16 +4308,16 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="109"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="25" t="s">
         <v>108</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F64" s="58"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="48"/>
       <c r="H64" s="30">
         <v>43283</v>
@@ -4330,9 +4330,9 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="77" t="s">
+      <c r="A65" s="89"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="58" t="s">
         <v>290</v>
       </c>
       <c r="D65" s="25" t="s">
@@ -4341,7 +4341,7 @@
       <c r="E65" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="57">
         <v>0.24</v>
       </c>
       <c r="G65" s="48"/>
@@ -4356,16 +4356,16 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="78"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="25" t="s">
         <v>110</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F66" s="58"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="48"/>
       <c r="H66" s="30">
         <v>43283</v>
@@ -4378,16 +4378,16 @@
       </c>
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="78"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F67" s="58"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="48"/>
       <c r="H67" s="30">
         <v>43283</v>
@@ -4400,16 +4400,16 @@
       </c>
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="79"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="25" t="s">
         <v>112</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F68" s="58"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="48"/>
       <c r="H68" s="30">
         <v>43283</v>
@@ -4422,9 +4422,9 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="77" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="58" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="25" t="s">
@@ -4433,7 +4433,7 @@
       <c r="E69" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="57">
         <v>0.05</v>
       </c>
       <c r="G69" s="48"/>
@@ -4448,16 +4448,16 @@
       </c>
     </row>
     <row r="70" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="78"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="25" t="s">
         <v>114</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F70" s="58"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="48"/>
       <c r="H70" s="30">
         <v>43283</v>
@@ -4470,16 +4470,16 @@
       </c>
     </row>
     <row r="71" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="78"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F71" s="58"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="48"/>
       <c r="H71" s="30">
         <v>43283</v>
@@ -4492,16 +4492,16 @@
       </c>
     </row>
     <row r="72" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="80"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="61"/>
       <c r="D72" s="25" t="s">
         <v>116</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F72" s="58"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="48"/>
       <c r="H72" s="30">
         <v>43283</v>
@@ -4514,13 +4514,13 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="62" t="s">
         <v>292</v>
       </c>
       <c r="D73" s="25" t="s">
@@ -4529,7 +4529,7 @@
       <c r="E73" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F73" s="58">
+      <c r="F73" s="57">
         <v>1</v>
       </c>
       <c r="G73" s="48"/>
@@ -4544,16 +4544,16 @@
       </c>
     </row>
     <row r="74" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="96"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="25" t="s">
         <v>118</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F74" s="58"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="48"/>
       <c r="H74" s="30">
         <v>43283</v>
@@ -4566,16 +4566,16 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="96"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
       <c r="D75" s="25" t="s">
         <v>119</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F75" s="58"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="48"/>
       <c r="H75" s="30">
         <v>43283</v>
@@ -4588,16 +4588,16 @@
       </c>
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="98"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
+      <c r="A76" s="104"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
       <c r="D76" s="25" t="s">
         <v>120</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="9"/>
       <c r="H76" s="30">
         <v>43283</v>
@@ -4610,13 +4610,13 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="63" t="s">
+      <c r="A77" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="65" t="s">
+      <c r="C77" s="62" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -4625,7 +4625,7 @@
       <c r="E77" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F77" s="58">
+      <c r="F77" s="57">
         <v>0.35</v>
       </c>
       <c r="G77" s="48"/>
@@ -4640,16 +4640,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="90"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="92"/>
+      <c r="A78" s="103"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="75"/>
       <c r="D78" s="25" t="s">
         <v>124</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F78" s="58"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="48"/>
       <c r="H78" s="30">
         <v>43283</v>
@@ -4662,16 +4662,16 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="90"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="92"/>
+      <c r="A79" s="103"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="75"/>
       <c r="D79" s="25" t="s">
         <v>125</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F79" s="58"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="48"/>
       <c r="H79" s="30">
         <v>43283</v>
@@ -4684,16 +4684,16 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="90"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="92"/>
+      <c r="A80" s="103"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="75"/>
       <c r="D80" s="25" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F80" s="58"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="8"/>
       <c r="H80" s="30">
         <v>43283</v>
@@ -4706,9 +4706,9 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="90"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="77" t="s">
+      <c r="A81" s="103"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="58" t="s">
         <v>294</v>
       </c>
       <c r="D81" s="25" t="s">
@@ -4717,7 +4717,9 @@
       <c r="E81" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F81" s="58"/>
+      <c r="F81" s="57">
+        <v>0.4</v>
+      </c>
       <c r="G81" s="48"/>
       <c r="H81" s="30">
         <v>43283</v>
@@ -4730,34 +4732,38 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="90"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="78"/>
+      <c r="A82" s="103"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="25" t="s">
         <v>128</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F82" s="58"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I82" s="30">
+        <v>43287</v>
+      </c>
       <c r="J82" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="90"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="78"/>
+      <c r="A83" s="103"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="59"/>
       <c r="D83" s="25" t="s">
         <v>129</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F83" s="58"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="48"/>
       <c r="H83" s="30">
         <v>43283</v>
@@ -4770,27 +4776,31 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="90"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="78"/>
+      <c r="A84" s="103"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="59"/>
       <c r="D84" s="25" t="s">
         <v>130</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F84" s="58"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I84" s="30">
+        <v>43287</v>
+      </c>
       <c r="J84" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="90"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="62" t="s">
+      <c r="A85" s="103"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="71" t="s">
         <v>295</v>
       </c>
       <c r="D85" s="25" t="s">
@@ -4799,76 +4809,94 @@
       <c r="E85" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F85" s="58"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
+      <c r="F85" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="G85" s="48"/>
+      <c r="H85" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I85" s="30">
+        <v>43287</v>
+      </c>
       <c r="J85" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="90"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="62"/>
+      <c r="A86" s="103"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="71"/>
       <c r="D86" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E86" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F86" s="58"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I86" s="30">
+        <v>43287</v>
+      </c>
       <c r="J86" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="90"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="91"/>
+      <c r="A87" s="103"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="25" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F87" s="58"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I87" s="30">
+        <v>43287</v>
+      </c>
       <c r="J87" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="90"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="91"/>
+      <c r="A88" s="103"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="25" t="s">
         <v>134</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F88" s="58"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I88" s="30">
+        <v>43287</v>
+      </c>
       <c r="J88" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="63" t="s">
+      <c r="A89" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="62" t="s">
         <v>296</v>
       </c>
       <c r="D89" s="25" t="s">
@@ -4877,72 +4905,90 @@
       <c r="E89" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F89" s="58"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
+      <c r="F89" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="G89" s="48"/>
+      <c r="H89" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I89" s="30">
+        <v>43287</v>
+      </c>
       <c r="J89" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="90"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="92"/>
+      <c r="A90" s="103"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="75"/>
       <c r="D90" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E90" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F90" s="58"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I90" s="30">
+        <v>43287</v>
+      </c>
       <c r="J90" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="90"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="92"/>
+      <c r="A91" s="103"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="75"/>
       <c r="D91" s="25" t="s">
         <v>137</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F91" s="58"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I91" s="30">
+        <v>43287</v>
+      </c>
       <c r="J91" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="90"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="92"/>
+      <c r="A92" s="103"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="75"/>
       <c r="D92" s="25" t="s">
         <v>138</v>
       </c>
       <c r="E92" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F92" s="58"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I92" s="30">
+        <v>43287</v>
+      </c>
       <c r="J92" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="90"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="65" t="s">
+      <c r="A93" s="103"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="62" t="s">
         <v>297</v>
       </c>
       <c r="D93" s="25" t="s">
@@ -4951,72 +4997,90 @@
       <c r="E93" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F93" s="58"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
+      <c r="F93" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="G93" s="48"/>
+      <c r="H93" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I93" s="30">
+        <v>43287</v>
+      </c>
       <c r="J93" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="90"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="92"/>
+      <c r="A94" s="103"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="75"/>
       <c r="D94" s="25" t="s">
         <v>140</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F94" s="58"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I94" s="30">
+        <v>43287</v>
+      </c>
       <c r="J94" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="90"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="92"/>
+      <c r="A95" s="103"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="75"/>
       <c r="D95" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F95" s="58"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I95" s="30">
+        <v>43287</v>
+      </c>
       <c r="J95" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="90"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="92"/>
+      <c r="A96" s="103"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="75"/>
       <c r="D96" s="25" t="s">
         <v>142</v>
       </c>
       <c r="E96" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F96" s="58"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I96" s="30">
+        <v>43287</v>
+      </c>
       <c r="J96" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="90"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="77" t="s">
+      <c r="A97" s="103"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="58" t="s">
         <v>298</v>
       </c>
       <c r="D97" s="25" t="s">
@@ -5025,61 +5089,75 @@
       <c r="E97" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F97" s="58"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
+      <c r="F97" s="57">
+        <v>18</v>
+      </c>
+      <c r="G97" s="48"/>
+      <c r="H97" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I97" s="30">
+        <v>43287</v>
+      </c>
       <c r="J97" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="90"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="78"/>
+      <c r="A98" s="103"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="59"/>
       <c r="D98" s="25" t="s">
         <v>144</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F98" s="58"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I98" s="30">
+        <v>43287</v>
+      </c>
       <c r="J98" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="90"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="78"/>
+      <c r="A99" s="103"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="59"/>
       <c r="D99" s="25" t="s">
         <v>145</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F99" s="58"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="30">
+        <v>43283</v>
+      </c>
+      <c r="I99" s="30">
+        <v>43287</v>
+      </c>
       <c r="J99" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="90"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="78"/>
+      <c r="A100" s="103"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="59"/>
       <c r="D100" s="25" t="s">
         <v>149</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F100" s="58"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="33"/>
       <c r="H100" s="30"/>
       <c r="I100" s="30"/>
@@ -5088,9 +5166,9 @@
       </c>
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="90"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="62" t="s">
+      <c r="A101" s="103"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="71" t="s">
         <v>299</v>
       </c>
       <c r="D101" s="25" t="s">
@@ -5099,7 +5177,7 @@
       <c r="E101" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F101" s="58"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="32"/>
       <c r="H101" s="30"/>
       <c r="I101" s="30"/>
@@ -5108,16 +5186,16 @@
       </c>
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="90"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="62"/>
+      <c r="A102" s="103"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="71"/>
       <c r="D102" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F102" s="58"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="32"/>
       <c r="H102" s="30"/>
       <c r="I102" s="30"/>
@@ -5126,16 +5204,16 @@
       </c>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="90"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="91"/>
+      <c r="A103" s="103"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="76"/>
       <c r="D103" s="25" t="s">
         <v>152</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F103" s="58"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="33"/>
       <c r="H103" s="30"/>
       <c r="I103" s="30"/>
@@ -5144,16 +5222,16 @@
       </c>
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="90"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="91"/>
+      <c r="A104" s="103"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="76"/>
       <c r="D104" s="25" t="s">
         <v>153</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F104" s="58"/>
+      <c r="F104" s="57"/>
       <c r="G104" s="33"/>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
@@ -5162,13 +5240,13 @@
       </c>
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="63" t="s">
+      <c r="A105" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="62" t="s">
         <v>300</v>
       </c>
       <c r="D105" s="25" t="s">
@@ -5177,7 +5255,7 @@
       <c r="E105" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F105" s="58"/>
+      <c r="F105" s="57"/>
       <c r="G105" s="32"/>
       <c r="H105" s="30"/>
       <c r="I105" s="30"/>
@@ -5186,16 +5264,16 @@
       </c>
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="90"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="92"/>
+      <c r="A106" s="103"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="25" t="s">
         <v>155</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F106" s="58"/>
+      <c r="F106" s="57"/>
       <c r="G106" s="33"/>
       <c r="H106" s="30"/>
       <c r="I106" s="30"/>
@@ -5204,16 +5282,16 @@
       </c>
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="90"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="92"/>
+      <c r="A107" s="103"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="75"/>
       <c r="D107" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F107" s="58"/>
+      <c r="F107" s="57"/>
       <c r="G107" s="33"/>
       <c r="H107" s="30"/>
       <c r="I107" s="30"/>
@@ -5222,16 +5300,16 @@
       </c>
     </row>
     <row r="108" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="90"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="92"/>
+      <c r="A108" s="103"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="75"/>
       <c r="D108" s="25" t="s">
         <v>157</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F108" s="58"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="33"/>
       <c r="H108" s="30"/>
       <c r="I108" s="30"/>
@@ -5240,9 +5318,9 @@
       </c>
     </row>
     <row r="109" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="90"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="62" t="s">
+      <c r="A109" s="103"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="71" t="s">
         <v>301</v>
       </c>
       <c r="D109" s="25" t="s">
@@ -5251,7 +5329,7 @@
       <c r="E109" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F109" s="58"/>
+      <c r="F109" s="57"/>
       <c r="G109" s="32"/>
       <c r="H109" s="30"/>
       <c r="I109" s="30"/>
@@ -5260,16 +5338,16 @@
       </c>
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="90"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="91"/>
+      <c r="A110" s="103"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="76"/>
       <c r="D110" s="25" t="s">
         <v>279</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F110" s="58"/>
+      <c r="F110" s="57"/>
       <c r="G110" s="33"/>
       <c r="H110" s="30"/>
       <c r="I110" s="30"/>
@@ -5278,16 +5356,16 @@
       </c>
     </row>
     <row r="111" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="90"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="91"/>
+      <c r="A111" s="103"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="76"/>
       <c r="D111" s="25" t="s">
         <v>161</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F111" s="58"/>
+      <c r="F111" s="57"/>
       <c r="G111" s="33"/>
       <c r="H111" s="30"/>
       <c r="I111" s="30"/>
@@ -5296,16 +5374,16 @@
       </c>
     </row>
     <row r="112" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="90"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="91"/>
+      <c r="A112" s="103"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="25" t="s">
         <v>162</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F112" s="58"/>
+      <c r="F112" s="57"/>
       <c r="G112" s="33"/>
       <c r="H112" s="30"/>
       <c r="I112" s="30"/>
@@ -5314,9 +5392,9 @@
       </c>
     </row>
     <row r="113" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="90"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="62" t="s">
+      <c r="A113" s="103"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="71" t="s">
         <v>302</v>
       </c>
       <c r="D113" s="25" t="s">
@@ -5325,7 +5403,7 @@
       <c r="E113" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F113" s="58"/>
+      <c r="F113" s="57"/>
       <c r="G113" s="33"/>
       <c r="H113" s="30"/>
       <c r="I113" s="30"/>
@@ -5334,16 +5412,16 @@
       </c>
     </row>
     <row r="114" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="90"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="62"/>
+      <c r="A114" s="103"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="71"/>
       <c r="D114" s="25" t="s">
         <v>164</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F114" s="58"/>
+      <c r="F114" s="57"/>
       <c r="G114" s="33"/>
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
@@ -5352,16 +5430,16 @@
       </c>
     </row>
     <row r="115" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="90"/>
-      <c r="B115" s="68"/>
-      <c r="C115" s="62"/>
+      <c r="A115" s="103"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="71"/>
       <c r="D115" s="25" t="s">
         <v>165</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F115" s="58"/>
+      <c r="F115" s="57"/>
       <c r="G115" s="33"/>
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
@@ -5370,16 +5448,16 @@
       </c>
     </row>
     <row r="116" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="90"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="62"/>
+      <c r="A116" s="103"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="71"/>
       <c r="D116" s="25" t="s">
         <v>166</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F116" s="58"/>
+      <c r="F116" s="57"/>
       <c r="G116" s="33"/>
       <c r="H116" s="30"/>
       <c r="I116" s="30"/>
@@ -5388,9 +5466,9 @@
       </c>
     </row>
     <row r="117" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="90"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="62" t="s">
+      <c r="A117" s="103"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="71" t="s">
         <v>303</v>
       </c>
       <c r="D117" s="25" t="s">
@@ -5399,7 +5477,7 @@
       <c r="E117" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F117" s="58"/>
+      <c r="F117" s="57"/>
       <c r="G117" s="33"/>
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
@@ -5408,16 +5486,16 @@
       </c>
     </row>
     <row r="118" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="90"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="62"/>
+      <c r="A118" s="103"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="71"/>
       <c r="D118" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F118" s="58"/>
+      <c r="F118" s="57"/>
       <c r="G118" s="32"/>
       <c r="H118" s="30"/>
       <c r="I118" s="30"/>
@@ -5426,16 +5504,16 @@
       </c>
     </row>
     <row r="119" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="90"/>
-      <c r="B119" s="68"/>
-      <c r="C119" s="62"/>
+      <c r="A119" s="103"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="71"/>
       <c r="D119" s="25" t="s">
         <v>169</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F119" s="58"/>
+      <c r="F119" s="57"/>
       <c r="G119" s="33"/>
       <c r="H119" s="30"/>
       <c r="I119" s="30"/>
@@ -5444,16 +5522,16 @@
       </c>
     </row>
     <row r="120" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="90"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="62"/>
+      <c r="A120" s="103"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="71"/>
       <c r="D120" s="25" t="s">
         <v>170</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F120" s="58"/>
+      <c r="F120" s="57"/>
       <c r="G120" s="33"/>
       <c r="H120" s="30"/>
       <c r="I120" s="30"/>
@@ -5462,13 +5540,13 @@
       </c>
     </row>
     <row r="121" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="63" t="s">
+      <c r="A121" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="62" t="s">
+      <c r="C121" s="71" t="s">
         <v>304</v>
       </c>
       <c r="D121" s="25" t="s">
@@ -5477,7 +5555,7 @@
       <c r="E121" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F121" s="81"/>
+      <c r="F121" s="72"/>
       <c r="G121" s="32"/>
       <c r="H121" s="30"/>
       <c r="I121" s="30"/>
@@ -5486,16 +5564,16 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="90"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="91"/>
+      <c r="A122" s="103"/>
+      <c r="B122" s="78"/>
+      <c r="C122" s="76"/>
       <c r="D122" s="25" t="s">
         <v>173</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F122" s="82"/>
+      <c r="F122" s="73"/>
       <c r="G122" s="33"/>
       <c r="H122" s="30"/>
       <c r="I122" s="30"/>
@@ -5504,16 +5582,16 @@
       </c>
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="90"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="91"/>
+      <c r="A123" s="103"/>
+      <c r="B123" s="78"/>
+      <c r="C123" s="76"/>
       <c r="D123" s="25" t="s">
         <v>174</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F123" s="82"/>
+      <c r="F123" s="73"/>
       <c r="G123" s="33"/>
       <c r="H123" s="30"/>
       <c r="I123" s="30"/>
@@ -5522,16 +5600,16 @@
       </c>
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="90"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="91"/>
+      <c r="A124" s="103"/>
+      <c r="B124" s="78"/>
+      <c r="C124" s="76"/>
       <c r="D124" s="25" t="s">
         <v>175</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F124" s="83"/>
+      <c r="F124" s="74"/>
       <c r="G124" s="33"/>
       <c r="H124" s="30"/>
       <c r="I124" s="30"/>
@@ -5540,9 +5618,9 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="90"/>
-      <c r="B125" s="68"/>
-      <c r="C125" s="62" t="s">
+      <c r="A125" s="103"/>
+      <c r="B125" s="78"/>
+      <c r="C125" s="71" t="s">
         <v>305</v>
       </c>
       <c r="D125" s="25" t="s">
@@ -5551,7 +5629,7 @@
       <c r="E125" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F125" s="81"/>
+      <c r="F125" s="72"/>
       <c r="G125" s="32"/>
       <c r="H125" s="30"/>
       <c r="I125" s="30"/>
@@ -5560,16 +5638,16 @@
       </c>
     </row>
     <row r="126" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="90"/>
-      <c r="B126" s="68"/>
-      <c r="C126" s="91"/>
+      <c r="A126" s="103"/>
+      <c r="B126" s="78"/>
+      <c r="C126" s="76"/>
       <c r="D126" s="25" t="s">
         <v>177</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F126" s="82"/>
+      <c r="F126" s="73"/>
       <c r="G126" s="33"/>
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
@@ -5578,16 +5656,16 @@
       </c>
     </row>
     <row r="127" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="90"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="91"/>
+      <c r="A127" s="103"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="76"/>
       <c r="D127" s="25" t="s">
         <v>178</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F127" s="82"/>
+      <c r="F127" s="73"/>
       <c r="G127" s="33"/>
       <c r="H127" s="30"/>
       <c r="I127" s="30"/>
@@ -5596,16 +5674,16 @@
       </c>
     </row>
     <row r="128" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="90"/>
-      <c r="B128" s="68"/>
-      <c r="C128" s="91"/>
+      <c r="A128" s="103"/>
+      <c r="B128" s="78"/>
+      <c r="C128" s="76"/>
       <c r="D128" s="25" t="s">
         <v>179</v>
       </c>
       <c r="E128" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F128" s="83"/>
+      <c r="F128" s="74"/>
       <c r="G128" s="33"/>
       <c r="H128" s="30"/>
       <c r="I128" s="30"/>
@@ -5614,9 +5692,9 @@
       </c>
     </row>
     <row r="129" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="90"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="62" t="s">
+      <c r="A129" s="103"/>
+      <c r="B129" s="78"/>
+      <c r="C129" s="71" t="s">
         <v>306</v>
       </c>
       <c r="D129" s="25" t="s">
@@ -5625,7 +5703,7 @@
       <c r="E129" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F129" s="81"/>
+      <c r="F129" s="72"/>
       <c r="G129" s="33"/>
       <c r="H129" s="30"/>
       <c r="I129" s="30"/>
@@ -5634,16 +5712,16 @@
       </c>
     </row>
     <row r="130" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="90"/>
-      <c r="B130" s="68"/>
-      <c r="C130" s="62"/>
+      <c r="A130" s="103"/>
+      <c r="B130" s="78"/>
+      <c r="C130" s="71"/>
       <c r="D130" s="25" t="s">
         <v>181</v>
       </c>
       <c r="E130" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F130" s="82"/>
+      <c r="F130" s="73"/>
       <c r="G130" s="33"/>
       <c r="H130" s="30"/>
       <c r="I130" s="30"/>
@@ -5652,16 +5730,16 @@
       </c>
     </row>
     <row r="131" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="90"/>
-      <c r="B131" s="68"/>
-      <c r="C131" s="62"/>
+      <c r="A131" s="103"/>
+      <c r="B131" s="78"/>
+      <c r="C131" s="71"/>
       <c r="D131" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E131" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F131" s="82"/>
+      <c r="F131" s="73"/>
       <c r="G131" s="33"/>
       <c r="H131" s="30"/>
       <c r="I131" s="30"/>
@@ -5670,16 +5748,16 @@
       </c>
     </row>
     <row r="132" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="90"/>
-      <c r="B132" s="68"/>
-      <c r="C132" s="62"/>
+      <c r="A132" s="103"/>
+      <c r="B132" s="78"/>
+      <c r="C132" s="71"/>
       <c r="D132" s="25" t="s">
         <v>183</v>
       </c>
       <c r="E132" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F132" s="83"/>
+      <c r="F132" s="74"/>
       <c r="G132" s="33"/>
       <c r="H132" s="30"/>
       <c r="I132" s="30"/>
@@ -5688,9 +5766,9 @@
       </c>
     </row>
     <row r="133" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="90"/>
-      <c r="B133" s="68"/>
-      <c r="C133" s="62" t="s">
+      <c r="A133" s="103"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="71" t="s">
         <v>307</v>
       </c>
       <c r="D133" s="25" t="s">
@@ -5699,7 +5777,7 @@
       <c r="E133" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="F133" s="58"/>
+      <c r="F133" s="57"/>
       <c r="G133" s="32"/>
       <c r="H133" s="30"/>
       <c r="I133" s="30"/>
@@ -5708,16 +5786,16 @@
       </c>
     </row>
     <row r="134" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="90"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="62"/>
+      <c r="A134" s="103"/>
+      <c r="B134" s="78"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E134" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F134" s="58"/>
+      <c r="F134" s="57"/>
       <c r="G134" s="32"/>
       <c r="H134" s="30"/>
       <c r="I134" s="30"/>
@@ -5726,16 +5804,16 @@
       </c>
     </row>
     <row r="135" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="90"/>
-      <c r="B135" s="68"/>
-      <c r="C135" s="91"/>
+      <c r="A135" s="103"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="76"/>
       <c r="D135" s="25" t="s">
         <v>187</v>
       </c>
       <c r="E135" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F135" s="58"/>
+      <c r="F135" s="57"/>
       <c r="G135" s="33"/>
       <c r="H135" s="30"/>
       <c r="I135" s="30"/>
@@ -5744,16 +5822,16 @@
       </c>
     </row>
     <row r="136" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="90"/>
-      <c r="B136" s="69"/>
-      <c r="C136" s="91"/>
+      <c r="A136" s="103"/>
+      <c r="B136" s="79"/>
+      <c r="C136" s="76"/>
       <c r="D136" s="25" t="s">
         <v>188</v>
       </c>
       <c r="E136" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F136" s="58"/>
+      <c r="F136" s="57"/>
       <c r="G136" s="33"/>
       <c r="H136" s="30"/>
       <c r="I136" s="30"/>
@@ -5763,14 +5841,14 @@
     </row>
     <row r="137" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
-      <c r="B137" s="70" t="s">
+      <c r="B137" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="70"/>
-      <c r="G137" s="70"/>
+      <c r="C137" s="88"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="88"/>
+      <c r="G137" s="88"/>
       <c r="H137" s="34" t="s">
         <v>1</v>
       </c>
@@ -5793,23 +5871,23 @@
     </row>
     <row r="138" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="70"/>
-      <c r="F138" s="70"/>
-      <c r="G138" s="70"/>
-      <c r="H138" s="52">
+      <c r="B138" s="88"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="88"/>
+      <c r="F138" s="88"/>
+      <c r="G138" s="88"/>
+      <c r="H138" s="95">
         <v>43297</v>
       </c>
-      <c r="I138" s="52">
+      <c r="I138" s="95">
         <v>43298</v>
       </c>
-      <c r="J138" s="54">
+      <c r="J138" s="93">
         <f>AVERAGE(J141:J236)</f>
         <v>0</v>
       </c>
-      <c r="K138" s="110">
+      <c r="K138" s="56">
         <f>SUM(F141:F236)</f>
         <v>0</v>
       </c>
@@ -5819,16 +5897,16 @@
     </row>
     <row r="139" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="53"/>
-      <c r="I139" s="53"/>
-      <c r="J139" s="55"/>
-      <c r="K139" s="110"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="88"/>
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+      <c r="F139" s="88"/>
+      <c r="G139" s="88"/>
+      <c r="H139" s="96"/>
+      <c r="I139" s="96"/>
+      <c r="J139" s="94"/>
+      <c r="K139" s="56"/>
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
       <c r="N139" s="14"/>
@@ -5870,13 +5948,13 @@
       <c r="N140" s="13"/>
     </row>
     <row r="141" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="63" t="s">
+      <c r="A141" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B141" s="67" t="s">
+      <c r="B141" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="C141" s="65" t="s">
+      <c r="C141" s="62" t="s">
         <v>308</v>
       </c>
       <c r="D141" s="10" t="s">
@@ -5885,7 +5963,7 @@
       <c r="E141" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F141" s="58"/>
+      <c r="F141" s="57"/>
       <c r="G141" s="40"/>
       <c r="H141" s="35"/>
       <c r="I141" s="35"/>
@@ -5897,16 +5975,16 @@
       <c r="M141" s="13"/>
     </row>
     <row r="142" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="64"/>
-      <c r="B142" s="68"/>
-      <c r="C142" s="66"/>
+      <c r="A142" s="91"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="102"/>
       <c r="D142" s="10" t="s">
         <v>190</v>
       </c>
       <c r="E142" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F142" s="58"/>
+      <c r="F142" s="57"/>
       <c r="G142" s="39"/>
       <c r="H142" s="35"/>
       <c r="I142" s="35"/>
@@ -5918,16 +5996,16 @@
       <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="64"/>
-      <c r="B143" s="68"/>
-      <c r="C143" s="66"/>
+      <c r="A143" s="91"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="10" t="s">
         <v>192</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F143" s="58"/>
+      <c r="F143" s="57"/>
       <c r="G143" s="39"/>
       <c r="H143" s="35"/>
       <c r="I143" s="35"/>
@@ -5939,16 +6017,16 @@
       <c r="M143" s="13"/>
     </row>
     <row r="144" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="64"/>
-      <c r="B144" s="68"/>
-      <c r="C144" s="66"/>
+      <c r="A144" s="91"/>
+      <c r="B144" s="78"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="10" t="s">
         <v>193</v>
       </c>
       <c r="E144" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F144" s="58"/>
+      <c r="F144" s="57"/>
       <c r="G144" s="39"/>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
@@ -5960,9 +6038,9 @@
       <c r="M144" s="13"/>
     </row>
     <row r="145" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="64"/>
-      <c r="B145" s="68"/>
-      <c r="C145" s="65" t="s">
+      <c r="A145" s="91"/>
+      <c r="B145" s="78"/>
+      <c r="C145" s="62" t="s">
         <v>309</v>
       </c>
       <c r="D145" s="10" t="s">
@@ -5971,7 +6049,7 @@
       <c r="E145" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F145" s="58"/>
+      <c r="F145" s="57"/>
       <c r="G145" s="40"/>
       <c r="H145" s="35"/>
       <c r="I145" s="35"/>
@@ -5983,16 +6061,16 @@
       <c r="M145" s="13"/>
     </row>
     <row r="146" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="64"/>
-      <c r="B146" s="68"/>
-      <c r="C146" s="66"/>
+      <c r="A146" s="91"/>
+      <c r="B146" s="78"/>
+      <c r="C146" s="102"/>
       <c r="D146" s="10" t="s">
         <v>195</v>
       </c>
       <c r="E146" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F146" s="58"/>
+      <c r="F146" s="57"/>
       <c r="G146" s="39"/>
       <c r="H146" s="35"/>
       <c r="I146" s="35"/>
@@ -6004,16 +6082,16 @@
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="64"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="66"/>
+      <c r="A147" s="91"/>
+      <c r="B147" s="78"/>
+      <c r="C147" s="102"/>
       <c r="D147" s="10" t="s">
         <v>196</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F147" s="58"/>
+      <c r="F147" s="57"/>
       <c r="G147" s="39"/>
       <c r="H147" s="35"/>
       <c r="I147" s="35"/>
@@ -6025,16 +6103,16 @@
       <c r="M147" s="13"/>
     </row>
     <row r="148" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="64"/>
-      <c r="B148" s="68"/>
-      <c r="C148" s="66"/>
+      <c r="A148" s="91"/>
+      <c r="B148" s="78"/>
+      <c r="C148" s="102"/>
       <c r="D148" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F148" s="58"/>
+      <c r="F148" s="57"/>
       <c r="G148" s="39"/>
       <c r="H148" s="35"/>
       <c r="I148" s="35"/>
@@ -6046,9 +6124,9 @@
       <c r="M148" s="13"/>
     </row>
     <row r="149" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="64"/>
-      <c r="B149" s="68"/>
-      <c r="C149" s="62" t="s">
+      <c r="A149" s="91"/>
+      <c r="B149" s="78"/>
+      <c r="C149" s="71" t="s">
         <v>310</v>
       </c>
       <c r="D149" s="10" t="s">
@@ -6057,7 +6135,7 @@
       <c r="E149" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F149" s="58"/>
+      <c r="F149" s="57"/>
       <c r="G149" s="37"/>
       <c r="H149" s="35"/>
       <c r="I149" s="35"/>
@@ -6069,16 +6147,16 @@
       <c r="M149" s="13"/>
     </row>
     <row r="150" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="64"/>
-      <c r="B150" s="68"/>
-      <c r="C150" s="62"/>
+      <c r="A150" s="91"/>
+      <c r="B150" s="78"/>
+      <c r="C150" s="71"/>
       <c r="D150" s="10" t="s">
         <v>312</v>
       </c>
       <c r="E150" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F150" s="58"/>
+      <c r="F150" s="57"/>
       <c r="G150" s="37"/>
       <c r="H150" s="35"/>
       <c r="I150" s="35"/>
@@ -6087,16 +6165,16 @@
       </c>
     </row>
     <row r="151" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="64"/>
-      <c r="B151" s="68"/>
-      <c r="C151" s="62"/>
+      <c r="A151" s="91"/>
+      <c r="B151" s="78"/>
+      <c r="C151" s="71"/>
       <c r="D151" s="10" t="s">
         <v>313</v>
       </c>
       <c r="E151" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F151" s="58"/>
+      <c r="F151" s="57"/>
       <c r="G151" s="37"/>
       <c r="H151" s="35"/>
       <c r="I151" s="35"/>
@@ -6105,16 +6183,16 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="64"/>
-      <c r="B152" s="68"/>
-      <c r="C152" s="62"/>
+      <c r="A152" s="91"/>
+      <c r="B152" s="78"/>
+      <c r="C152" s="71"/>
       <c r="D152" s="10" t="s">
         <v>314</v>
       </c>
       <c r="E152" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F152" s="58"/>
+      <c r="F152" s="57"/>
       <c r="G152" s="37"/>
       <c r="H152" s="35"/>
       <c r="I152" s="35"/>
@@ -6126,9 +6204,9 @@
       <c r="M152" s="13"/>
     </row>
     <row r="153" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="64"/>
-      <c r="B153" s="68"/>
-      <c r="C153" s="77" t="s">
+      <c r="A153" s="91"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="58" t="s">
         <v>311</v>
       </c>
       <c r="D153" s="10" t="s">
@@ -6137,7 +6215,7 @@
       <c r="E153" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F153" s="58"/>
+      <c r="F153" s="57"/>
       <c r="G153" s="37"/>
       <c r="H153" s="35"/>
       <c r="I153" s="35"/>
@@ -6146,16 +6224,16 @@
       </c>
     </row>
     <row r="154" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="64"/>
-      <c r="B154" s="68"/>
-      <c r="C154" s="78"/>
+      <c r="A154" s="91"/>
+      <c r="B154" s="78"/>
+      <c r="C154" s="59"/>
       <c r="D154" s="10" t="s">
         <v>199</v>
       </c>
       <c r="E154" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F154" s="58"/>
+      <c r="F154" s="57"/>
       <c r="G154" s="37"/>
       <c r="H154" s="35"/>
       <c r="I154" s="35"/>
@@ -6164,16 +6242,16 @@
       </c>
     </row>
     <row r="155" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="64"/>
-      <c r="B155" s="68"/>
-      <c r="C155" s="78"/>
+      <c r="A155" s="91"/>
+      <c r="B155" s="78"/>
+      <c r="C155" s="59"/>
       <c r="D155" s="10" t="s">
         <v>200</v>
       </c>
       <c r="E155" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F155" s="58"/>
+      <c r="F155" s="57"/>
       <c r="G155" s="37"/>
       <c r="H155" s="35"/>
       <c r="I155" s="35"/>
@@ -6182,16 +6260,16 @@
       </c>
     </row>
     <row r="156" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="64"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="80"/>
+      <c r="A156" s="91"/>
+      <c r="B156" s="80"/>
+      <c r="C156" s="61"/>
       <c r="D156" s="10" t="s">
         <v>201</v>
       </c>
       <c r="E156" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F156" s="58"/>
+      <c r="F156" s="57"/>
       <c r="G156" s="37"/>
       <c r="H156" s="35"/>
       <c r="I156" s="35"/>
@@ -6203,13 +6281,13 @@
       <c r="M156" s="13"/>
     </row>
     <row r="157" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="63" t="s">
+      <c r="A157" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B157" s="67" t="s">
+      <c r="B157" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="65" t="s">
+      <c r="C157" s="62" t="s">
         <v>316</v>
       </c>
       <c r="D157" s="10" t="s">
@@ -6218,7 +6296,7 @@
       <c r="E157" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F157" s="58"/>
+      <c r="F157" s="57"/>
       <c r="G157" s="40"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
@@ -6227,16 +6305,16 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="64"/>
-      <c r="B158" s="68"/>
-      <c r="C158" s="66"/>
+      <c r="A158" s="91"/>
+      <c r="B158" s="78"/>
+      <c r="C158" s="102"/>
       <c r="D158" s="10" t="s">
         <v>203</v>
       </c>
       <c r="E158" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F158" s="58"/>
+      <c r="F158" s="57"/>
       <c r="G158" s="39"/>
       <c r="H158" s="35"/>
       <c r="I158" s="35"/>
@@ -6245,16 +6323,16 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="64"/>
-      <c r="B159" s="68"/>
-      <c r="C159" s="66"/>
+      <c r="A159" s="91"/>
+      <c r="B159" s="78"/>
+      <c r="C159" s="102"/>
       <c r="D159" s="10" t="s">
         <v>204</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F159" s="58"/>
+      <c r="F159" s="57"/>
       <c r="G159" s="39"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
@@ -6263,16 +6341,16 @@
       </c>
     </row>
     <row r="160" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="64"/>
-      <c r="B160" s="68"/>
-      <c r="C160" s="66"/>
+      <c r="A160" s="91"/>
+      <c r="B160" s="78"/>
+      <c r="C160" s="102"/>
       <c r="D160" s="10" t="s">
         <v>205</v>
       </c>
       <c r="E160" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F160" s="58"/>
+      <c r="F160" s="57"/>
       <c r="G160" s="39"/>
       <c r="H160" s="35"/>
       <c r="I160" s="35"/>
@@ -6281,9 +6359,9 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="64"/>
-      <c r="B161" s="68"/>
-      <c r="C161" s="65" t="s">
+      <c r="A161" s="91"/>
+      <c r="B161" s="78"/>
+      <c r="C161" s="62" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="10" t="s">
@@ -6292,7 +6370,7 @@
       <c r="E161" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F161" s="58"/>
+      <c r="F161" s="57"/>
       <c r="G161" s="40"/>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
@@ -6301,16 +6379,16 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="64"/>
-      <c r="B162" s="68"/>
-      <c r="C162" s="66"/>
+      <c r="A162" s="91"/>
+      <c r="B162" s="78"/>
+      <c r="C162" s="102"/>
       <c r="D162" s="10" t="s">
         <v>207</v>
       </c>
       <c r="E162" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F162" s="58"/>
+      <c r="F162" s="57"/>
       <c r="G162" s="39"/>
       <c r="H162" s="35"/>
       <c r="I162" s="35"/>
@@ -6319,16 +6397,16 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="64"/>
-      <c r="B163" s="68"/>
-      <c r="C163" s="66"/>
+      <c r="A163" s="91"/>
+      <c r="B163" s="78"/>
+      <c r="C163" s="102"/>
       <c r="D163" s="10" t="s">
         <v>208</v>
       </c>
       <c r="E163" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F163" s="58"/>
+      <c r="F163" s="57"/>
       <c r="G163" s="39"/>
       <c r="H163" s="35"/>
       <c r="I163" s="35"/>
@@ -6337,16 +6415,16 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="64"/>
-      <c r="B164" s="68"/>
-      <c r="C164" s="66"/>
+      <c r="A164" s="91"/>
+      <c r="B164" s="78"/>
+      <c r="C164" s="102"/>
       <c r="D164" s="10" t="s">
         <v>209</v>
       </c>
       <c r="E164" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F164" s="58"/>
+      <c r="F164" s="57"/>
       <c r="G164" s="39"/>
       <c r="H164" s="35"/>
       <c r="I164" s="35"/>
@@ -6355,9 +6433,9 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="64"/>
-      <c r="B165" s="68"/>
-      <c r="C165" s="62" t="s">
+      <c r="A165" s="91"/>
+      <c r="B165" s="78"/>
+      <c r="C165" s="71" t="s">
         <v>318</v>
       </c>
       <c r="D165" s="10" t="s">
@@ -6366,7 +6444,7 @@
       <c r="E165" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F165" s="58"/>
+      <c r="F165" s="57"/>
       <c r="G165" s="37"/>
       <c r="H165" s="35"/>
       <c r="I165" s="35"/>
@@ -6375,16 +6453,16 @@
       </c>
     </row>
     <row r="166" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="64"/>
-      <c r="B166" s="68"/>
-      <c r="C166" s="62"/>
+      <c r="A166" s="91"/>
+      <c r="B166" s="78"/>
+      <c r="C166" s="71"/>
       <c r="D166" s="10" t="s">
         <v>336</v>
       </c>
       <c r="E166" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F166" s="58"/>
+      <c r="F166" s="57"/>
       <c r="G166" s="37"/>
       <c r="H166" s="35"/>
       <c r="I166" s="35"/>
@@ -6393,16 +6471,16 @@
       </c>
     </row>
     <row r="167" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="64"/>
-      <c r="B167" s="68"/>
-      <c r="C167" s="62"/>
+      <c r="A167" s="91"/>
+      <c r="B167" s="78"/>
+      <c r="C167" s="71"/>
       <c r="D167" s="10" t="s">
         <v>337</v>
       </c>
       <c r="E167" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F167" s="58"/>
+      <c r="F167" s="57"/>
       <c r="G167" s="37"/>
       <c r="H167" s="35"/>
       <c r="I167" s="35"/>
@@ -6411,16 +6489,16 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="64"/>
-      <c r="B168" s="68"/>
-      <c r="C168" s="62"/>
+      <c r="A168" s="91"/>
+      <c r="B168" s="78"/>
+      <c r="C168" s="71"/>
       <c r="D168" s="10" t="s">
         <v>338</v>
       </c>
       <c r="E168" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F168" s="58"/>
+      <c r="F168" s="57"/>
       <c r="G168" s="37"/>
       <c r="H168" s="35"/>
       <c r="I168" s="35"/>
@@ -6429,9 +6507,9 @@
       </c>
     </row>
     <row r="169" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="64"/>
-      <c r="B169" s="68"/>
-      <c r="C169" s="77" t="s">
+      <c r="A169" s="91"/>
+      <c r="B169" s="78"/>
+      <c r="C169" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -6440,7 +6518,7 @@
       <c r="E169" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F169" s="58"/>
+      <c r="F169" s="57"/>
       <c r="G169" s="37"/>
       <c r="H169" s="35"/>
       <c r="I169" s="35"/>
@@ -6449,16 +6527,16 @@
       </c>
     </row>
     <row r="170" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="64"/>
-      <c r="B170" s="68"/>
-      <c r="C170" s="78"/>
+      <c r="A170" s="91"/>
+      <c r="B170" s="78"/>
+      <c r="C170" s="59"/>
       <c r="D170" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E170" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F170" s="58"/>
+      <c r="F170" s="57"/>
       <c r="G170" s="37"/>
       <c r="H170" s="35"/>
       <c r="I170" s="35"/>
@@ -6467,16 +6545,16 @@
       </c>
     </row>
     <row r="171" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="64"/>
-      <c r="B171" s="68"/>
-      <c r="C171" s="78"/>
+      <c r="A171" s="91"/>
+      <c r="B171" s="78"/>
+      <c r="C171" s="59"/>
       <c r="D171" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E171" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F171" s="58"/>
+      <c r="F171" s="57"/>
       <c r="G171" s="37"/>
       <c r="H171" s="35"/>
       <c r="I171" s="35"/>
@@ -6485,16 +6563,16 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="64"/>
-      <c r="B172" s="68"/>
-      <c r="C172" s="80"/>
+      <c r="A172" s="91"/>
+      <c r="B172" s="78"/>
+      <c r="C172" s="61"/>
       <c r="D172" s="10" t="s">
         <v>214</v>
       </c>
       <c r="E172" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F172" s="58"/>
+      <c r="F172" s="57"/>
       <c r="G172" s="37"/>
       <c r="H172" s="35"/>
       <c r="I172" s="35"/>
@@ -6503,13 +6581,13 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="84" t="s">
+      <c r="A173" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B173" s="62" t="s">
+      <c r="B173" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="C173" s="56" t="s">
+      <c r="C173" s="110" t="s">
         <v>320</v>
       </c>
       <c r="D173" s="10" t="s">
@@ -6518,7 +6596,7 @@
       <c r="E173" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F173" s="58"/>
+      <c r="F173" s="57"/>
       <c r="G173" s="40"/>
       <c r="H173" s="35"/>
       <c r="I173" s="35"/>
@@ -6527,16 +6605,16 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="85"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="57"/>
+      <c r="A174" s="109"/>
+      <c r="B174" s="71"/>
+      <c r="C174" s="111"/>
       <c r="D174" s="10" t="s">
         <v>216</v>
       </c>
       <c r="E174" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F174" s="58"/>
+      <c r="F174" s="57"/>
       <c r="G174" s="39"/>
       <c r="H174" s="35"/>
       <c r="I174" s="35"/>
@@ -6545,16 +6623,16 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="85"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="57"/>
+      <c r="A175" s="109"/>
+      <c r="B175" s="71"/>
+      <c r="C175" s="111"/>
       <c r="D175" s="10" t="s">
         <v>217</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F175" s="58"/>
+      <c r="F175" s="57"/>
       <c r="G175" s="39"/>
       <c r="H175" s="35"/>
       <c r="I175" s="35"/>
@@ -6563,16 +6641,16 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="85"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="57"/>
+      <c r="A176" s="109"/>
+      <c r="B176" s="71"/>
+      <c r="C176" s="111"/>
       <c r="D176" s="10" t="s">
         <v>218</v>
       </c>
       <c r="E176" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F176" s="58"/>
+      <c r="F176" s="57"/>
       <c r="G176" s="39"/>
       <c r="H176" s="35"/>
       <c r="I176" s="35"/>
@@ -6581,9 +6659,9 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="85"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="56" t="s">
+      <c r="A177" s="109"/>
+      <c r="B177" s="71"/>
+      <c r="C177" s="110" t="s">
         <v>321</v>
       </c>
       <c r="D177" s="10" t="s">
@@ -6592,7 +6670,7 @@
       <c r="E177" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F177" s="58"/>
+      <c r="F177" s="57"/>
       <c r="G177" s="40"/>
       <c r="H177" s="35"/>
       <c r="I177" s="35"/>
@@ -6601,16 +6679,16 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="85"/>
-      <c r="B178" s="62"/>
-      <c r="C178" s="57"/>
+      <c r="A178" s="109"/>
+      <c r="B178" s="71"/>
+      <c r="C178" s="111"/>
       <c r="D178" s="10" t="s">
         <v>221</v>
       </c>
       <c r="E178" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F178" s="58"/>
+      <c r="F178" s="57"/>
       <c r="G178" s="39"/>
       <c r="H178" s="35"/>
       <c r="I178" s="35"/>
@@ -6619,16 +6697,16 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="85"/>
-      <c r="B179" s="62"/>
-      <c r="C179" s="57"/>
+      <c r="A179" s="109"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="111"/>
       <c r="D179" s="10" t="s">
         <v>222</v>
       </c>
       <c r="E179" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F179" s="58"/>
+      <c r="F179" s="57"/>
       <c r="G179" s="39"/>
       <c r="H179" s="35"/>
       <c r="I179" s="35"/>
@@ -6637,16 +6715,16 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="85"/>
-      <c r="B180" s="62"/>
-      <c r="C180" s="57"/>
+      <c r="A180" s="109"/>
+      <c r="B180" s="71"/>
+      <c r="C180" s="111"/>
       <c r="D180" s="10" t="s">
         <v>223</v>
       </c>
       <c r="E180" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F180" s="58"/>
+      <c r="F180" s="57"/>
       <c r="G180" s="39"/>
       <c r="H180" s="35"/>
       <c r="I180" s="35"/>
@@ -6655,9 +6733,9 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="85"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="61" t="s">
+      <c r="A181" s="109"/>
+      <c r="B181" s="71"/>
+      <c r="C181" s="70" t="s">
         <v>322</v>
       </c>
       <c r="D181" s="10" t="s">
@@ -6666,7 +6744,7 @@
       <c r="E181" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F181" s="58"/>
+      <c r="F181" s="57"/>
       <c r="G181" s="37"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
@@ -6675,16 +6753,16 @@
       </c>
     </row>
     <row r="182" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="85"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="61"/>
+      <c r="A182" s="109"/>
+      <c r="B182" s="71"/>
+      <c r="C182" s="70"/>
       <c r="D182" s="10" t="s">
         <v>225</v>
       </c>
       <c r="E182" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F182" s="58"/>
+      <c r="F182" s="57"/>
       <c r="G182" s="37"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
@@ -6693,16 +6771,16 @@
       </c>
     </row>
     <row r="183" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="85"/>
-      <c r="B183" s="62"/>
-      <c r="C183" s="61"/>
+      <c r="A183" s="109"/>
+      <c r="B183" s="71"/>
+      <c r="C183" s="70"/>
       <c r="D183" s="10" t="s">
         <v>226</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F183" s="58"/>
+      <c r="F183" s="57"/>
       <c r="G183" s="37"/>
       <c r="H183" s="35"/>
       <c r="I183" s="35"/>
@@ -6711,16 +6789,16 @@
       </c>
     </row>
     <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="85"/>
-      <c r="B184" s="62"/>
-      <c r="C184" s="61"/>
+      <c r="A184" s="109"/>
+      <c r="B184" s="71"/>
+      <c r="C184" s="70"/>
       <c r="D184" s="10" t="s">
         <v>227</v>
       </c>
       <c r="E184" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F184" s="58"/>
+      <c r="F184" s="57"/>
       <c r="G184" s="37"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
@@ -6729,9 +6807,9 @@
       </c>
     </row>
     <row r="185" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="85"/>
-      <c r="B185" s="62"/>
-      <c r="C185" s="86" t="s">
+      <c r="A185" s="109"/>
+      <c r="B185" s="71"/>
+      <c r="C185" s="67" t="s">
         <v>323</v>
       </c>
       <c r="D185" s="10" t="s">
@@ -6740,7 +6818,7 @@
       <c r="E185" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F185" s="58"/>
+      <c r="F185" s="57"/>
       <c r="G185" s="37"/>
       <c r="H185" s="35"/>
       <c r="I185" s="35"/>
@@ -6749,16 +6827,16 @@
       </c>
     </row>
     <row r="186" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="85"/>
-      <c r="B186" s="62"/>
-      <c r="C186" s="87"/>
+      <c r="A186" s="109"/>
+      <c r="B186" s="71"/>
+      <c r="C186" s="68"/>
       <c r="D186" s="10" t="s">
         <v>229</v>
       </c>
       <c r="E186" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F186" s="58"/>
+      <c r="F186" s="57"/>
       <c r="G186" s="37"/>
       <c r="H186" s="35"/>
       <c r="I186" s="35"/>
@@ -6767,16 +6845,16 @@
       </c>
     </row>
     <row r="187" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="85"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="87"/>
+      <c r="A187" s="109"/>
+      <c r="B187" s="71"/>
+      <c r="C187" s="68"/>
       <c r="D187" s="10" t="s">
         <v>230</v>
       </c>
       <c r="E187" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F187" s="58"/>
+      <c r="F187" s="57"/>
       <c r="G187" s="37"/>
       <c r="H187" s="35"/>
       <c r="I187" s="35"/>
@@ -6785,16 +6863,16 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="85"/>
-      <c r="B188" s="62"/>
-      <c r="C188" s="88"/>
+      <c r="A188" s="109"/>
+      <c r="B188" s="71"/>
+      <c r="C188" s="112"/>
       <c r="D188" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E188" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F188" s="58"/>
+      <c r="F188" s="57"/>
       <c r="G188" s="37"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
@@ -6803,13 +6881,13 @@
       </c>
     </row>
     <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="63" t="s">
+      <c r="A189" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B189" s="67" t="s">
+      <c r="B189" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C189" s="65" t="s">
+      <c r="C189" s="62" t="s">
         <v>324</v>
       </c>
       <c r="D189" s="10" t="s">
@@ -6818,7 +6896,7 @@
       <c r="E189" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F189" s="58"/>
+      <c r="F189" s="57"/>
       <c r="G189" s="40"/>
       <c r="H189" s="35"/>
       <c r="I189" s="35"/>
@@ -6827,16 +6905,16 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="64"/>
-      <c r="B190" s="68"/>
-      <c r="C190" s="66"/>
+      <c r="A190" s="91"/>
+      <c r="B190" s="78"/>
+      <c r="C190" s="102"/>
       <c r="D190" s="10" t="s">
         <v>233</v>
       </c>
       <c r="E190" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F190" s="58"/>
+      <c r="F190" s="57"/>
       <c r="G190" s="39"/>
       <c r="H190" s="35"/>
       <c r="I190" s="35"/>
@@ -6845,16 +6923,16 @@
       </c>
     </row>
     <row r="191" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="64"/>
-      <c r="B191" s="68"/>
-      <c r="C191" s="66"/>
+      <c r="A191" s="91"/>
+      <c r="B191" s="78"/>
+      <c r="C191" s="102"/>
       <c r="D191" s="10" t="s">
         <v>234</v>
       </c>
       <c r="E191" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F191" s="58"/>
+      <c r="F191" s="57"/>
       <c r="G191" s="39"/>
       <c r="H191" s="35"/>
       <c r="I191" s="35"/>
@@ -6863,16 +6941,16 @@
       </c>
     </row>
     <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="64"/>
-      <c r="B192" s="68"/>
-      <c r="C192" s="66"/>
+      <c r="A192" s="91"/>
+      <c r="B192" s="78"/>
+      <c r="C192" s="102"/>
       <c r="D192" s="10" t="s">
         <v>235</v>
       </c>
       <c r="E192" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F192" s="58"/>
+      <c r="F192" s="57"/>
       <c r="G192" s="39"/>
       <c r="H192" s="35"/>
       <c r="I192" s="35"/>
@@ -6881,9 +6959,9 @@
       </c>
     </row>
     <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="64"/>
-      <c r="B193" s="68"/>
-      <c r="C193" s="65" t="s">
+      <c r="A193" s="91"/>
+      <c r="B193" s="78"/>
+      <c r="C193" s="62" t="s">
         <v>325</v>
       </c>
       <c r="D193" s="10" t="s">
@@ -6892,7 +6970,7 @@
       <c r="E193" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F193" s="58"/>
+      <c r="F193" s="57"/>
       <c r="G193" s="40"/>
       <c r="H193" s="35"/>
       <c r="I193" s="35"/>
@@ -6901,16 +6979,16 @@
       </c>
     </row>
     <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="64"/>
-      <c r="B194" s="68"/>
-      <c r="C194" s="66"/>
+      <c r="A194" s="91"/>
+      <c r="B194" s="78"/>
+      <c r="C194" s="102"/>
       <c r="D194" s="10" t="s">
         <v>240</v>
       </c>
       <c r="E194" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F194" s="58"/>
+      <c r="F194" s="57"/>
       <c r="G194" s="39"/>
       <c r="H194" s="35"/>
       <c r="I194" s="35"/>
@@ -6919,16 +6997,16 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="64"/>
-      <c r="B195" s="68"/>
-      <c r="C195" s="66"/>
+      <c r="A195" s="91"/>
+      <c r="B195" s="78"/>
+      <c r="C195" s="102"/>
       <c r="D195" s="10" t="s">
         <v>241</v>
       </c>
       <c r="E195" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F195" s="58"/>
+      <c r="F195" s="57"/>
       <c r="G195" s="39"/>
       <c r="H195" s="35"/>
       <c r="I195" s="35"/>
@@ -6937,16 +7015,16 @@
       </c>
     </row>
     <row r="196" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="64"/>
-      <c r="B196" s="68"/>
-      <c r="C196" s="66"/>
+      <c r="A196" s="91"/>
+      <c r="B196" s="78"/>
+      <c r="C196" s="102"/>
       <c r="D196" s="10" t="s">
         <v>242</v>
       </c>
       <c r="E196" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F196" s="58"/>
+      <c r="F196" s="57"/>
       <c r="G196" s="39"/>
       <c r="H196" s="35"/>
       <c r="I196" s="35"/>
@@ -6955,9 +7033,9 @@
       </c>
     </row>
     <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="64"/>
-      <c r="B197" s="68"/>
-      <c r="C197" s="62" t="s">
+      <c r="A197" s="91"/>
+      <c r="B197" s="78"/>
+      <c r="C197" s="71" t="s">
         <v>326</v>
       </c>
       <c r="D197" s="10" t="s">
@@ -6966,7 +7044,7 @@
       <c r="E197" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F197" s="58"/>
+      <c r="F197" s="57"/>
       <c r="G197" s="37"/>
       <c r="H197" s="35"/>
       <c r="I197" s="35"/>
@@ -6975,16 +7053,16 @@
       </c>
     </row>
     <row r="198" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="64"/>
-      <c r="B198" s="68"/>
-      <c r="C198" s="62"/>
+      <c r="A198" s="91"/>
+      <c r="B198" s="78"/>
+      <c r="C198" s="71"/>
       <c r="D198" s="10" t="s">
         <v>244</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F198" s="58"/>
+      <c r="F198" s="57"/>
       <c r="G198" s="37"/>
       <c r="H198" s="35"/>
       <c r="I198" s="35"/>
@@ -6993,16 +7071,16 @@
       </c>
     </row>
     <row r="199" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="64"/>
-      <c r="B199" s="68"/>
-      <c r="C199" s="62"/>
+      <c r="A199" s="91"/>
+      <c r="B199" s="78"/>
+      <c r="C199" s="71"/>
       <c r="D199" s="10" t="s">
         <v>245</v>
       </c>
       <c r="E199" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F199" s="58"/>
+      <c r="F199" s="57"/>
       <c r="G199" s="37"/>
       <c r="H199" s="35"/>
       <c r="I199" s="35"/>
@@ -7011,16 +7089,16 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="64"/>
-      <c r="B200" s="68"/>
-      <c r="C200" s="62"/>
+      <c r="A200" s="91"/>
+      <c r="B200" s="78"/>
+      <c r="C200" s="71"/>
       <c r="D200" s="10" t="s">
         <v>246</v>
       </c>
       <c r="E200" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F200" s="58"/>
+      <c r="F200" s="57"/>
       <c r="G200" s="37"/>
       <c r="H200" s="35"/>
       <c r="I200" s="35"/>
@@ -7029,9 +7107,9 @@
       </c>
     </row>
     <row r="201" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="64"/>
-      <c r="B201" s="68"/>
-      <c r="C201" s="77" t="s">
+      <c r="A201" s="91"/>
+      <c r="B201" s="78"/>
+      <c r="C201" s="58" t="s">
         <v>327</v>
       </c>
       <c r="D201" s="10" t="s">
@@ -7040,7 +7118,7 @@
       <c r="E201" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F201" s="81"/>
+      <c r="F201" s="72"/>
       <c r="G201" s="37"/>
       <c r="H201" s="35"/>
       <c r="I201" s="35"/>
@@ -7049,16 +7127,16 @@
       </c>
     </row>
     <row r="202" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="64"/>
-      <c r="B202" s="68"/>
-      <c r="C202" s="78"/>
+      <c r="A202" s="91"/>
+      <c r="B202" s="78"/>
+      <c r="C202" s="59"/>
       <c r="D202" s="10" t="s">
         <v>248</v>
       </c>
       <c r="E202" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F202" s="82"/>
+      <c r="F202" s="73"/>
       <c r="G202" s="37"/>
       <c r="H202" s="35"/>
       <c r="I202" s="35"/>
@@ -7067,16 +7145,16 @@
       </c>
     </row>
     <row r="203" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="64"/>
-      <c r="B203" s="68"/>
-      <c r="C203" s="78"/>
+      <c r="A203" s="91"/>
+      <c r="B203" s="78"/>
+      <c r="C203" s="59"/>
       <c r="D203" s="10" t="s">
         <v>249</v>
       </c>
       <c r="E203" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F203" s="82"/>
+      <c r="F203" s="73"/>
       <c r="G203" s="37"/>
       <c r="H203" s="35"/>
       <c r="I203" s="35"/>
@@ -7085,16 +7163,16 @@
       </c>
     </row>
     <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="64"/>
-      <c r="B204" s="89"/>
-      <c r="C204" s="80"/>
+      <c r="A204" s="91"/>
+      <c r="B204" s="80"/>
+      <c r="C204" s="61"/>
       <c r="D204" s="10" t="s">
         <v>250</v>
       </c>
       <c r="E204" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F204" s="83"/>
+      <c r="F204" s="74"/>
       <c r="G204" s="37"/>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
@@ -7103,13 +7181,13 @@
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="63" t="s">
+      <c r="A205" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B205" s="67" t="s">
+      <c r="B205" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C205" s="65" t="s">
+      <c r="C205" s="62" t="s">
         <v>328</v>
       </c>
       <c r="D205" s="10" t="s">
@@ -7118,7 +7196,7 @@
       <c r="E205" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F205" s="58"/>
+      <c r="F205" s="57"/>
       <c r="G205" s="40"/>
       <c r="H205" s="35"/>
       <c r="I205" s="35"/>
@@ -7127,16 +7205,16 @@
       </c>
     </row>
     <row r="206" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="64"/>
-      <c r="B206" s="68"/>
-      <c r="C206" s="66"/>
+      <c r="A206" s="91"/>
+      <c r="B206" s="78"/>
+      <c r="C206" s="102"/>
       <c r="D206" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E206" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F206" s="58"/>
+      <c r="F206" s="57"/>
       <c r="G206" s="39"/>
       <c r="H206" s="35"/>
       <c r="I206" s="35"/>
@@ -7145,16 +7223,16 @@
       </c>
     </row>
     <row r="207" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="64"/>
-      <c r="B207" s="68"/>
-      <c r="C207" s="66"/>
+      <c r="A207" s="91"/>
+      <c r="B207" s="78"/>
+      <c r="C207" s="102"/>
       <c r="D207" s="10" t="s">
         <v>259</v>
       </c>
       <c r="E207" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F207" s="58"/>
+      <c r="F207" s="57"/>
       <c r="G207" s="39"/>
       <c r="H207" s="35"/>
       <c r="I207" s="35"/>
@@ -7163,16 +7241,16 @@
       </c>
     </row>
     <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="64"/>
-      <c r="B208" s="68"/>
-      <c r="C208" s="66"/>
+      <c r="A208" s="91"/>
+      <c r="B208" s="78"/>
+      <c r="C208" s="102"/>
       <c r="D208" s="10" t="s">
         <v>260</v>
       </c>
       <c r="E208" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F208" s="58"/>
+      <c r="F208" s="57"/>
       <c r="G208" s="39"/>
       <c r="H208" s="35"/>
       <c r="I208" s="35"/>
@@ -7181,9 +7259,9 @@
       </c>
     </row>
     <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="64"/>
-      <c r="B209" s="68"/>
-      <c r="C209" s="65" t="s">
+      <c r="A209" s="91"/>
+      <c r="B209" s="78"/>
+      <c r="C209" s="62" t="s">
         <v>329</v>
       </c>
       <c r="D209" s="10" t="s">
@@ -7192,7 +7270,7 @@
       <c r="E209" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F209" s="58"/>
+      <c r="F209" s="57"/>
       <c r="G209" s="40"/>
       <c r="H209" s="35"/>
       <c r="I209" s="35"/>
@@ -7201,16 +7279,16 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="64"/>
-      <c r="B210" s="68"/>
-      <c r="C210" s="66"/>
+      <c r="A210" s="91"/>
+      <c r="B210" s="78"/>
+      <c r="C210" s="102"/>
       <c r="D210" s="10" t="s">
         <v>262</v>
       </c>
       <c r="E210" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F210" s="58"/>
+      <c r="F210" s="57"/>
       <c r="G210" s="39"/>
       <c r="H210" s="35"/>
       <c r="I210" s="35"/>
@@ -7219,16 +7297,16 @@
       </c>
     </row>
     <row r="211" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="64"/>
-      <c r="B211" s="68"/>
-      <c r="C211" s="66"/>
+      <c r="A211" s="91"/>
+      <c r="B211" s="78"/>
+      <c r="C211" s="102"/>
       <c r="D211" s="10" t="s">
         <v>263</v>
       </c>
       <c r="E211" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F211" s="58"/>
+      <c r="F211" s="57"/>
       <c r="G211" s="39"/>
       <c r="H211" s="35"/>
       <c r="I211" s="35"/>
@@ -7237,16 +7315,16 @@
       </c>
     </row>
     <row r="212" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="64"/>
-      <c r="B212" s="68"/>
-      <c r="C212" s="66"/>
+      <c r="A212" s="91"/>
+      <c r="B212" s="78"/>
+      <c r="C212" s="102"/>
       <c r="D212" s="10" t="s">
         <v>264</v>
       </c>
       <c r="E212" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F212" s="58"/>
+      <c r="F212" s="57"/>
       <c r="G212" s="39"/>
       <c r="H212" s="35"/>
       <c r="I212" s="35"/>
@@ -7255,9 +7333,9 @@
       </c>
     </row>
     <row r="213" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="64"/>
-      <c r="B213" s="68"/>
-      <c r="C213" s="62" t="s">
+      <c r="A213" s="91"/>
+      <c r="B213" s="78"/>
+      <c r="C213" s="71" t="s">
         <v>330</v>
       </c>
       <c r="D213" s="10" t="s">
@@ -7266,7 +7344,7 @@
       <c r="E213" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F213" s="58"/>
+      <c r="F213" s="57"/>
       <c r="G213" s="37"/>
       <c r="H213" s="35"/>
       <c r="I213" s="35"/>
@@ -7275,16 +7353,16 @@
       </c>
     </row>
     <row r="214" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="64"/>
-      <c r="B214" s="68"/>
-      <c r="C214" s="62"/>
+      <c r="A214" s="91"/>
+      <c r="B214" s="78"/>
+      <c r="C214" s="71"/>
       <c r="D214" s="10" t="s">
         <v>266</v>
       </c>
       <c r="E214" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F214" s="58"/>
+      <c r="F214" s="57"/>
       <c r="G214" s="37"/>
       <c r="H214" s="35"/>
       <c r="I214" s="35"/>
@@ -7293,16 +7371,16 @@
       </c>
     </row>
     <row r="215" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="64"/>
-      <c r="B215" s="68"/>
-      <c r="C215" s="62"/>
+      <c r="A215" s="91"/>
+      <c r="B215" s="78"/>
+      <c r="C215" s="71"/>
       <c r="D215" s="10" t="s">
         <v>267</v>
       </c>
       <c r="E215" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F215" s="58"/>
+      <c r="F215" s="57"/>
       <c r="G215" s="37"/>
       <c r="H215" s="35"/>
       <c r="I215" s="35"/>
@@ -7311,16 +7389,16 @@
       </c>
     </row>
     <row r="216" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="64"/>
-      <c r="B216" s="68"/>
-      <c r="C216" s="62"/>
+      <c r="A216" s="91"/>
+      <c r="B216" s="78"/>
+      <c r="C216" s="71"/>
       <c r="D216" s="10" t="s">
         <v>268</v>
       </c>
       <c r="E216" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F216" s="58"/>
+      <c r="F216" s="57"/>
       <c r="G216" s="37"/>
       <c r="H216" s="35"/>
       <c r="I216" s="35"/>
@@ -7329,9 +7407,9 @@
       </c>
     </row>
     <row r="217" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="64"/>
-      <c r="B217" s="68"/>
-      <c r="C217" s="77" t="s">
+      <c r="A217" s="91"/>
+      <c r="B217" s="78"/>
+      <c r="C217" s="58" t="s">
         <v>331</v>
       </c>
       <c r="D217" s="10" t="s">
@@ -7340,7 +7418,7 @@
       <c r="E217" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F217" s="58"/>
+      <c r="F217" s="57"/>
       <c r="G217" s="37"/>
       <c r="H217" s="35"/>
       <c r="I217" s="35"/>
@@ -7349,16 +7427,16 @@
       </c>
     </row>
     <row r="218" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="64"/>
-      <c r="B218" s="68"/>
-      <c r="C218" s="78"/>
+      <c r="A218" s="91"/>
+      <c r="B218" s="78"/>
+      <c r="C218" s="59"/>
       <c r="D218" s="10" t="s">
         <v>270</v>
       </c>
       <c r="E218" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F218" s="58"/>
+      <c r="F218" s="57"/>
       <c r="G218" s="37"/>
       <c r="H218" s="35"/>
       <c r="I218" s="35"/>
@@ -7367,16 +7445,16 @@
       </c>
     </row>
     <row r="219" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="64"/>
-      <c r="B219" s="68"/>
-      <c r="C219" s="78"/>
+      <c r="A219" s="91"/>
+      <c r="B219" s="78"/>
+      <c r="C219" s="59"/>
       <c r="D219" s="10" t="s">
         <v>271</v>
       </c>
       <c r="E219" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F219" s="58"/>
+      <c r="F219" s="57"/>
       <c r="G219" s="37"/>
       <c r="H219" s="35"/>
       <c r="I219" s="35"/>
@@ -7385,16 +7463,16 @@
       </c>
     </row>
     <row r="220" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="64"/>
-      <c r="B220" s="89"/>
-      <c r="C220" s="80"/>
+      <c r="A220" s="91"/>
+      <c r="B220" s="80"/>
+      <c r="C220" s="61"/>
       <c r="D220" s="10" t="s">
         <v>272</v>
       </c>
       <c r="E220" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F220" s="58"/>
+      <c r="F220" s="57"/>
       <c r="G220" s="37"/>
       <c r="H220" s="35"/>
       <c r="I220" s="35"/>
@@ -7403,13 +7481,13 @@
       </c>
     </row>
     <row r="221" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="63" t="s">
+      <c r="A221" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B221" s="67" t="s">
+      <c r="B221" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C221" s="65" t="s">
+      <c r="C221" s="62" t="s">
         <v>332</v>
       </c>
       <c r="D221" s="10" t="s">
@@ -7418,7 +7496,7 @@
       <c r="E221" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F221" s="58"/>
+      <c r="F221" s="57"/>
       <c r="G221" s="40"/>
       <c r="H221" s="35"/>
       <c r="I221" s="35"/>
@@ -7427,16 +7505,16 @@
       </c>
     </row>
     <row r="222" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="64"/>
-      <c r="B222" s="68"/>
-      <c r="C222" s="66"/>
+      <c r="A222" s="91"/>
+      <c r="B222" s="78"/>
+      <c r="C222" s="102"/>
       <c r="D222" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E222" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F222" s="58"/>
+      <c r="F222" s="57"/>
       <c r="G222" s="39"/>
       <c r="H222" s="35"/>
       <c r="I222" s="35"/>
@@ -7445,16 +7523,16 @@
       </c>
     </row>
     <row r="223" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="64"/>
-      <c r="B223" s="68"/>
-      <c r="C223" s="66"/>
+      <c r="A223" s="91"/>
+      <c r="B223" s="78"/>
+      <c r="C223" s="102"/>
       <c r="D223" s="10" t="s">
         <v>275</v>
       </c>
       <c r="E223" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F223" s="58"/>
+      <c r="F223" s="57"/>
       <c r="G223" s="39"/>
       <c r="H223" s="35"/>
       <c r="I223" s="35"/>
@@ -7463,16 +7541,16 @@
       </c>
     </row>
     <row r="224" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="64"/>
-      <c r="B224" s="68"/>
-      <c r="C224" s="66"/>
+      <c r="A224" s="91"/>
+      <c r="B224" s="78"/>
+      <c r="C224" s="102"/>
       <c r="D224" s="10" t="s">
         <v>339</v>
       </c>
       <c r="E224" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F224" s="58"/>
+      <c r="F224" s="57"/>
       <c r="G224" s="39"/>
       <c r="H224" s="35"/>
       <c r="I224" s="35"/>
@@ -7481,9 +7559,9 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="64"/>
-      <c r="B225" s="68"/>
-      <c r="C225" s="65" t="s">
+      <c r="A225" s="91"/>
+      <c r="B225" s="78"/>
+      <c r="C225" s="62" t="s">
         <v>333</v>
       </c>
       <c r="D225" s="10" t="s">
@@ -7492,7 +7570,7 @@
       <c r="E225" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F225" s="58"/>
+      <c r="F225" s="57"/>
       <c r="G225" s="40"/>
       <c r="H225" s="35"/>
       <c r="I225" s="35"/>
@@ -7501,16 +7579,16 @@
       </c>
     </row>
     <row r="226" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="64"/>
-      <c r="B226" s="68"/>
-      <c r="C226" s="66"/>
+      <c r="A226" s="91"/>
+      <c r="B226" s="78"/>
+      <c r="C226" s="102"/>
       <c r="D226" s="10" t="s">
         <v>341</v>
       </c>
       <c r="E226" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F226" s="58"/>
+      <c r="F226" s="57"/>
       <c r="G226" s="39"/>
       <c r="H226" s="35"/>
       <c r="I226" s="35"/>
@@ -7519,16 +7597,16 @@
       </c>
     </row>
     <row r="227" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="64"/>
-      <c r="B227" s="68"/>
-      <c r="C227" s="66"/>
+      <c r="A227" s="91"/>
+      <c r="B227" s="78"/>
+      <c r="C227" s="102"/>
       <c r="D227" s="10" t="s">
         <v>342</v>
       </c>
       <c r="E227" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F227" s="58"/>
+      <c r="F227" s="57"/>
       <c r="G227" s="39"/>
       <c r="H227" s="35"/>
       <c r="I227" s="35"/>
@@ -7537,16 +7615,16 @@
       </c>
     </row>
     <row r="228" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="64"/>
-      <c r="B228" s="68"/>
-      <c r="C228" s="66"/>
+      <c r="A228" s="91"/>
+      <c r="B228" s="78"/>
+      <c r="C228" s="102"/>
       <c r="D228" s="10" t="s">
         <v>343</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F228" s="58"/>
+      <c r="F228" s="57"/>
       <c r="G228" s="39"/>
       <c r="H228" s="35"/>
       <c r="I228" s="35"/>
@@ -7555,9 +7633,9 @@
       </c>
     </row>
     <row r="229" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="64"/>
-      <c r="B229" s="68"/>
-      <c r="C229" s="62" t="s">
+      <c r="A229" s="91"/>
+      <c r="B229" s="78"/>
+      <c r="C229" s="71" t="s">
         <v>334</v>
       </c>
       <c r="D229" s="10" t="s">
@@ -7566,7 +7644,7 @@
       <c r="E229" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F229" s="58"/>
+      <c r="F229" s="57"/>
       <c r="G229" s="37"/>
       <c r="H229" s="35"/>
       <c r="I229" s="35"/>
@@ -7575,16 +7653,16 @@
       </c>
     </row>
     <row r="230" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="64"/>
-      <c r="B230" s="68"/>
-      <c r="C230" s="62"/>
+      <c r="A230" s="91"/>
+      <c r="B230" s="78"/>
+      <c r="C230" s="71"/>
       <c r="D230" s="10" t="s">
         <v>345</v>
       </c>
       <c r="E230" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F230" s="58"/>
+      <c r="F230" s="57"/>
       <c r="G230" s="37"/>
       <c r="H230" s="35"/>
       <c r="I230" s="35"/>
@@ -7593,16 +7671,16 @@
       </c>
     </row>
     <row r="231" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="64"/>
-      <c r="B231" s="68"/>
-      <c r="C231" s="62"/>
+      <c r="A231" s="91"/>
+      <c r="B231" s="78"/>
+      <c r="C231" s="71"/>
       <c r="D231" s="10" t="s">
         <v>346</v>
       </c>
       <c r="E231" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F231" s="58"/>
+      <c r="F231" s="57"/>
       <c r="G231" s="37"/>
       <c r="H231" s="35"/>
       <c r="I231" s="35"/>
@@ -7611,16 +7689,16 @@
       </c>
     </row>
     <row r="232" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="64"/>
-      <c r="B232" s="68"/>
-      <c r="C232" s="62"/>
+      <c r="A232" s="91"/>
+      <c r="B232" s="78"/>
+      <c r="C232" s="71"/>
       <c r="D232" s="10" t="s">
         <v>347</v>
       </c>
       <c r="E232" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F232" s="58"/>
+      <c r="F232" s="57"/>
       <c r="G232" s="37"/>
       <c r="H232" s="35"/>
       <c r="I232" s="35"/>
@@ -7629,9 +7707,9 @@
       </c>
     </row>
     <row r="233" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="64"/>
-      <c r="B233" s="68"/>
-      <c r="C233" s="77" t="s">
+      <c r="A233" s="91"/>
+      <c r="B233" s="78"/>
+      <c r="C233" s="58" t="s">
         <v>335</v>
       </c>
       <c r="D233" s="10" t="s">
@@ -7640,7 +7718,7 @@
       <c r="E233" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="F233" s="58"/>
+      <c r="F233" s="57"/>
       <c r="G233" s="37"/>
       <c r="H233" s="35"/>
       <c r="I233" s="35"/>
@@ -7649,16 +7727,16 @@
       </c>
     </row>
     <row r="234" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="64"/>
-      <c r="B234" s="68"/>
-      <c r="C234" s="78"/>
+      <c r="A234" s="91"/>
+      <c r="B234" s="78"/>
+      <c r="C234" s="59"/>
       <c r="D234" s="10" t="s">
         <v>349</v>
       </c>
       <c r="E234" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F234" s="58"/>
+      <c r="F234" s="57"/>
       <c r="G234" s="37"/>
       <c r="H234" s="35"/>
       <c r="I234" s="35"/>
@@ -7667,16 +7745,16 @@
       </c>
     </row>
     <row r="235" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="64"/>
-      <c r="B235" s="68"/>
-      <c r="C235" s="78"/>
+      <c r="A235" s="91"/>
+      <c r="B235" s="78"/>
+      <c r="C235" s="59"/>
       <c r="D235" s="10" t="s">
         <v>350</v>
       </c>
       <c r="E235" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F235" s="58"/>
+      <c r="F235" s="57"/>
       <c r="G235" s="37"/>
       <c r="H235" s="35"/>
       <c r="I235" s="35"/>
@@ -7685,16 +7763,16 @@
       </c>
     </row>
     <row r="236" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="64"/>
-      <c r="B236" s="69"/>
-      <c r="C236" s="79"/>
+      <c r="A236" s="91"/>
+      <c r="B236" s="79"/>
+      <c r="C236" s="60"/>
       <c r="D236" s="10" t="s">
         <v>351</v>
       </c>
       <c r="E236" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F236" s="58"/>
+      <c r="F236" s="57"/>
       <c r="G236" s="37"/>
       <c r="H236" s="35"/>
       <c r="I236" s="35"/>
@@ -7704,14 +7782,14 @@
     </row>
     <row r="237" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
-      <c r="B237" s="70" t="s">
+      <c r="B237" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C237" s="70"/>
-      <c r="D237" s="70"/>
-      <c r="E237" s="70"/>
-      <c r="F237" s="70"/>
-      <c r="G237" s="70"/>
+      <c r="C237" s="88"/>
+      <c r="D237" s="88"/>
+      <c r="E237" s="88"/>
+      <c r="F237" s="88"/>
+      <c r="G237" s="88"/>
       <c r="H237" s="34" t="s">
         <v>1</v>
       </c>
@@ -7733,23 +7811,23 @@
     </row>
     <row r="238" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
-      <c r="B238" s="70"/>
-      <c r="C238" s="70"/>
-      <c r="D238" s="70"/>
-      <c r="E238" s="70"/>
-      <c r="F238" s="70"/>
-      <c r="G238" s="70"/>
-      <c r="H238" s="52">
+      <c r="B238" s="88"/>
+      <c r="C238" s="88"/>
+      <c r="D238" s="88"/>
+      <c r="E238" s="88"/>
+      <c r="F238" s="88"/>
+      <c r="G238" s="88"/>
+      <c r="H238" s="95">
         <v>43298</v>
       </c>
-      <c r="I238" s="52">
+      <c r="I238" s="95">
         <v>43299</v>
       </c>
-      <c r="J238" s="54">
+      <c r="J238" s="93">
         <f>AVERAGE(J241:J304)</f>
         <v>0</v>
       </c>
-      <c r="K238" s="110">
+      <c r="K238" s="56">
         <f>SUM(F241:F304)</f>
         <v>0</v>
       </c>
@@ -7759,16 +7837,16 @@
     </row>
     <row r="239" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
-      <c r="B239" s="70"/>
-      <c r="C239" s="70"/>
-      <c r="D239" s="70"/>
-      <c r="E239" s="70"/>
-      <c r="F239" s="70"/>
-      <c r="G239" s="70"/>
-      <c r="H239" s="53"/>
-      <c r="I239" s="53"/>
-      <c r="J239" s="55"/>
-      <c r="K239" s="110"/>
+      <c r="B239" s="88"/>
+      <c r="C239" s="88"/>
+      <c r="D239" s="88"/>
+      <c r="E239" s="88"/>
+      <c r="F239" s="88"/>
+      <c r="G239" s="88"/>
+      <c r="H239" s="96"/>
+      <c r="I239" s="96"/>
+      <c r="J239" s="94"/>
+      <c r="K239" s="56"/>
       <c r="L239" s="14"/>
       <c r="M239" s="14"/>
       <c r="N239" s="14"/>
@@ -7806,13 +7884,13 @@
       </c>
     </row>
     <row r="241" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="63" t="s">
+      <c r="A241" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B241" s="67" t="s">
+      <c r="B241" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="C241" s="65" t="s">
+      <c r="C241" s="62" t="s">
         <v>353</v>
       </c>
       <c r="D241" s="10" t="s">
@@ -7821,7 +7899,7 @@
       <c r="E241" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F241" s="58"/>
+      <c r="F241" s="57"/>
       <c r="G241" s="40"/>
       <c r="H241" s="35"/>
       <c r="I241" s="35"/>
@@ -7830,16 +7908,16 @@
       </c>
     </row>
     <row r="242" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="64"/>
-      <c r="B242" s="68"/>
-      <c r="C242" s="66"/>
+      <c r="A242" s="91"/>
+      <c r="B242" s="78"/>
+      <c r="C242" s="102"/>
       <c r="D242" s="10" t="s">
         <v>354</v>
       </c>
       <c r="E242" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F242" s="58"/>
+      <c r="F242" s="57"/>
       <c r="G242" s="39"/>
       <c r="H242" s="35"/>
       <c r="I242" s="35"/>
@@ -7848,16 +7926,16 @@
       </c>
     </row>
     <row r="243" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="64"/>
-      <c r="B243" s="68"/>
-      <c r="C243" s="66"/>
+      <c r="A243" s="91"/>
+      <c r="B243" s="78"/>
+      <c r="C243" s="102"/>
       <c r="D243" s="10" t="s">
         <v>355</v>
       </c>
       <c r="E243" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F243" s="58"/>
+      <c r="F243" s="57"/>
       <c r="G243" s="39"/>
       <c r="H243" s="35"/>
       <c r="I243" s="35"/>
@@ -7866,16 +7944,16 @@
       </c>
     </row>
     <row r="244" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="64"/>
-      <c r="B244" s="68"/>
-      <c r="C244" s="66"/>
+      <c r="A244" s="91"/>
+      <c r="B244" s="78"/>
+      <c r="C244" s="102"/>
       <c r="D244" s="10" t="s">
         <v>356</v>
       </c>
       <c r="E244" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F244" s="58"/>
+      <c r="F244" s="57"/>
       <c r="G244" s="39"/>
       <c r="H244" s="35"/>
       <c r="I244" s="35"/>
@@ -7884,9 +7962,9 @@
       </c>
     </row>
     <row r="245" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="64"/>
-      <c r="B245" s="68"/>
-      <c r="C245" s="65" t="s">
+      <c r="A245" s="91"/>
+      <c r="B245" s="78"/>
+      <c r="C245" s="62" t="s">
         <v>357</v>
       </c>
       <c r="D245" s="10" t="s">
@@ -7895,7 +7973,7 @@
       <c r="E245" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F245" s="58"/>
+      <c r="F245" s="57"/>
       <c r="G245" s="40"/>
       <c r="H245" s="35"/>
       <c r="I245" s="35"/>
@@ -7904,16 +7982,16 @@
       </c>
     </row>
     <row r="246" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="64"/>
-      <c r="B246" s="68"/>
-      <c r="C246" s="66"/>
+      <c r="A246" s="91"/>
+      <c r="B246" s="78"/>
+      <c r="C246" s="102"/>
       <c r="D246" s="10" t="s">
         <v>359</v>
       </c>
       <c r="E246" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F246" s="58"/>
+      <c r="F246" s="57"/>
       <c r="G246" s="39"/>
       <c r="H246" s="35"/>
       <c r="I246" s="35"/>
@@ -7922,16 +8000,16 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="64"/>
-      <c r="B247" s="68"/>
-      <c r="C247" s="66"/>
+      <c r="A247" s="91"/>
+      <c r="B247" s="78"/>
+      <c r="C247" s="102"/>
       <c r="D247" s="10" t="s">
         <v>360</v>
       </c>
       <c r="E247" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F247" s="58"/>
+      <c r="F247" s="57"/>
       <c r="G247" s="39"/>
       <c r="H247" s="35"/>
       <c r="I247" s="35"/>
@@ -7940,16 +8018,16 @@
       </c>
     </row>
     <row r="248" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="64"/>
-      <c r="B248" s="68"/>
-      <c r="C248" s="66"/>
+      <c r="A248" s="91"/>
+      <c r="B248" s="78"/>
+      <c r="C248" s="102"/>
       <c r="D248" s="10" t="s">
         <v>361</v>
       </c>
       <c r="E248" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F248" s="58"/>
+      <c r="F248" s="57"/>
       <c r="G248" s="39"/>
       <c r="H248" s="35"/>
       <c r="I248" s="35"/>
@@ -7958,9 +8036,9 @@
       </c>
     </row>
     <row r="249" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="64"/>
-      <c r="B249" s="68"/>
-      <c r="C249" s="62" t="s">
+      <c r="A249" s="91"/>
+      <c r="B249" s="78"/>
+      <c r="C249" s="71" t="s">
         <v>362</v>
       </c>
       <c r="D249" s="10" t="s">
@@ -7969,7 +8047,7 @@
       <c r="E249" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F249" s="58"/>
+      <c r="F249" s="57"/>
       <c r="G249" s="37"/>
       <c r="H249" s="35"/>
       <c r="I249" s="35"/>
@@ -7978,16 +8056,16 @@
       </c>
     </row>
     <row r="250" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="64"/>
-      <c r="B250" s="68"/>
-      <c r="C250" s="62"/>
+      <c r="A250" s="91"/>
+      <c r="B250" s="78"/>
+      <c r="C250" s="71"/>
       <c r="D250" s="10" t="s">
         <v>364</v>
       </c>
       <c r="E250" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F250" s="58"/>
+      <c r="F250" s="57"/>
       <c r="G250" s="37"/>
       <c r="H250" s="35"/>
       <c r="I250" s="35"/>
@@ -7996,16 +8074,16 @@
       </c>
     </row>
     <row r="251" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="64"/>
-      <c r="B251" s="68"/>
-      <c r="C251" s="62"/>
+      <c r="A251" s="91"/>
+      <c r="B251" s="78"/>
+      <c r="C251" s="71"/>
       <c r="D251" s="10" t="s">
         <v>365</v>
       </c>
       <c r="E251" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F251" s="58"/>
+      <c r="F251" s="57"/>
       <c r="G251" s="37"/>
       <c r="H251" s="35"/>
       <c r="I251" s="35"/>
@@ -8014,16 +8092,16 @@
       </c>
     </row>
     <row r="252" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="64"/>
-      <c r="B252" s="68"/>
-      <c r="C252" s="62"/>
+      <c r="A252" s="91"/>
+      <c r="B252" s="78"/>
+      <c r="C252" s="71"/>
       <c r="D252" s="10" t="s">
         <v>366</v>
       </c>
       <c r="E252" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F252" s="58"/>
+      <c r="F252" s="57"/>
       <c r="G252" s="37"/>
       <c r="H252" s="35"/>
       <c r="I252" s="35"/>
@@ -8032,9 +8110,9 @@
       </c>
     </row>
     <row r="253" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="64"/>
-      <c r="B253" s="68"/>
-      <c r="C253" s="77" t="s">
+      <c r="A253" s="91"/>
+      <c r="B253" s="78"/>
+      <c r="C253" s="58" t="s">
         <v>367</v>
       </c>
       <c r="D253" s="10" t="s">
@@ -8043,7 +8121,7 @@
       <c r="E253" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F253" s="58"/>
+      <c r="F253" s="57"/>
       <c r="G253" s="37"/>
       <c r="H253" s="35"/>
       <c r="I253" s="35"/>
@@ -8052,16 +8130,16 @@
       </c>
     </row>
     <row r="254" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="64"/>
-      <c r="B254" s="68"/>
-      <c r="C254" s="78"/>
+      <c r="A254" s="91"/>
+      <c r="B254" s="78"/>
+      <c r="C254" s="59"/>
       <c r="D254" s="10" t="s">
         <v>369</v>
       </c>
       <c r="E254" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F254" s="58"/>
+      <c r="F254" s="57"/>
       <c r="G254" s="37"/>
       <c r="H254" s="35"/>
       <c r="I254" s="35"/>
@@ -8070,16 +8148,16 @@
       </c>
     </row>
     <row r="255" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="64"/>
-      <c r="B255" s="68"/>
-      <c r="C255" s="78"/>
+      <c r="A255" s="91"/>
+      <c r="B255" s="78"/>
+      <c r="C255" s="59"/>
       <c r="D255" s="10" t="s">
         <v>370</v>
       </c>
       <c r="E255" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F255" s="58"/>
+      <c r="F255" s="57"/>
       <c r="G255" s="37"/>
       <c r="H255" s="35"/>
       <c r="I255" s="35"/>
@@ -8088,16 +8166,16 @@
       </c>
     </row>
     <row r="256" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="64"/>
-      <c r="B256" s="89"/>
-      <c r="C256" s="80"/>
+      <c r="A256" s="91"/>
+      <c r="B256" s="80"/>
+      <c r="C256" s="61"/>
       <c r="D256" s="10" t="s">
         <v>371</v>
       </c>
       <c r="E256" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F256" s="58"/>
+      <c r="F256" s="57"/>
       <c r="G256" s="37"/>
       <c r="H256" s="35"/>
       <c r="I256" s="35"/>
@@ -8106,13 +8184,13 @@
       </c>
     </row>
     <row r="257" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="63" t="s">
+      <c r="A257" s="89" t="s">
         <v>387</v>
       </c>
-      <c r="B257" s="67" t="s">
+      <c r="B257" s="77" t="s">
         <v>384</v>
       </c>
-      <c r="C257" s="65" t="s">
+      <c r="C257" s="62" t="s">
         <v>385</v>
       </c>
       <c r="D257" s="10" t="s">
@@ -8121,7 +8199,7 @@
       <c r="E257" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F257" s="58"/>
+      <c r="F257" s="57"/>
       <c r="G257" s="38"/>
       <c r="H257" s="35"/>
       <c r="I257" s="35"/>
@@ -8130,16 +8208,16 @@
       </c>
     </row>
     <row r="258" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="63"/>
-      <c r="B258" s="68"/>
-      <c r="C258" s="94"/>
+      <c r="A258" s="89"/>
+      <c r="B258" s="78"/>
+      <c r="C258" s="63"/>
       <c r="D258" s="10" t="s">
         <v>373</v>
       </c>
       <c r="E258" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F258" s="58"/>
+      <c r="F258" s="57"/>
       <c r="G258" s="38"/>
       <c r="H258" s="35"/>
       <c r="I258" s="35"/>
@@ -8148,16 +8226,16 @@
       </c>
     </row>
     <row r="259" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="63"/>
-      <c r="B259" s="68"/>
-      <c r="C259" s="94"/>
+      <c r="A259" s="89"/>
+      <c r="B259" s="78"/>
+      <c r="C259" s="63"/>
       <c r="D259" s="10" t="s">
         <v>374</v>
       </c>
       <c r="E259" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F259" s="58"/>
+      <c r="F259" s="57"/>
       <c r="G259" s="38"/>
       <c r="H259" s="35"/>
       <c r="I259" s="35"/>
@@ -8166,16 +8244,16 @@
       </c>
     </row>
     <row r="260" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="63"/>
-      <c r="B260" s="68"/>
-      <c r="C260" s="94"/>
+      <c r="A260" s="89"/>
+      <c r="B260" s="78"/>
+      <c r="C260" s="63"/>
       <c r="D260" s="10" t="s">
         <v>375</v>
       </c>
       <c r="E260" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F260" s="58"/>
+      <c r="F260" s="57"/>
       <c r="G260" s="38"/>
       <c r="H260" s="35"/>
       <c r="I260" s="35"/>
@@ -8184,9 +8262,9 @@
       </c>
     </row>
     <row r="261" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="64"/>
-      <c r="B261" s="68"/>
-      <c r="C261" s="62" t="s">
+      <c r="A261" s="91"/>
+      <c r="B261" s="78"/>
+      <c r="C261" s="71" t="s">
         <v>386</v>
       </c>
       <c r="D261" s="20" t="s">
@@ -8195,7 +8273,7 @@
       <c r="E261" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F261" s="58"/>
+      <c r="F261" s="57"/>
       <c r="G261" s="40"/>
       <c r="H261" s="35"/>
       <c r="I261" s="35"/>
@@ -8204,16 +8282,16 @@
       </c>
     </row>
     <row r="262" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="64"/>
-      <c r="B262" s="68"/>
-      <c r="C262" s="59"/>
+      <c r="A262" s="91"/>
+      <c r="B262" s="78"/>
+      <c r="C262" s="106"/>
       <c r="D262" s="20" t="s">
         <v>377</v>
       </c>
       <c r="E262" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F262" s="58"/>
+      <c r="F262" s="57"/>
       <c r="G262" s="39"/>
       <c r="H262" s="35"/>
       <c r="I262" s="35"/>
@@ -8222,16 +8300,16 @@
       </c>
     </row>
     <row r="263" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="64"/>
-      <c r="B263" s="68"/>
-      <c r="C263" s="59"/>
+      <c r="A263" s="91"/>
+      <c r="B263" s="78"/>
+      <c r="C263" s="106"/>
       <c r="D263" s="20" t="s">
         <v>378</v>
       </c>
       <c r="E263" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F263" s="58"/>
+      <c r="F263" s="57"/>
       <c r="G263" s="39"/>
       <c r="H263" s="35"/>
       <c r="I263" s="35"/>
@@ -8240,16 +8318,16 @@
       </c>
     </row>
     <row r="264" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="64"/>
-      <c r="B264" s="68"/>
-      <c r="C264" s="59"/>
+      <c r="A264" s="91"/>
+      <c r="B264" s="78"/>
+      <c r="C264" s="106"/>
       <c r="D264" s="20" t="s">
         <v>379</v>
       </c>
       <c r="E264" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F264" s="58"/>
+      <c r="F264" s="57"/>
       <c r="G264" s="39"/>
       <c r="H264" s="35"/>
       <c r="I264" s="35"/>
@@ -8258,13 +8336,13 @@
       </c>
     </row>
     <row r="265" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="71" t="s">
+      <c r="A265" s="113" t="s">
         <v>388</v>
       </c>
-      <c r="B265" s="62" t="s">
+      <c r="B265" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="C265" s="111" t="s">
+      <c r="C265" s="64" t="s">
         <v>390</v>
       </c>
       <c r="D265" s="20" t="s">
@@ -8273,7 +8351,7 @@
       <c r="E265" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F265" s="58"/>
+      <c r="F265" s="57"/>
       <c r="G265" s="38"/>
       <c r="H265" s="35"/>
       <c r="I265" s="35"/>
@@ -8282,16 +8360,16 @@
       </c>
     </row>
     <row r="266" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="72"/>
-      <c r="B266" s="62"/>
-      <c r="C266" s="112"/>
+      <c r="A266" s="114"/>
+      <c r="B266" s="71"/>
+      <c r="C266" s="65"/>
       <c r="D266" s="20" t="s">
         <v>381</v>
       </c>
       <c r="E266" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F266" s="58"/>
+      <c r="F266" s="57"/>
       <c r="G266" s="38"/>
       <c r="H266" s="35"/>
       <c r="I266" s="35"/>
@@ -8300,16 +8378,16 @@
       </c>
     </row>
     <row r="267" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="72"/>
-      <c r="B267" s="62"/>
-      <c r="C267" s="112"/>
+      <c r="A267" s="114"/>
+      <c r="B267" s="71"/>
+      <c r="C267" s="65"/>
       <c r="D267" s="20" t="s">
         <v>382</v>
       </c>
       <c r="E267" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F267" s="58"/>
+      <c r="F267" s="57"/>
       <c r="G267" s="40"/>
       <c r="H267" s="35"/>
       <c r="I267" s="35"/>
@@ -8318,16 +8396,16 @@
       </c>
     </row>
     <row r="268" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="72"/>
-      <c r="B268" s="62"/>
-      <c r="C268" s="113"/>
+      <c r="A268" s="114"/>
+      <c r="B268" s="71"/>
+      <c r="C268" s="66"/>
       <c r="D268" s="20" t="s">
         <v>383</v>
       </c>
       <c r="E268" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F268" s="58"/>
+      <c r="F268" s="57"/>
       <c r="G268" s="40"/>
       <c r="H268" s="35"/>
       <c r="I268" s="35"/>
@@ -8336,9 +8414,9 @@
       </c>
     </row>
     <row r="269" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="72"/>
-      <c r="B269" s="62"/>
-      <c r="C269" s="56" t="s">
+      <c r="A269" s="114"/>
+      <c r="B269" s="71"/>
+      <c r="C269" s="110" t="s">
         <v>398</v>
       </c>
       <c r="D269" s="20" t="s">
@@ -8347,7 +8425,7 @@
       <c r="E269" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F269" s="58"/>
+      <c r="F269" s="57"/>
       <c r="G269" s="40"/>
       <c r="H269" s="35"/>
       <c r="I269" s="35"/>
@@ -8356,16 +8434,16 @@
       </c>
     </row>
     <row r="270" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="72"/>
-      <c r="B270" s="62"/>
-      <c r="C270" s="57"/>
+      <c r="A270" s="114"/>
+      <c r="B270" s="71"/>
+      <c r="C270" s="111"/>
       <c r="D270" s="20" t="s">
         <v>392</v>
       </c>
       <c r="E270" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F270" s="58"/>
+      <c r="F270" s="57"/>
       <c r="G270" s="39"/>
       <c r="H270" s="35"/>
       <c r="I270" s="35"/>
@@ -8374,16 +8452,16 @@
       </c>
     </row>
     <row r="271" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="72"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="57"/>
+      <c r="A271" s="114"/>
+      <c r="B271" s="71"/>
+      <c r="C271" s="111"/>
       <c r="D271" s="20" t="s">
         <v>393</v>
       </c>
       <c r="E271" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F271" s="58"/>
+      <c r="F271" s="57"/>
       <c r="G271" s="39"/>
       <c r="H271" s="35"/>
       <c r="I271" s="35"/>
@@ -8392,16 +8470,16 @@
       </c>
     </row>
     <row r="272" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="72"/>
-      <c r="B272" s="62"/>
-      <c r="C272" s="57"/>
+      <c r="A272" s="114"/>
+      <c r="B272" s="71"/>
+      <c r="C272" s="111"/>
       <c r="D272" s="20" t="s">
         <v>394</v>
       </c>
       <c r="E272" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F272" s="58"/>
+      <c r="F272" s="57"/>
       <c r="G272" s="39"/>
       <c r="H272" s="35"/>
       <c r="I272" s="35"/>
@@ -8410,9 +8488,9 @@
       </c>
     </row>
     <row r="273" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="72"/>
-      <c r="B273" s="62"/>
-      <c r="C273" s="61" t="s">
+      <c r="A273" s="114"/>
+      <c r="B273" s="71"/>
+      <c r="C273" s="70" t="s">
         <v>399</v>
       </c>
       <c r="D273" s="20" t="s">
@@ -8421,7 +8499,7 @@
       <c r="E273" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F273" s="58"/>
+      <c r="F273" s="57"/>
       <c r="G273" s="37"/>
       <c r="H273" s="35"/>
       <c r="I273" s="35"/>
@@ -8430,16 +8508,16 @@
       </c>
     </row>
     <row r="274" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="72"/>
-      <c r="B274" s="62"/>
-      <c r="C274" s="61"/>
+      <c r="A274" s="114"/>
+      <c r="B274" s="71"/>
+      <c r="C274" s="70"/>
       <c r="D274" s="20" t="s">
         <v>396</v>
       </c>
       <c r="E274" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F274" s="58"/>
+      <c r="F274" s="57"/>
       <c r="G274" s="37"/>
       <c r="H274" s="35"/>
       <c r="I274" s="35"/>
@@ -8448,16 +8526,16 @@
       </c>
     </row>
     <row r="275" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="72"/>
-      <c r="B275" s="62"/>
-      <c r="C275" s="61"/>
+      <c r="A275" s="114"/>
+      <c r="B275" s="71"/>
+      <c r="C275" s="70"/>
       <c r="D275" s="20" t="s">
         <v>397</v>
       </c>
       <c r="E275" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F275" s="58"/>
+      <c r="F275" s="57"/>
       <c r="G275" s="37"/>
       <c r="H275" s="35"/>
       <c r="I275" s="35"/>
@@ -8466,16 +8544,16 @@
       </c>
     </row>
     <row r="276" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="72"/>
-      <c r="B276" s="62"/>
-      <c r="C276" s="61"/>
+      <c r="A276" s="114"/>
+      <c r="B276" s="71"/>
+      <c r="C276" s="70"/>
       <c r="D276" s="20" t="s">
         <v>401</v>
       </c>
       <c r="E276" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F276" s="58"/>
+      <c r="F276" s="57"/>
       <c r="G276" s="37"/>
       <c r="H276" s="35"/>
       <c r="I276" s="35"/>
@@ -8484,9 +8562,9 @@
       </c>
     </row>
     <row r="277" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="72"/>
-      <c r="B277" s="62"/>
-      <c r="C277" s="86" t="s">
+      <c r="A277" s="114"/>
+      <c r="B277" s="71"/>
+      <c r="C277" s="67" t="s">
         <v>400</v>
       </c>
       <c r="D277" s="20" t="s">
@@ -8495,7 +8573,7 @@
       <c r="E277" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F277" s="58"/>
+      <c r="F277" s="57"/>
       <c r="G277" s="37"/>
       <c r="H277" s="35"/>
       <c r="I277" s="35"/>
@@ -8504,16 +8582,16 @@
       </c>
     </row>
     <row r="278" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="72"/>
-      <c r="B278" s="62"/>
-      <c r="C278" s="87"/>
+      <c r="A278" s="114"/>
+      <c r="B278" s="71"/>
+      <c r="C278" s="68"/>
       <c r="D278" s="20" t="s">
         <v>403</v>
       </c>
       <c r="E278" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F278" s="58"/>
+      <c r="F278" s="57"/>
       <c r="G278" s="37"/>
       <c r="H278" s="35"/>
       <c r="I278" s="35"/>
@@ -8522,16 +8600,16 @@
       </c>
     </row>
     <row r="279" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="72"/>
-      <c r="B279" s="62"/>
-      <c r="C279" s="87"/>
+      <c r="A279" s="114"/>
+      <c r="B279" s="71"/>
+      <c r="C279" s="68"/>
       <c r="D279" s="20" t="s">
         <v>404</v>
       </c>
       <c r="E279" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F279" s="58"/>
+      <c r="F279" s="57"/>
       <c r="G279" s="37"/>
       <c r="H279" s="35"/>
       <c r="I279" s="35"/>
@@ -8540,16 +8618,16 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="72"/>
-      <c r="B280" s="62"/>
-      <c r="C280" s="114"/>
+      <c r="A280" s="114"/>
+      <c r="B280" s="71"/>
+      <c r="C280" s="69"/>
       <c r="D280" s="20" t="s">
         <v>405</v>
       </c>
       <c r="E280" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F280" s="58"/>
+      <c r="F280" s="57"/>
       <c r="G280" s="37"/>
       <c r="H280" s="35"/>
       <c r="I280" s="35"/>
@@ -8558,9 +8636,9 @@
       </c>
     </row>
     <row r="281" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="72"/>
-      <c r="B281" s="62"/>
-      <c r="C281" s="61" t="s">
+      <c r="A281" s="114"/>
+      <c r="B281" s="71"/>
+      <c r="C281" s="70" t="s">
         <v>406</v>
       </c>
       <c r="D281" s="20" t="s">
@@ -8569,7 +8647,7 @@
       <c r="E281" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F281" s="58"/>
+      <c r="F281" s="57"/>
       <c r="G281" s="37"/>
       <c r="H281" s="35"/>
       <c r="I281" s="35"/>
@@ -8578,16 +8656,16 @@
       </c>
     </row>
     <row r="282" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="72"/>
-      <c r="B282" s="62"/>
-      <c r="C282" s="61"/>
+      <c r="A282" s="114"/>
+      <c r="B282" s="71"/>
+      <c r="C282" s="70"/>
       <c r="D282" s="20" t="s">
         <v>408</v>
       </c>
       <c r="E282" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F282" s="58"/>
+      <c r="F282" s="57"/>
       <c r="G282" s="37"/>
       <c r="H282" s="35"/>
       <c r="I282" s="35"/>
@@ -8596,16 +8674,16 @@
       </c>
     </row>
     <row r="283" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="72"/>
-      <c r="B283" s="62"/>
-      <c r="C283" s="61"/>
+      <c r="A283" s="114"/>
+      <c r="B283" s="71"/>
+      <c r="C283" s="70"/>
       <c r="D283" s="20" t="s">
         <v>409</v>
       </c>
       <c r="E283" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F283" s="58"/>
+      <c r="F283" s="57"/>
       <c r="G283" s="37"/>
       <c r="H283" s="35"/>
       <c r="I283" s="35"/>
@@ -8614,16 +8692,16 @@
       </c>
     </row>
     <row r="284" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="73"/>
-      <c r="B284" s="62"/>
-      <c r="C284" s="61"/>
+      <c r="A284" s="115"/>
+      <c r="B284" s="71"/>
+      <c r="C284" s="70"/>
       <c r="D284" s="20" t="s">
         <v>410</v>
       </c>
       <c r="E284" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F284" s="58"/>
+      <c r="F284" s="57"/>
       <c r="G284" s="37"/>
       <c r="H284" s="35"/>
       <c r="I284" s="35"/>
@@ -8632,13 +8710,13 @@
       </c>
     </row>
     <row r="285" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="63" t="s">
+      <c r="A285" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="B285" s="74" t="s">
+      <c r="B285" s="116" t="s">
         <v>412</v>
       </c>
-      <c r="C285" s="93" t="s">
+      <c r="C285" s="107" t="s">
         <v>418</v>
       </c>
       <c r="D285" s="20" t="s">
@@ -8647,7 +8725,7 @@
       <c r="E285" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F285" s="58"/>
+      <c r="F285" s="57"/>
       <c r="G285" s="38"/>
       <c r="H285" s="35"/>
       <c r="I285" s="35"/>
@@ -8656,16 +8734,16 @@
       </c>
     </row>
     <row r="286" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="63"/>
-      <c r="B286" s="75"/>
-      <c r="C286" s="94"/>
+      <c r="A286" s="89"/>
+      <c r="B286" s="117"/>
+      <c r="C286" s="63"/>
       <c r="D286" s="20" t="s">
         <v>414</v>
       </c>
       <c r="E286" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F286" s="58"/>
+      <c r="F286" s="57"/>
       <c r="G286" s="38"/>
       <c r="H286" s="35"/>
       <c r="I286" s="35"/>
@@ -8674,16 +8752,16 @@
       </c>
     </row>
     <row r="287" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="63"/>
-      <c r="B287" s="75"/>
-      <c r="C287" s="94"/>
+      <c r="A287" s="89"/>
+      <c r="B287" s="117"/>
+      <c r="C287" s="63"/>
       <c r="D287" s="20" t="s">
         <v>415</v>
       </c>
       <c r="E287" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F287" s="58"/>
+      <c r="F287" s="57"/>
       <c r="G287" s="38"/>
       <c r="H287" s="35"/>
       <c r="I287" s="35"/>
@@ -8692,16 +8770,16 @@
       </c>
     </row>
     <row r="288" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="63"/>
-      <c r="B288" s="75"/>
-      <c r="C288" s="94"/>
+      <c r="A288" s="89"/>
+      <c r="B288" s="117"/>
+      <c r="C288" s="63"/>
       <c r="D288" s="20" t="s">
         <v>416</v>
       </c>
       <c r="E288" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F288" s="58"/>
+      <c r="F288" s="57"/>
       <c r="G288" s="38"/>
       <c r="H288" s="35"/>
       <c r="I288" s="35"/>
@@ -8710,9 +8788,9 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="64"/>
-      <c r="B289" s="75"/>
-      <c r="C289" s="65" t="s">
+      <c r="A289" s="91"/>
+      <c r="B289" s="117"/>
+      <c r="C289" s="62" t="s">
         <v>419</v>
       </c>
       <c r="D289" s="20" t="s">
@@ -8721,7 +8799,7 @@
       <c r="E289" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F289" s="58"/>
+      <c r="F289" s="57"/>
       <c r="G289" s="40"/>
       <c r="H289" s="35"/>
       <c r="I289" s="35"/>
@@ -8730,16 +8808,16 @@
       </c>
     </row>
     <row r="290" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="64"/>
-      <c r="B290" s="75"/>
-      <c r="C290" s="66"/>
+      <c r="A290" s="91"/>
+      <c r="B290" s="117"/>
+      <c r="C290" s="102"/>
       <c r="D290" s="20" t="s">
         <v>420</v>
       </c>
       <c r="E290" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F290" s="58"/>
+      <c r="F290" s="57"/>
       <c r="G290" s="39"/>
       <c r="H290" s="35"/>
       <c r="I290" s="35"/>
@@ -8748,16 +8826,16 @@
       </c>
     </row>
     <row r="291" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="64"/>
-      <c r="B291" s="75"/>
-      <c r="C291" s="66"/>
+      <c r="A291" s="91"/>
+      <c r="B291" s="117"/>
+      <c r="C291" s="102"/>
       <c r="D291" s="20" t="s">
         <v>421</v>
       </c>
       <c r="E291" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F291" s="58"/>
+      <c r="F291" s="57"/>
       <c r="G291" s="39"/>
       <c r="H291" s="35"/>
       <c r="I291" s="35"/>
@@ -8766,16 +8844,16 @@
       </c>
     </row>
     <row r="292" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="64"/>
-      <c r="B292" s="75"/>
-      <c r="C292" s="66"/>
+      <c r="A292" s="91"/>
+      <c r="B292" s="117"/>
+      <c r="C292" s="102"/>
       <c r="D292" s="20" t="s">
         <v>422</v>
       </c>
       <c r="E292" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F292" s="58"/>
+      <c r="F292" s="57"/>
       <c r="G292" s="39"/>
       <c r="H292" s="35"/>
       <c r="I292" s="35"/>
@@ -8784,9 +8862,9 @@
       </c>
     </row>
     <row r="293" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="64"/>
-      <c r="B293" s="75"/>
-      <c r="C293" s="77" t="s">
+      <c r="A293" s="91"/>
+      <c r="B293" s="117"/>
+      <c r="C293" s="58" t="s">
         <v>428</v>
       </c>
       <c r="D293" s="20" t="s">
@@ -8795,7 +8873,7 @@
       <c r="E293" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F293" s="58"/>
+      <c r="F293" s="57"/>
       <c r="G293" s="37"/>
       <c r="H293" s="35"/>
       <c r="I293" s="35"/>
@@ -8804,16 +8882,16 @@
       </c>
     </row>
     <row r="294" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="64"/>
-      <c r="B294" s="75"/>
-      <c r="C294" s="78"/>
+      <c r="A294" s="91"/>
+      <c r="B294" s="117"/>
+      <c r="C294" s="59"/>
       <c r="D294" s="20" t="s">
         <v>424</v>
       </c>
       <c r="E294" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F294" s="58"/>
+      <c r="F294" s="57"/>
       <c r="G294" s="37"/>
       <c r="H294" s="35"/>
       <c r="I294" s="35"/>
@@ -8822,16 +8900,16 @@
       </c>
     </row>
     <row r="295" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="64"/>
-      <c r="B295" s="75"/>
-      <c r="C295" s="78"/>
+      <c r="A295" s="91"/>
+      <c r="B295" s="117"/>
+      <c r="C295" s="59"/>
       <c r="D295" s="20" t="s">
         <v>425</v>
       </c>
       <c r="E295" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F295" s="58"/>
+      <c r="F295" s="57"/>
       <c r="G295" s="37"/>
       <c r="H295" s="35"/>
       <c r="I295" s="35"/>
@@ -8840,16 +8918,16 @@
       </c>
     </row>
     <row r="296" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="64"/>
-      <c r="B296" s="75"/>
-      <c r="C296" s="79"/>
+      <c r="A296" s="91"/>
+      <c r="B296" s="117"/>
+      <c r="C296" s="60"/>
       <c r="D296" s="20" t="s">
         <v>426</v>
       </c>
       <c r="E296" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F296" s="58"/>
+      <c r="F296" s="57"/>
       <c r="G296" s="37"/>
       <c r="H296" s="35"/>
       <c r="I296" s="35"/>
@@ -8858,9 +8936,9 @@
       </c>
     </row>
     <row r="297" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="64"/>
-      <c r="B297" s="75"/>
-      <c r="C297" s="77" t="s">
+      <c r="A297" s="91"/>
+      <c r="B297" s="117"/>
+      <c r="C297" s="58" t="s">
         <v>436</v>
       </c>
       <c r="D297" s="20" t="s">
@@ -8869,7 +8947,7 @@
       <c r="E297" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F297" s="58"/>
+      <c r="F297" s="57"/>
       <c r="G297" s="37"/>
       <c r="H297" s="35"/>
       <c r="I297" s="35"/>
@@ -8878,16 +8956,16 @@
       </c>
     </row>
     <row r="298" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="64"/>
-      <c r="B298" s="75"/>
-      <c r="C298" s="78"/>
+      <c r="A298" s="91"/>
+      <c r="B298" s="117"/>
+      <c r="C298" s="59"/>
       <c r="D298" s="20" t="s">
         <v>429</v>
       </c>
       <c r="E298" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F298" s="58"/>
+      <c r="F298" s="57"/>
       <c r="G298" s="37"/>
       <c r="H298" s="35"/>
       <c r="I298" s="35"/>
@@ -8896,16 +8974,16 @@
       </c>
     </row>
     <row r="299" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="64"/>
-      <c r="B299" s="75"/>
-      <c r="C299" s="78"/>
+      <c r="A299" s="91"/>
+      <c r="B299" s="117"/>
+      <c r="C299" s="59"/>
       <c r="D299" s="20" t="s">
         <v>430</v>
       </c>
       <c r="E299" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F299" s="58"/>
+      <c r="F299" s="57"/>
       <c r="G299" s="37"/>
       <c r="H299" s="35"/>
       <c r="I299" s="35"/>
@@ -8914,16 +8992,16 @@
       </c>
     </row>
     <row r="300" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="64"/>
-      <c r="B300" s="75"/>
-      <c r="C300" s="79"/>
+      <c r="A300" s="91"/>
+      <c r="B300" s="117"/>
+      <c r="C300" s="60"/>
       <c r="D300" s="20" t="s">
         <v>431</v>
       </c>
       <c r="E300" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F300" s="58"/>
+      <c r="F300" s="57"/>
       <c r="G300" s="37"/>
       <c r="H300" s="35"/>
       <c r="I300" s="35"/>
@@ -8932,9 +9010,9 @@
       </c>
     </row>
     <row r="301" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="64"/>
-      <c r="B301" s="75"/>
-      <c r="C301" s="77" t="s">
+      <c r="A301" s="91"/>
+      <c r="B301" s="117"/>
+      <c r="C301" s="58" t="s">
         <v>437</v>
       </c>
       <c r="D301" s="20" t="s">
@@ -8943,7 +9021,7 @@
       <c r="E301" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F301" s="58"/>
+      <c r="F301" s="57"/>
       <c r="G301" s="37"/>
       <c r="H301" s="35"/>
       <c r="I301" s="35"/>
@@ -8952,16 +9030,16 @@
       </c>
     </row>
     <row r="302" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="64"/>
-      <c r="B302" s="75"/>
-      <c r="C302" s="78"/>
+      <c r="A302" s="91"/>
+      <c r="B302" s="117"/>
+      <c r="C302" s="59"/>
       <c r="D302" s="20" t="s">
         <v>433</v>
       </c>
       <c r="E302" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F302" s="58"/>
+      <c r="F302" s="57"/>
       <c r="G302" s="37"/>
       <c r="H302" s="35"/>
       <c r="I302" s="35"/>
@@ -8970,16 +9048,16 @@
       </c>
     </row>
     <row r="303" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="64"/>
-      <c r="B303" s="75"/>
-      <c r="C303" s="78"/>
+      <c r="A303" s="91"/>
+      <c r="B303" s="117"/>
+      <c r="C303" s="59"/>
       <c r="D303" s="20" t="s">
         <v>434</v>
       </c>
       <c r="E303" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F303" s="58"/>
+      <c r="F303" s="57"/>
       <c r="G303" s="37"/>
       <c r="H303" s="35"/>
       <c r="I303" s="35"/>
@@ -8988,16 +9066,16 @@
       </c>
     </row>
     <row r="304" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="64"/>
-      <c r="B304" s="76"/>
-      <c r="C304" s="79"/>
+      <c r="A304" s="91"/>
+      <c r="B304" s="118"/>
+      <c r="C304" s="60"/>
       <c r="D304" s="20" t="s">
         <v>435</v>
       </c>
       <c r="E304" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F304" s="58"/>
+      <c r="F304" s="57"/>
       <c r="G304" s="37"/>
       <c r="H304" s="35"/>
       <c r="I304" s="35"/>
@@ -9007,14 +9085,14 @@
     </row>
     <row r="305" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
-      <c r="B305" s="70" t="s">
+      <c r="B305" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C305" s="70"/>
-      <c r="D305" s="70"/>
-      <c r="E305" s="70"/>
-      <c r="F305" s="70"/>
-      <c r="G305" s="70"/>
+      <c r="C305" s="88"/>
+      <c r="D305" s="88"/>
+      <c r="E305" s="88"/>
+      <c r="F305" s="88"/>
+      <c r="G305" s="88"/>
       <c r="H305" s="34" t="s">
         <v>1</v>
       </c>
@@ -9036,23 +9114,23 @@
     </row>
     <row r="306" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
-      <c r="B306" s="70"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="70"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="52">
+      <c r="B306" s="88"/>
+      <c r="C306" s="88"/>
+      <c r="D306" s="88"/>
+      <c r="E306" s="88"/>
+      <c r="F306" s="88"/>
+      <c r="G306" s="88"/>
+      <c r="H306" s="95">
         <v>43299</v>
       </c>
-      <c r="I306" s="52">
+      <c r="I306" s="95">
         <v>43299</v>
       </c>
-      <c r="J306" s="54">
+      <c r="J306" s="93">
         <f>AVERAGE(J309:J332)</f>
         <v>0</v>
       </c>
-      <c r="K306" s="110">
+      <c r="K306" s="56">
         <f>SUM(F309:F332)</f>
         <v>0</v>
       </c>
@@ -9062,16 +9140,16 @@
     </row>
     <row r="307" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
-      <c r="B307" s="70"/>
-      <c r="C307" s="70"/>
-      <c r="D307" s="70"/>
-      <c r="E307" s="70"/>
-      <c r="F307" s="70"/>
-      <c r="G307" s="70"/>
-      <c r="H307" s="53"/>
-      <c r="I307" s="53"/>
-      <c r="J307" s="55"/>
-      <c r="K307" s="110"/>
+      <c r="B307" s="88"/>
+      <c r="C307" s="88"/>
+      <c r="D307" s="88"/>
+      <c r="E307" s="88"/>
+      <c r="F307" s="88"/>
+      <c r="G307" s="88"/>
+      <c r="H307" s="96"/>
+      <c r="I307" s="96"/>
+      <c r="J307" s="94"/>
+      <c r="K307" s="56"/>
       <c r="L307" s="14"/>
       <c r="M307" s="14"/>
     </row>
@@ -9108,13 +9186,13 @@
       </c>
     </row>
     <row r="309" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="95" t="s">
+      <c r="A309" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B309" s="65" t="s">
+      <c r="B309" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="C309" s="65" t="s">
+      <c r="C309" s="62" t="s">
         <v>442</v>
       </c>
       <c r="D309" s="10" t="s">
@@ -9123,7 +9201,7 @@
       <c r="E309" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F309" s="58"/>
+      <c r="F309" s="57"/>
       <c r="G309" s="40"/>
       <c r="H309" s="35"/>
       <c r="I309" s="35"/>
@@ -9132,16 +9210,16 @@
       </c>
     </row>
     <row r="310" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="96"/>
-      <c r="B310" s="94"/>
-      <c r="C310" s="94"/>
+      <c r="A310" s="100"/>
+      <c r="B310" s="63"/>
+      <c r="C310" s="63"/>
       <c r="D310" s="10" t="s">
         <v>439</v>
       </c>
       <c r="E310" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F310" s="58"/>
+      <c r="F310" s="57"/>
       <c r="G310" s="40"/>
       <c r="H310" s="35"/>
       <c r="I310" s="35"/>
@@ -9150,16 +9228,16 @@
       </c>
     </row>
     <row r="311" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="96"/>
-      <c r="B311" s="94"/>
-      <c r="C311" s="94"/>
+      <c r="A311" s="100"/>
+      <c r="B311" s="63"/>
+      <c r="C311" s="63"/>
       <c r="D311" s="10" t="s">
         <v>440</v>
       </c>
       <c r="E311" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F311" s="58"/>
+      <c r="F311" s="57"/>
       <c r="G311" s="40"/>
       <c r="H311" s="35"/>
       <c r="I311" s="35"/>
@@ -9168,16 +9246,16 @@
       </c>
     </row>
     <row r="312" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="97"/>
-      <c r="B312" s="66"/>
-      <c r="C312" s="66"/>
+      <c r="A312" s="101"/>
+      <c r="B312" s="102"/>
+      <c r="C312" s="102"/>
       <c r="D312" s="10" t="s">
         <v>441</v>
       </c>
       <c r="E312" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F312" s="58"/>
+      <c r="F312" s="57"/>
       <c r="G312" s="39"/>
       <c r="H312" s="35"/>
       <c r="I312" s="35"/>
@@ -9186,13 +9264,13 @@
       </c>
     </row>
     <row r="313" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="63" t="s">
+      <c r="A313" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B313" s="67" t="s">
+      <c r="B313" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="C313" s="65" t="s">
+      <c r="C313" s="62" t="s">
         <v>443</v>
       </c>
       <c r="D313" s="10" t="s">
@@ -9201,7 +9279,7 @@
       <c r="E313" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F313" s="58"/>
+      <c r="F313" s="57"/>
       <c r="G313" s="40"/>
       <c r="H313" s="35"/>
       <c r="I313" s="35"/>
@@ -9210,16 +9288,16 @@
       </c>
     </row>
     <row r="314" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="64"/>
-      <c r="B314" s="68"/>
-      <c r="C314" s="66"/>
+      <c r="A314" s="91"/>
+      <c r="B314" s="78"/>
+      <c r="C314" s="102"/>
       <c r="D314" s="10" t="s">
         <v>447</v>
       </c>
       <c r="E314" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F314" s="58"/>
+      <c r="F314" s="57"/>
       <c r="G314" s="39"/>
       <c r="H314" s="35"/>
       <c r="I314" s="35"/>
@@ -9228,16 +9306,16 @@
       </c>
     </row>
     <row r="315" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="64"/>
-      <c r="B315" s="68"/>
-      <c r="C315" s="66"/>
+      <c r="A315" s="91"/>
+      <c r="B315" s="78"/>
+      <c r="C315" s="102"/>
       <c r="D315" s="10" t="s">
         <v>448</v>
       </c>
       <c r="E315" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F315" s="58"/>
+      <c r="F315" s="57"/>
       <c r="G315" s="39"/>
       <c r="H315" s="35"/>
       <c r="I315" s="35"/>
@@ -9246,16 +9324,16 @@
       </c>
     </row>
     <row r="316" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="64"/>
-      <c r="B316" s="68"/>
-      <c r="C316" s="66"/>
+      <c r="A316" s="91"/>
+      <c r="B316" s="78"/>
+      <c r="C316" s="102"/>
       <c r="D316" s="10" t="s">
         <v>449</v>
       </c>
       <c r="E316" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F316" s="58"/>
+      <c r="F316" s="57"/>
       <c r="G316" s="39"/>
       <c r="H316" s="35"/>
       <c r="I316" s="35"/>
@@ -9264,9 +9342,9 @@
       </c>
     </row>
     <row r="317" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="64"/>
-      <c r="B317" s="68"/>
-      <c r="C317" s="65" t="s">
+      <c r="A317" s="91"/>
+      <c r="B317" s="78"/>
+      <c r="C317" s="62" t="s">
         <v>444</v>
       </c>
       <c r="D317" s="10" t="s">
@@ -9275,7 +9353,7 @@
       <c r="E317" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F317" s="58"/>
+      <c r="F317" s="57"/>
       <c r="G317" s="40"/>
       <c r="H317" s="35"/>
       <c r="I317" s="35"/>
@@ -9284,16 +9362,16 @@
       </c>
     </row>
     <row r="318" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="64"/>
-      <c r="B318" s="68"/>
-      <c r="C318" s="66"/>
+      <c r="A318" s="91"/>
+      <c r="B318" s="78"/>
+      <c r="C318" s="102"/>
       <c r="D318" s="10" t="s">
         <v>451</v>
       </c>
       <c r="E318" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F318" s="58"/>
+      <c r="F318" s="57"/>
       <c r="G318" s="39"/>
       <c r="H318" s="35"/>
       <c r="I318" s="35"/>
@@ -9302,16 +9380,16 @@
       </c>
     </row>
     <row r="319" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="64"/>
-      <c r="B319" s="68"/>
-      <c r="C319" s="66"/>
+      <c r="A319" s="91"/>
+      <c r="B319" s="78"/>
+      <c r="C319" s="102"/>
       <c r="D319" s="10" t="s">
         <v>452</v>
       </c>
       <c r="E319" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F319" s="58"/>
+      <c r="F319" s="57"/>
       <c r="G319" s="39"/>
       <c r="H319" s="35"/>
       <c r="I319" s="35"/>
@@ -9320,16 +9398,16 @@
       </c>
     </row>
     <row r="320" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="64"/>
-      <c r="B320" s="68"/>
-      <c r="C320" s="66"/>
+      <c r="A320" s="91"/>
+      <c r="B320" s="78"/>
+      <c r="C320" s="102"/>
       <c r="D320" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E320" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F320" s="58"/>
+      <c r="F320" s="57"/>
       <c r="G320" s="39"/>
       <c r="H320" s="35"/>
       <c r="I320" s="35"/>
@@ -9338,9 +9416,9 @@
       </c>
     </row>
     <row r="321" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="64"/>
-      <c r="B321" s="68"/>
-      <c r="C321" s="65" t="s">
+      <c r="A321" s="91"/>
+      <c r="B321" s="78"/>
+      <c r="C321" s="62" t="s">
         <v>445</v>
       </c>
       <c r="D321" s="10" t="s">
@@ -9349,7 +9427,7 @@
       <c r="E321" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F321" s="58"/>
+      <c r="F321" s="57"/>
       <c r="G321" s="37"/>
       <c r="H321" s="35"/>
       <c r="I321" s="35"/>
@@ -9358,16 +9436,16 @@
       </c>
     </row>
     <row r="322" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="64"/>
-      <c r="B322" s="68"/>
-      <c r="C322" s="66"/>
+      <c r="A322" s="91"/>
+      <c r="B322" s="78"/>
+      <c r="C322" s="102"/>
       <c r="D322" s="10" t="s">
         <v>455</v>
       </c>
       <c r="E322" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F322" s="58"/>
+      <c r="F322" s="57"/>
       <c r="G322" s="37"/>
       <c r="H322" s="35"/>
       <c r="I322" s="35"/>
@@ -9376,16 +9454,16 @@
       </c>
     </row>
     <row r="323" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="64"/>
-      <c r="B323" s="68"/>
-      <c r="C323" s="66"/>
+      <c r="A323" s="91"/>
+      <c r="B323" s="78"/>
+      <c r="C323" s="102"/>
       <c r="D323" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E323" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F323" s="58"/>
+      <c r="F323" s="57"/>
       <c r="G323" s="37"/>
       <c r="H323" s="35"/>
       <c r="I323" s="35"/>
@@ -9394,16 +9472,16 @@
       </c>
     </row>
     <row r="324" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="64"/>
-      <c r="B324" s="68"/>
-      <c r="C324" s="66"/>
+      <c r="A324" s="91"/>
+      <c r="B324" s="78"/>
+      <c r="C324" s="102"/>
       <c r="D324" s="10" t="s">
         <v>457</v>
       </c>
       <c r="E324" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F324" s="58"/>
+      <c r="F324" s="57"/>
       <c r="G324" s="37"/>
       <c r="H324" s="35"/>
       <c r="I324" s="35"/>
@@ -9412,9 +9490,9 @@
       </c>
     </row>
     <row r="325" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="64"/>
-      <c r="B325" s="68"/>
-      <c r="C325" s="77" t="s">
+      <c r="A325" s="91"/>
+      <c r="B325" s="78"/>
+      <c r="C325" s="58" t="s">
         <v>458</v>
       </c>
       <c r="D325" s="10" t="s">
@@ -9423,7 +9501,7 @@
       <c r="E325" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F325" s="58"/>
+      <c r="F325" s="57"/>
       <c r="G325" s="37"/>
       <c r="H325" s="35"/>
       <c r="I325" s="35"/>
@@ -9432,16 +9510,16 @@
       </c>
     </row>
     <row r="326" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="64"/>
-      <c r="B326" s="68"/>
-      <c r="C326" s="78"/>
+      <c r="A326" s="91"/>
+      <c r="B326" s="78"/>
+      <c r="C326" s="59"/>
       <c r="D326" s="10" t="s">
         <v>460</v>
       </c>
       <c r="E326" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F326" s="58"/>
+      <c r="F326" s="57"/>
       <c r="G326" s="37"/>
       <c r="H326" s="35"/>
       <c r="I326" s="35"/>
@@ -9450,16 +9528,16 @@
       </c>
     </row>
     <row r="327" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="64"/>
-      <c r="B327" s="68"/>
-      <c r="C327" s="78"/>
+      <c r="A327" s="91"/>
+      <c r="B327" s="78"/>
+      <c r="C327" s="59"/>
       <c r="D327" s="10" t="s">
         <v>461</v>
       </c>
       <c r="E327" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F327" s="58"/>
+      <c r="F327" s="57"/>
       <c r="G327" s="37"/>
       <c r="H327" s="35"/>
       <c r="I327" s="35"/>
@@ -9468,16 +9546,16 @@
       </c>
     </row>
     <row r="328" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="64"/>
-      <c r="B328" s="68"/>
-      <c r="C328" s="79"/>
+      <c r="A328" s="91"/>
+      <c r="B328" s="78"/>
+      <c r="C328" s="60"/>
       <c r="D328" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E328" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F328" s="58"/>
+      <c r="F328" s="57"/>
       <c r="G328" s="37"/>
       <c r="H328" s="35"/>
       <c r="I328" s="35"/>
@@ -9486,9 +9564,9 @@
       </c>
     </row>
     <row r="329" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="64"/>
-      <c r="B329" s="68"/>
-      <c r="C329" s="77" t="s">
+      <c r="A329" s="91"/>
+      <c r="B329" s="78"/>
+      <c r="C329" s="58" t="s">
         <v>463</v>
       </c>
       <c r="D329" s="10" t="s">
@@ -9497,7 +9575,7 @@
       <c r="E329" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F329" s="58"/>
+      <c r="F329" s="57"/>
       <c r="G329" s="37"/>
       <c r="H329" s="35"/>
       <c r="I329" s="35"/>
@@ -9506,16 +9584,16 @@
       </c>
     </row>
     <row r="330" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="64"/>
-      <c r="B330" s="68"/>
-      <c r="C330" s="78"/>
+      <c r="A330" s="91"/>
+      <c r="B330" s="78"/>
+      <c r="C330" s="59"/>
       <c r="D330" s="10" t="s">
         <v>465</v>
       </c>
       <c r="E330" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F330" s="58"/>
+      <c r="F330" s="57"/>
       <c r="G330" s="37"/>
       <c r="H330" s="35"/>
       <c r="I330" s="35"/>
@@ -9524,16 +9602,16 @@
       </c>
     </row>
     <row r="331" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="64"/>
-      <c r="B331" s="68"/>
-      <c r="C331" s="78"/>
+      <c r="A331" s="91"/>
+      <c r="B331" s="78"/>
+      <c r="C331" s="59"/>
       <c r="D331" s="10" t="s">
         <v>466</v>
       </c>
       <c r="E331" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F331" s="58"/>
+      <c r="F331" s="57"/>
       <c r="G331" s="37"/>
       <c r="H331" s="35"/>
       <c r="I331" s="35"/>
@@ -9542,16 +9620,16 @@
       </c>
     </row>
     <row r="332" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="64"/>
-      <c r="B332" s="69"/>
-      <c r="C332" s="79"/>
+      <c r="A332" s="91"/>
+      <c r="B332" s="79"/>
+      <c r="C332" s="60"/>
       <c r="D332" s="10" t="s">
         <v>467</v>
       </c>
       <c r="E332" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F332" s="58"/>
+      <c r="F332" s="57"/>
       <c r="G332" s="37"/>
       <c r="H332" s="35"/>
       <c r="I332" s="35"/>
@@ -9561,14 +9639,14 @@
     </row>
     <row r="333" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
-      <c r="B333" s="70" t="s">
+      <c r="B333" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="70"/>
-      <c r="D333" s="70"/>
-      <c r="E333" s="70"/>
-      <c r="F333" s="70"/>
-      <c r="G333" s="70"/>
+      <c r="C333" s="88"/>
+      <c r="D333" s="88"/>
+      <c r="E333" s="88"/>
+      <c r="F333" s="88"/>
+      <c r="G333" s="88"/>
       <c r="H333" s="34" t="s">
         <v>1</v>
       </c>
@@ -9590,23 +9668,23 @@
     </row>
     <row r="334" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
-      <c r="B334" s="70"/>
-      <c r="C334" s="70"/>
-      <c r="D334" s="70"/>
-      <c r="E334" s="70"/>
-      <c r="F334" s="70"/>
-      <c r="G334" s="70"/>
-      <c r="H334" s="52">
+      <c r="B334" s="88"/>
+      <c r="C334" s="88"/>
+      <c r="D334" s="88"/>
+      <c r="E334" s="88"/>
+      <c r="F334" s="88"/>
+      <c r="G334" s="88"/>
+      <c r="H334" s="95">
         <v>43300</v>
       </c>
-      <c r="I334" s="52">
+      <c r="I334" s="95">
         <v>43301</v>
       </c>
-      <c r="J334" s="54">
+      <c r="J334" s="93">
         <f>AVERAGE(J337:J354)</f>
         <v>0</v>
       </c>
-      <c r="K334" s="110">
+      <c r="K334" s="56">
         <f>SUM(F337:F354)</f>
         <v>0</v>
       </c>
@@ -9616,16 +9694,16 @@
     </row>
     <row r="335" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
-      <c r="B335" s="70"/>
-      <c r="C335" s="70"/>
-      <c r="D335" s="70"/>
-      <c r="E335" s="70"/>
-      <c r="F335" s="70"/>
-      <c r="G335" s="70"/>
-      <c r="H335" s="53"/>
-      <c r="I335" s="53"/>
-      <c r="J335" s="55"/>
-      <c r="K335" s="110"/>
+      <c r="B335" s="88"/>
+      <c r="C335" s="88"/>
+      <c r="D335" s="88"/>
+      <c r="E335" s="88"/>
+      <c r="F335" s="88"/>
+      <c r="G335" s="88"/>
+      <c r="H335" s="96"/>
+      <c r="I335" s="96"/>
+      <c r="J335" s="94"/>
+      <c r="K335" s="56"/>
       <c r="L335" s="14"/>
       <c r="M335" s="14"/>
     </row>
@@ -9662,13 +9740,13 @@
       </c>
     </row>
     <row r="337" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="60" t="s">
+      <c r="A337" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B337" s="62" t="s">
+      <c r="B337" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="C337" s="56" t="s">
+      <c r="C337" s="110" t="s">
         <v>239</v>
       </c>
       <c r="D337" s="10" t="s">
@@ -9677,7 +9755,7 @@
       <c r="E337" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F337" s="58"/>
+      <c r="F337" s="57"/>
       <c r="G337" s="40"/>
       <c r="H337" s="35"/>
       <c r="I337" s="35"/>
@@ -9686,16 +9764,16 @@
       </c>
     </row>
     <row r="338" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="60"/>
-      <c r="B338" s="62"/>
-      <c r="C338" s="57"/>
+      <c r="A338" s="105"/>
+      <c r="B338" s="71"/>
+      <c r="C338" s="111"/>
       <c r="D338" s="10" t="s">
         <v>259</v>
       </c>
       <c r="E338" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F338" s="58"/>
+      <c r="F338" s="57"/>
       <c r="G338" s="39"/>
       <c r="H338" s="35"/>
       <c r="I338" s="35"/>
@@ -9704,16 +9782,16 @@
       </c>
     </row>
     <row r="339" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="60"/>
-      <c r="B339" s="62"/>
-      <c r="C339" s="57"/>
+      <c r="A339" s="105"/>
+      <c r="B339" s="71"/>
+      <c r="C339" s="111"/>
       <c r="D339" s="10" t="s">
         <v>260</v>
       </c>
       <c r="E339" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F339" s="58"/>
+      <c r="F339" s="57"/>
       <c r="G339" s="39"/>
       <c r="H339" s="35"/>
       <c r="I339" s="35"/>
@@ -9722,9 +9800,9 @@
       </c>
     </row>
     <row r="340" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="60"/>
-      <c r="B340" s="62"/>
-      <c r="C340" s="56" t="s">
+      <c r="A340" s="105"/>
+      <c r="B340" s="71"/>
+      <c r="C340" s="110" t="s">
         <v>252</v>
       </c>
       <c r="D340" s="10" t="s">
@@ -9733,7 +9811,7 @@
       <c r="E340" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F340" s="58"/>
+      <c r="F340" s="57"/>
       <c r="G340" s="40"/>
       <c r="H340" s="35"/>
       <c r="I340" s="35"/>
@@ -9742,16 +9820,16 @@
       </c>
     </row>
     <row r="341" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="60"/>
-      <c r="B341" s="62"/>
-      <c r="C341" s="57"/>
+      <c r="A341" s="105"/>
+      <c r="B341" s="71"/>
+      <c r="C341" s="111"/>
       <c r="D341" s="10" t="s">
         <v>262</v>
       </c>
       <c r="E341" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F341" s="58"/>
+      <c r="F341" s="57"/>
       <c r="G341" s="39"/>
       <c r="H341" s="35"/>
       <c r="I341" s="35"/>
@@ -9760,16 +9838,16 @@
       </c>
     </row>
     <row r="342" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="60"/>
-      <c r="B342" s="62"/>
-      <c r="C342" s="57"/>
+      <c r="A342" s="105"/>
+      <c r="B342" s="71"/>
+      <c r="C342" s="111"/>
       <c r="D342" s="10" t="s">
         <v>263</v>
       </c>
       <c r="E342" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F342" s="58"/>
+      <c r="F342" s="57"/>
       <c r="G342" s="39"/>
       <c r="H342" s="35"/>
       <c r="I342" s="35"/>
@@ -9778,9 +9856,9 @@
       </c>
     </row>
     <row r="343" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="60"/>
-      <c r="B343" s="62"/>
-      <c r="C343" s="61" t="s">
+      <c r="A343" s="105"/>
+      <c r="B343" s="71"/>
+      <c r="C343" s="70" t="s">
         <v>253</v>
       </c>
       <c r="D343" s="20" t="s">
@@ -9789,7 +9867,7 @@
       <c r="E343" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F343" s="58"/>
+      <c r="F343" s="57"/>
       <c r="G343" s="37"/>
       <c r="H343" s="35"/>
       <c r="I343" s="35"/>
@@ -9798,16 +9876,16 @@
       </c>
     </row>
     <row r="344" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="60"/>
-      <c r="B344" s="62"/>
-      <c r="C344" s="61"/>
+      <c r="A344" s="105"/>
+      <c r="B344" s="71"/>
+      <c r="C344" s="70"/>
       <c r="D344" s="20" t="s">
         <v>265</v>
       </c>
       <c r="E344" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F344" s="58"/>
+      <c r="F344" s="57"/>
       <c r="G344" s="37"/>
       <c r="H344" s="35"/>
       <c r="I344" s="35"/>
@@ -9816,16 +9894,16 @@
       </c>
     </row>
     <row r="345" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="60"/>
-      <c r="B345" s="62"/>
-      <c r="C345" s="61"/>
+      <c r="A345" s="105"/>
+      <c r="B345" s="71"/>
+      <c r="C345" s="70"/>
       <c r="D345" s="20" t="s">
         <v>266</v>
       </c>
       <c r="E345" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F345" s="58"/>
+      <c r="F345" s="57"/>
       <c r="G345" s="37"/>
       <c r="H345" s="35"/>
       <c r="I345" s="35"/>
@@ -9834,9 +9912,9 @@
       </c>
     </row>
     <row r="346" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="60"/>
-      <c r="B346" s="62"/>
-      <c r="C346" s="56" t="s">
+      <c r="A346" s="105"/>
+      <c r="B346" s="71"/>
+      <c r="C346" s="110" t="s">
         <v>254</v>
       </c>
       <c r="D346" s="10" t="s">
@@ -9845,7 +9923,7 @@
       <c r="E346" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F346" s="58"/>
+      <c r="F346" s="57"/>
       <c r="G346" s="40"/>
       <c r="H346" s="35"/>
       <c r="I346" s="35"/>
@@ -9854,16 +9932,16 @@
       </c>
     </row>
     <row r="347" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="60"/>
-      <c r="B347" s="62"/>
-      <c r="C347" s="57"/>
+      <c r="A347" s="105"/>
+      <c r="B347" s="71"/>
+      <c r="C347" s="111"/>
       <c r="D347" s="10" t="s">
         <v>268</v>
       </c>
       <c r="E347" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F347" s="58"/>
+      <c r="F347" s="57"/>
       <c r="G347" s="39"/>
       <c r="H347" s="35"/>
       <c r="I347" s="35"/>
@@ -9872,16 +9950,16 @@
       </c>
     </row>
     <row r="348" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="60"/>
-      <c r="B348" s="62"/>
-      <c r="C348" s="57"/>
+      <c r="A348" s="105"/>
+      <c r="B348" s="71"/>
+      <c r="C348" s="111"/>
       <c r="D348" s="10" t="s">
         <v>269</v>
       </c>
       <c r="E348" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F348" s="58"/>
+      <c r="F348" s="57"/>
       <c r="G348" s="39"/>
       <c r="H348" s="35"/>
       <c r="I348" s="35"/>
@@ -9890,9 +9968,9 @@
       </c>
     </row>
     <row r="349" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="60"/>
-      <c r="B349" s="62"/>
-      <c r="C349" s="56" t="s">
+      <c r="A349" s="105"/>
+      <c r="B349" s="71"/>
+      <c r="C349" s="110" t="s">
         <v>255</v>
       </c>
       <c r="D349" s="10" t="s">
@@ -9901,7 +9979,7 @@
       <c r="E349" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F349" s="58"/>
+      <c r="F349" s="57"/>
       <c r="G349" s="40"/>
       <c r="H349" s="35"/>
       <c r="I349" s="35"/>
@@ -9910,16 +9988,16 @@
       </c>
     </row>
     <row r="350" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="60"/>
-      <c r="B350" s="62"/>
-      <c r="C350" s="57"/>
+      <c r="A350" s="105"/>
+      <c r="B350" s="71"/>
+      <c r="C350" s="111"/>
       <c r="D350" s="10" t="s">
         <v>271</v>
       </c>
       <c r="E350" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F350" s="58"/>
+      <c r="F350" s="57"/>
       <c r="G350" s="39"/>
       <c r="H350" s="35"/>
       <c r="I350" s="35"/>
@@ -9928,16 +10006,16 @@
       </c>
     </row>
     <row r="351" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="60"/>
-      <c r="B351" s="62"/>
-      <c r="C351" s="57"/>
+      <c r="A351" s="105"/>
+      <c r="B351" s="71"/>
+      <c r="C351" s="111"/>
       <c r="D351" s="10" t="s">
         <v>272</v>
       </c>
       <c r="E351" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F351" s="58"/>
+      <c r="F351" s="57"/>
       <c r="G351" s="39"/>
       <c r="H351" s="35"/>
       <c r="I351" s="35"/>
@@ -9946,9 +10024,9 @@
       </c>
     </row>
     <row r="352" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="60"/>
-      <c r="B352" s="62"/>
-      <c r="C352" s="61" t="s">
+      <c r="A352" s="105"/>
+      <c r="B352" s="71"/>
+      <c r="C352" s="70" t="s">
         <v>256</v>
       </c>
       <c r="D352" s="20" t="s">
@@ -9957,7 +10035,7 @@
       <c r="E352" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F352" s="58"/>
+      <c r="F352" s="57"/>
       <c r="G352" s="37"/>
       <c r="H352" s="35"/>
       <c r="I352" s="35"/>
@@ -9966,16 +10044,16 @@
       </c>
     </row>
     <row r="353" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="60"/>
-      <c r="B353" s="62"/>
-      <c r="C353" s="61"/>
+      <c r="A353" s="105"/>
+      <c r="B353" s="71"/>
+      <c r="C353" s="70"/>
       <c r="D353" s="20" t="s">
         <v>274</v>
       </c>
       <c r="E353" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F353" s="58"/>
+      <c r="F353" s="57"/>
       <c r="G353" s="37"/>
       <c r="H353" s="35"/>
       <c r="I353" s="35"/>
@@ -9984,16 +10062,16 @@
       </c>
     </row>
     <row r="354" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="60"/>
-      <c r="B354" s="62"/>
-      <c r="C354" s="61"/>
+      <c r="A354" s="105"/>
+      <c r="B354" s="71"/>
+      <c r="C354" s="70"/>
       <c r="D354" s="20" t="s">
         <v>275</v>
       </c>
       <c r="E354" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F354" s="58"/>
+      <c r="F354" s="57"/>
       <c r="G354" s="37"/>
       <c r="H354" s="35"/>
       <c r="I354" s="35"/>
@@ -10164,93 +10242,93 @@
     <row r="387" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="11"/>
       <c r="E387" s="41"/>
-      <c r="F387" s="117"/>
+      <c r="F387" s="51"/>
     </row>
     <row r="388" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="11"/>
       <c r="E388" s="41"/>
-      <c r="F388" s="117"/>
+      <c r="F388" s="51"/>
     </row>
     <row r="389" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="11"/>
       <c r="E389" s="41"/>
-      <c r="F389" s="117"/>
+      <c r="F389" s="51"/>
     </row>
     <row r="390" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="11"/>
       <c r="E390" s="41"/>
-      <c r="F390" s="117"/>
+      <c r="F390" s="51"/>
     </row>
     <row r="391" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="11"/>
       <c r="E391" s="41"/>
-      <c r="F391" s="117"/>
+      <c r="F391" s="51"/>
     </row>
     <row r="392" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="11"/>
       <c r="E392" s="41"/>
-      <c r="F392" s="117"/>
+      <c r="F392" s="51"/>
     </row>
     <row r="393" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="11"/>
       <c r="E393" s="41"/>
-      <c r="F393" s="117"/>
+      <c r="F393" s="51"/>
     </row>
     <row r="394" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="11"/>
       <c r="E394" s="41"/>
-      <c r="F394" s="117"/>
+      <c r="F394" s="51"/>
     </row>
     <row r="395" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="11"/>
       <c r="E395" s="41"/>
-      <c r="F395" s="117"/>
-      <c r="G395" s="118"/>
+      <c r="F395" s="51"/>
+      <c r="G395" s="52"/>
     </row>
     <row r="396" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="11"/>
       <c r="E396" s="41"/>
-      <c r="F396" s="117"/>
+      <c r="F396" s="51"/>
     </row>
     <row r="397" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="11"/>
       <c r="E397" s="41"/>
-      <c r="F397" s="117"/>
+      <c r="F397" s="51"/>
     </row>
     <row r="398" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="11"/>
       <c r="E398" s="41"/>
-      <c r="F398" s="117"/>
+      <c r="F398" s="51"/>
     </row>
     <row r="399" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="11"/>
       <c r="E399" s="41"/>
-      <c r="F399" s="117"/>
+      <c r="F399" s="51"/>
     </row>
     <row r="400" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="11"/>
       <c r="E400" s="41"/>
-      <c r="F400" s="117"/>
+      <c r="F400" s="51"/>
     </row>
     <row r="401" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="11"/>
       <c r="E401" s="41"/>
-      <c r="F401" s="117"/>
+      <c r="F401" s="51"/>
     </row>
     <row r="402" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="11"/>
       <c r="E402" s="41"/>
-      <c r="F402" s="117"/>
+      <c r="F402" s="51"/>
     </row>
     <row r="403" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="11"/>
       <c r="E403" s="41"/>
-      <c r="F403" s="117"/>
+      <c r="F403" s="51"/>
     </row>
     <row r="404" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="11"/>
       <c r="E404" s="41"/>
-      <c r="F404" s="117"/>
+      <c r="F404" s="51"/>
     </row>
     <row r="405" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="11"/>
@@ -11647,6 +11725,221 @@
     <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="H334:H335"/>
+    <mergeCell ref="I334:I335"/>
+    <mergeCell ref="J334:J335"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="F337:F339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="F340:F342"/>
+    <mergeCell ref="A337:A354"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="F346:F348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="F349:F351"/>
+    <mergeCell ref="C352:C354"/>
+    <mergeCell ref="F352:F354"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="F343:F345"/>
+    <mergeCell ref="B337:B354"/>
+    <mergeCell ref="A313:A332"/>
+    <mergeCell ref="C313:C316"/>
+    <mergeCell ref="F313:F316"/>
+    <mergeCell ref="C317:C320"/>
+    <mergeCell ref="F317:F320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="B313:B332"/>
+    <mergeCell ref="B333:G335"/>
+    <mergeCell ref="A285:A304"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="F289:F292"/>
+    <mergeCell ref="C269:C272"/>
+    <mergeCell ref="F269:F272"/>
+    <mergeCell ref="A265:A284"/>
+    <mergeCell ref="B265:B284"/>
+    <mergeCell ref="B285:B304"/>
+    <mergeCell ref="C293:C296"/>
+    <mergeCell ref="C297:C300"/>
+    <mergeCell ref="C301:C304"/>
+    <mergeCell ref="F293:F296"/>
+    <mergeCell ref="F297:F300"/>
+    <mergeCell ref="A189:A204"/>
+    <mergeCell ref="C189:C192"/>
+    <mergeCell ref="F189:F192"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="F197:F200"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="F193:F196"/>
+    <mergeCell ref="C201:C204"/>
+    <mergeCell ref="H238:H239"/>
+    <mergeCell ref="B237:G239"/>
+    <mergeCell ref="F201:F204"/>
+    <mergeCell ref="A157:A172"/>
+    <mergeCell ref="A173:A188"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="F173:F176"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="F177:F180"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="F181:F184"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="A257:A264"/>
+    <mergeCell ref="B257:B264"/>
+    <mergeCell ref="B205:B220"/>
+    <mergeCell ref="B221:B236"/>
+    <mergeCell ref="A205:A220"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="F205:F208"/>
+    <mergeCell ref="C209:C212"/>
+    <mergeCell ref="F209:F212"/>
+    <mergeCell ref="C213:C216"/>
+    <mergeCell ref="F213:F216"/>
+    <mergeCell ref="F229:F232"/>
+    <mergeCell ref="A221:A236"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="F261:F264"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="C241:C244"/>
+    <mergeCell ref="F241:F244"/>
+    <mergeCell ref="C245:C248"/>
+    <mergeCell ref="F245:F248"/>
+    <mergeCell ref="C249:C252"/>
+    <mergeCell ref="F249:F252"/>
+    <mergeCell ref="B241:B256"/>
+    <mergeCell ref="A105:A120"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="B89:B104"/>
+    <mergeCell ref="B105:B120"/>
+    <mergeCell ref="A89:A104"/>
+    <mergeCell ref="F117:F120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="H306:H307"/>
+    <mergeCell ref="I306:I307"/>
+    <mergeCell ref="J306:J307"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="F221:F224"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="F225:F228"/>
+    <mergeCell ref="C229:C232"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="B305:G307"/>
+    <mergeCell ref="C261:C264"/>
+    <mergeCell ref="B137:G139"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="I238:I239"/>
+    <mergeCell ref="J238:J239"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="F273:F276"/>
+    <mergeCell ref="C285:C288"/>
+    <mergeCell ref="F233:F236"/>
+    <mergeCell ref="F217:F220"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="F309:F312"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="A41:A56"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="F81:F84"/>
+    <mergeCell ref="A121:A136"/>
+    <mergeCell ref="B77:B88"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="B41:B56"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="B121:B136"/>
+    <mergeCell ref="B141:B156"/>
+    <mergeCell ref="B157:B172"/>
+    <mergeCell ref="B173:B188"/>
+    <mergeCell ref="B189:B204"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B72"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="A5:G7"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A57:A72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A141:A156"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="F129:F132"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="F77:F80"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K138:K139"/>
     <mergeCell ref="K238:K239"/>
@@ -11671,221 +11964,6 @@
     <mergeCell ref="F169:F172"/>
     <mergeCell ref="F185:F188"/>
     <mergeCell ref="C281:C284"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="F129:F132"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="F97:F100"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="B121:B136"/>
-    <mergeCell ref="B141:B156"/>
-    <mergeCell ref="B157:B172"/>
-    <mergeCell ref="B173:B188"/>
-    <mergeCell ref="B189:B204"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B57:B72"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="A5:G7"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A57:A72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A141:A156"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B41:B56"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="F309:F312"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="A41:A56"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="F81:F84"/>
-    <mergeCell ref="A121:A136"/>
-    <mergeCell ref="B77:B88"/>
-    <mergeCell ref="H306:H307"/>
-    <mergeCell ref="I306:I307"/>
-    <mergeCell ref="J306:J307"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="F221:F224"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="F225:F228"/>
-    <mergeCell ref="C229:C232"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="B305:G307"/>
-    <mergeCell ref="C261:C264"/>
-    <mergeCell ref="B137:G139"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="I238:I239"/>
-    <mergeCell ref="J238:J239"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="F273:F276"/>
-    <mergeCell ref="C285:C288"/>
-    <mergeCell ref="F233:F236"/>
-    <mergeCell ref="F217:F220"/>
-    <mergeCell ref="A105:A120"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="B89:B104"/>
-    <mergeCell ref="B105:B120"/>
-    <mergeCell ref="A89:A104"/>
-    <mergeCell ref="F117:F120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="A257:A264"/>
-    <mergeCell ref="B257:B264"/>
-    <mergeCell ref="B205:B220"/>
-    <mergeCell ref="B221:B236"/>
-    <mergeCell ref="A205:A220"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="F205:F208"/>
-    <mergeCell ref="C209:C212"/>
-    <mergeCell ref="F209:F212"/>
-    <mergeCell ref="C213:C216"/>
-    <mergeCell ref="F213:F216"/>
-    <mergeCell ref="F229:F232"/>
-    <mergeCell ref="A221:A236"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="F261:F264"/>
-    <mergeCell ref="C217:C220"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="C241:C244"/>
-    <mergeCell ref="F241:F244"/>
-    <mergeCell ref="C245:C248"/>
-    <mergeCell ref="F245:F248"/>
-    <mergeCell ref="C249:C252"/>
-    <mergeCell ref="F249:F252"/>
-    <mergeCell ref="B241:B256"/>
-    <mergeCell ref="A157:A172"/>
-    <mergeCell ref="A173:A188"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="F173:F176"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="F177:F180"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="F181:F184"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="F157:F160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="F161:F164"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="A189:A204"/>
-    <mergeCell ref="C189:C192"/>
-    <mergeCell ref="F189:F192"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="F197:F200"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="F193:F196"/>
-    <mergeCell ref="C201:C204"/>
-    <mergeCell ref="H238:H239"/>
-    <mergeCell ref="B237:G239"/>
-    <mergeCell ref="F201:F204"/>
-    <mergeCell ref="A285:A304"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="F289:F292"/>
-    <mergeCell ref="C269:C272"/>
-    <mergeCell ref="F269:F272"/>
-    <mergeCell ref="A265:A284"/>
-    <mergeCell ref="B265:B284"/>
-    <mergeCell ref="B285:B304"/>
-    <mergeCell ref="C293:C296"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="C301:C304"/>
-    <mergeCell ref="F293:F296"/>
-    <mergeCell ref="F297:F300"/>
-    <mergeCell ref="A313:A332"/>
-    <mergeCell ref="C313:C316"/>
-    <mergeCell ref="F313:F316"/>
-    <mergeCell ref="C317:C320"/>
-    <mergeCell ref="F317:F320"/>
-    <mergeCell ref="C321:C324"/>
-    <mergeCell ref="F321:F324"/>
-    <mergeCell ref="B313:B332"/>
-    <mergeCell ref="B333:G335"/>
-    <mergeCell ref="H334:H335"/>
-    <mergeCell ref="I334:I335"/>
-    <mergeCell ref="J334:J335"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="F337:F339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="F340:F342"/>
-    <mergeCell ref="A337:A354"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="F346:F348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="F349:F351"/>
-    <mergeCell ref="C352:C354"/>
-    <mergeCell ref="F352:F354"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="F343:F345"/>
-    <mergeCell ref="B337:B354"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/1 Planeación de casos de pruebas CMMS(Recuperado automáticamente).xlsx
+++ b/1 Planeación de casos de pruebas CMMS(Recuperado automáticamente).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milenio\Desktop\testing\Pruebas\envios CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33975FC7-37FA-4EB4-9FAB-779DB6AEDEEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E487E8E5-13FA-49E3-8F22-C0B74F288DFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1542,7 +1542,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,6 +1609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2020,7 +2026,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2149,11 +2155,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2167,36 +2233,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,23 +2242,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="11" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2245,87 +2314,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="11" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2677,7 +2687,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2723,7 +2733,7 @@
       </c>
       <c r="G3" s="45">
         <f>'Planeación detallada'!K6</f>
-        <v>9.509999999999998</v>
+        <v>8.7099999999999991</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2737,15 +2747,15 @@
       </c>
       <c r="E4" s="2">
         <f>'Planeación detallada'!I138</f>
-        <v>0</v>
+        <v>43322</v>
       </c>
       <c r="F4" s="3">
         <f>'Planeación detallada'!J138</f>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G4" s="45">
         <f>'Planeación detallada'!K138</f>
-        <v>1.24</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2835,8 +2845,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153:F156"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2867,35 +2877,35 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="90">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="101">
         <f>SUM(J6,J138,J238,J306,J334)/5</f>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+        <v>0.31666666666666671</v>
+      </c>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -2916,15 +2926,15 @@
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="7" t="s">
         <v>1</v>
       </c>
@@ -2946,43 +2956,43 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="93">
-        <v>43283</v>
-      </c>
-      <c r="I6" s="93">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="54">
+        <v>43283</v>
+      </c>
+      <c r="I6" s="54">
         <v>43318</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="56">
         <f>AVERAGE(J9:J136)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="112">
         <f>SUM(F9:F136)</f>
-        <v>9.509999999999998</v>
+        <v>8.7099999999999991</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="12"/>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="54"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
@@ -3019,13 +3029,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="102" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -3034,7 +3044,7 @@
       <c r="E9" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="60">
         <v>0.48</v>
       </c>
       <c r="G9" s="12"/>
@@ -3049,16 +3059,16 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="96"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="12"/>
       <c r="H10" s="30">
         <v>43283</v>
@@ -3071,16 +3081,16 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="96"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="9"/>
       <c r="H11" s="30">
         <v>43283</v>
@@ -3093,16 +3103,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="96"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="12"/>
       <c r="H12" s="30">
         <v>43283</v>
@@ -3115,9 +3125,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="66" t="s">
         <v>276</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -3126,7 +3136,7 @@
       <c r="E13" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="60">
         <v>0.3</v>
       </c>
       <c r="G13" s="12"/>
@@ -3141,16 +3151,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="12"/>
       <c r="H14" s="30">
         <v>43283</v>
@@ -3163,16 +3173,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="12"/>
       <c r="H15" s="30">
         <v>43283</v>
@@ -3185,16 +3195,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="12"/>
       <c r="H16" s="30">
         <v>43283</v>
@@ -3207,9 +3217,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="63" t="s">
         <v>277</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -3218,7 +3228,7 @@
       <c r="E17" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="60">
         <v>0.15</v>
       </c>
       <c r="G17" s="12"/>
@@ -3233,16 +3243,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="103"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="46"/>
       <c r="H18" s="30">
         <v>43283</v>
@@ -3255,16 +3265,16 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="103"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="69"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F19" s="55"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="46"/>
       <c r="H19" s="30">
         <v>43283</v>
@@ -3277,16 +3287,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="69"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F20" s="55"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="9"/>
       <c r="H20" s="30">
         <v>43283</v>
@@ -3299,9 +3309,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="78" t="s">
         <v>278</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -3310,7 +3320,7 @@
       <c r="E21" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="60">
         <v>0.05</v>
       </c>
       <c r="G21" s="46"/>
@@ -3325,16 +3335,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="57"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="46"/>
       <c r="H22" s="30">
         <v>43283</v>
@@ -3347,16 +3357,16 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="57"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F23" s="55"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="46"/>
       <c r="H23" s="30">
         <v>43283</v>
@@ -3369,16 +3379,16 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="103"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="25" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F24" s="55"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="46"/>
       <c r="H24" s="30">
         <v>43283</v>
@@ -3391,13 +3401,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="66" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -3406,7 +3416,7 @@
       <c r="E25" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="60">
         <v>0.15</v>
       </c>
       <c r="G25" s="46"/>
@@ -3421,16 +3431,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="73"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="46"/>
       <c r="H26" s="30">
         <v>43283</v>
@@ -3443,16 +3453,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="101"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="73"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F27" s="55"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="46"/>
       <c r="H27" s="30">
         <v>43283</v>
@@ -3465,16 +3475,16 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="101"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="73"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="46"/>
       <c r="H28" s="30">
         <v>43283</v>
@@ -3487,9 +3497,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="101"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="60" t="s">
+      <c r="A29" s="91"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="66" t="s">
         <v>281</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -3498,7 +3508,7 @@
       <c r="E29" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="82">
         <v>0.12</v>
       </c>
       <c r="G29" s="46"/>
@@ -3513,16 +3523,16 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="101"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F30" s="71"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="46"/>
       <c r="H30" s="30">
         <v>43283</v>
@@ -3535,16 +3545,16 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="101"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="61"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F31" s="71"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="46"/>
       <c r="H31" s="30">
         <v>43283</v>
@@ -3557,16 +3567,16 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="101"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="61"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="46"/>
       <c r="H32" s="30">
         <v>43283</v>
@@ -3579,9 +3589,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="101"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="69" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="63" t="s">
         <v>282</v>
       </c>
       <c r="D33" s="25" t="s">
@@ -3590,7 +3600,7 @@
       <c r="E33" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="82">
         <v>0.3</v>
       </c>
       <c r="G33" s="46"/>
@@ -3605,16 +3615,16 @@
       </c>
     </row>
     <row r="34" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="101"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="69"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="25" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="46"/>
       <c r="H34" s="30">
         <v>43283</v>
@@ -3627,16 +3637,16 @@
       </c>
     </row>
     <row r="35" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="101"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="69"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F35" s="71"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="46"/>
       <c r="H35" s="30">
         <v>43283</v>
@@ -3649,16 +3659,16 @@
       </c>
     </row>
     <row r="36" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="101"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="69"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="25" t="s">
         <v>79</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="9"/>
       <c r="H36" s="30">
         <v>43283</v>
@@ -3671,9 +3681,9 @@
       </c>
     </row>
     <row r="37" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="101"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="69" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="63" t="s">
         <v>283</v>
       </c>
       <c r="D37" s="25" t="s">
@@ -3682,7 +3692,7 @@
       <c r="E37" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F37" s="60">
         <v>0.2</v>
       </c>
       <c r="G37" s="46"/>
@@ -3697,16 +3707,16 @@
       </c>
     </row>
     <row r="38" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="101"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="69"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="25" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="46"/>
       <c r="H38" s="30">
         <v>43283</v>
@@ -3719,16 +3729,16 @@
       </c>
     </row>
     <row r="39" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="101"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="69"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="25" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F39" s="55"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="46"/>
       <c r="H39" s="30">
         <v>43283</v>
@@ -3741,16 +3751,16 @@
       </c>
     </row>
     <row r="40" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="101"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="69"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="25" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="46"/>
       <c r="H40" s="30">
         <v>43283</v>
@@ -3763,13 +3773,13 @@
       </c>
     </row>
     <row r="41" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="66" t="s">
         <v>284</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -3778,8 +3788,8 @@
       <c r="E41" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F41" s="55">
-        <v>1</v>
+      <c r="F41" s="60">
+        <v>0.6</v>
       </c>
       <c r="G41" s="46"/>
       <c r="H41" s="30">
@@ -3793,16 +3803,16 @@
       </c>
     </row>
     <row r="42" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="101"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="73"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="25" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F42" s="55"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="9"/>
       <c r="H42" s="30">
         <v>43283</v>
@@ -3816,16 +3826,16 @@
       <c r="Z42" s="27"/>
     </row>
     <row r="43" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="101"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="73"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="25" t="s">
         <v>87</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="60"/>
       <c r="G43" s="46"/>
       <c r="H43" s="30">
         <v>43283</v>
@@ -3838,16 +3848,16 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="101"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="73"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="25" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F44" s="55"/>
+      <c r="F44" s="60"/>
       <c r="G44" s="46"/>
       <c r="H44" s="30">
         <v>43283</v>
@@ -3860,9 +3870,9 @@
       </c>
     </row>
     <row r="45" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="101"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="60" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="66" t="s">
         <v>285</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -3871,7 +3881,7 @@
       <c r="E45" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="60">
         <v>0.22</v>
       </c>
       <c r="G45" s="46"/>
@@ -3886,16 +3896,16 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="101"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="73"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F46" s="55"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="9"/>
       <c r="H46" s="30">
         <v>43283</v>
@@ -3908,16 +3918,16 @@
       </c>
     </row>
     <row r="47" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="101"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="73"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="25" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F47" s="55"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="46"/>
       <c r="H47" s="30">
         <v>43283</v>
@@ -3930,16 +3940,16 @@
       </c>
     </row>
     <row r="48" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="101"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="73"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="93"/>
       <c r="D48" s="25" t="s">
         <v>92</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F48" s="55"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="9"/>
       <c r="H48" s="30">
         <v>43283</v>
@@ -3952,9 +3962,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="101"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="56" t="s">
+      <c r="A49" s="91"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="78" t="s">
         <v>286</v>
       </c>
       <c r="D49" s="25" t="s">
@@ -3963,7 +3973,7 @@
       <c r="E49" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F49" s="55">
+      <c r="F49" s="60">
         <v>0.31</v>
       </c>
       <c r="G49" s="46"/>
@@ -3978,16 +3988,16 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="101"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="57"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="25" t="s">
         <v>94</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F50" s="55"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="46"/>
       <c r="H50" s="30">
         <v>43283</v>
@@ -4000,16 +4010,16 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="101"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="57"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="25" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F51" s="55"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="46"/>
       <c r="H51" s="30">
         <v>43283</v>
@@ -4022,16 +4032,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="101"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="57"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F52" s="55"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="9"/>
       <c r="H52" s="30">
         <v>43283</v>
@@ -4044,9 +4054,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="101"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="69" t="s">
+      <c r="A53" s="91"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="63" t="s">
         <v>287</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -4055,7 +4065,7 @@
       <c r="E53" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F53" s="55">
+      <c r="F53" s="60">
         <v>0.3</v>
       </c>
       <c r="G53" s="46"/>
@@ -4070,16 +4080,16 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="101"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="69"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F54" s="55"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="46"/>
       <c r="H54" s="30">
         <v>43283</v>
@@ -4092,16 +4102,16 @@
       </c>
     </row>
     <row r="55" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="101"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="74"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="25" t="s">
         <v>99</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F55" s="55"/>
+      <c r="F55" s="60"/>
       <c r="G55" s="46"/>
       <c r="H55" s="30">
         <v>43283</v>
@@ -4114,16 +4124,16 @@
       </c>
     </row>
     <row r="56" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="101"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="74"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="25" t="s">
         <v>100</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F56" s="55"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="46"/>
       <c r="H56" s="30">
         <v>43283</v>
@@ -4136,13 +4146,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="66" t="s">
         <v>288</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -4151,7 +4161,7 @@
       <c r="E57" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="60">
         <v>0.3</v>
       </c>
       <c r="G57" s="46"/>
@@ -4166,16 +4176,16 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="61"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F58" s="55"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="46"/>
       <c r="H58" s="30">
         <v>43283</v>
@@ -4188,16 +4198,16 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="61"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="96"/>
       <c r="D59" s="25" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F59" s="55"/>
+      <c r="F59" s="60"/>
       <c r="G59" s="46"/>
       <c r="H59" s="30">
         <v>43283</v>
@@ -4210,16 +4220,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="85"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="110"/>
       <c r="D60" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F60" s="55"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="9"/>
       <c r="H60" s="30">
         <v>43283</v>
@@ -4232,9 +4242,9 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="60" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="66" t="s">
         <v>289</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -4243,7 +4253,7 @@
       <c r="E61" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F61" s="60">
         <v>0.3</v>
       </c>
       <c r="G61" s="46"/>
@@ -4258,16 +4268,16 @@
       </c>
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="87"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="61"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F62" s="55"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="46"/>
       <c r="H62" s="30">
         <v>43283</v>
@@ -4280,16 +4290,16 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="87"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F63" s="55"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="46"/>
       <c r="H63" s="30">
         <v>43283</v>
@@ -4302,16 +4312,16 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="87"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="88"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="111"/>
       <c r="D64" s="25" t="s">
         <v>108</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F64" s="55"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="46"/>
       <c r="H64" s="30">
         <v>43283</v>
@@ -4324,9 +4334,9 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="87"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="56" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="78" t="s">
         <v>290</v>
       </c>
       <c r="D65" s="25" t="s">
@@ -4335,7 +4345,7 @@
       <c r="E65" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="60">
         <v>0.24</v>
       </c>
       <c r="G65" s="46"/>
@@ -4350,16 +4360,16 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="87"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="57"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="25" t="s">
         <v>110</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F66" s="55"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="46"/>
       <c r="H66" s="30">
         <v>43283</v>
@@ -4372,16 +4382,16 @@
       </c>
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="87"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="57"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F67" s="55"/>
+      <c r="F67" s="60"/>
       <c r="G67" s="46"/>
       <c r="H67" s="30">
         <v>43283</v>
@@ -4394,16 +4404,16 @@
       </c>
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="87"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="58"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="80"/>
       <c r="D68" s="25" t="s">
         <v>112</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F68" s="55"/>
+      <c r="F68" s="60"/>
       <c r="G68" s="46"/>
       <c r="H68" s="30">
         <v>43283</v>
@@ -4416,9 +4426,9 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="87"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="56" t="s">
+      <c r="A69" s="64"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="78" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="25" t="s">
@@ -4427,7 +4437,7 @@
       <c r="E69" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F69" s="55">
+      <c r="F69" s="60">
         <v>0.05</v>
       </c>
       <c r="G69" s="46"/>
@@ -4442,16 +4452,16 @@
       </c>
     </row>
     <row r="70" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="87"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="57"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="25" t="s">
         <v>114</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F70" s="55"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="46"/>
       <c r="H70" s="30">
         <v>43283</v>
@@ -4464,16 +4474,16 @@
       </c>
     </row>
     <row r="71" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="87"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="57"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F71" s="55"/>
+      <c r="F71" s="60"/>
       <c r="G71" s="46"/>
       <c r="H71" s="30">
         <v>43283</v>
@@ -4486,16 +4496,16 @@
       </c>
     </row>
     <row r="72" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="87"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="59"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="25" t="s">
         <v>116</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F72" s="55"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="46"/>
       <c r="H72" s="30">
         <v>43283</v>
@@ -4511,10 +4521,10 @@
       <c r="A73" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="66" t="s">
         <v>292</v>
       </c>
       <c r="D73" s="25" t="s">
@@ -4523,8 +4533,8 @@
       <c r="E73" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F73" s="55">
-        <v>1</v>
+      <c r="F73" s="60">
+        <v>0.6</v>
       </c>
       <c r="G73" s="46"/>
       <c r="H73" s="30">
@@ -4539,15 +4549,15 @@
     </row>
     <row r="74" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="98"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="25" t="s">
         <v>118</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F74" s="55"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="46"/>
       <c r="H74" s="30">
         <v>43283</v>
@@ -4561,15 +4571,15 @@
     </row>
     <row r="75" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="98"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="61"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="25" t="s">
         <v>119</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F75" s="55"/>
+      <c r="F75" s="60"/>
       <c r="G75" s="46"/>
       <c r="H75" s="30">
         <v>43283</v>
@@ -4582,16 +4592,16 @@
       </c>
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="102"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="73"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
       <c r="D76" s="25" t="s">
         <v>120</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F76" s="55"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="9"/>
       <c r="H76" s="30">
         <v>43283</v>
@@ -4604,13 +4614,13 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="75" t="s">
+      <c r="B77" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="66" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -4619,7 +4629,7 @@
       <c r="E77" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F77" s="55">
+      <c r="F77" s="60">
         <v>0.35</v>
       </c>
       <c r="G77" s="46"/>
@@ -4634,16 +4644,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="101"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="93"/>
       <c r="D78" s="25" t="s">
         <v>124</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F78" s="55"/>
+      <c r="F78" s="60"/>
       <c r="G78" s="46"/>
       <c r="H78" s="30">
         <v>43283</v>
@@ -4656,16 +4666,16 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="101"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="93"/>
       <c r="D79" s="25" t="s">
         <v>125</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F79" s="55"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="46"/>
       <c r="H79" s="30">
         <v>43283</v>
@@ -4678,16 +4688,16 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="101"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="73"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="93"/>
       <c r="D80" s="25" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F80" s="55"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="8"/>
       <c r="H80" s="30">
         <v>43283</v>
@@ -4700,9 +4710,9 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="101"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="56" t="s">
+      <c r="A81" s="91"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="78" t="s">
         <v>294</v>
       </c>
       <c r="D81" s="25" t="s">
@@ -4711,7 +4721,7 @@
       <c r="E81" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F81" s="55">
+      <c r="F81" s="60">
         <v>0.4</v>
       </c>
       <c r="G81" s="46"/>
@@ -4726,16 +4736,16 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="101"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="57"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="25" t="s">
         <v>128</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F82" s="55"/>
+      <c r="F82" s="60"/>
       <c r="G82" s="46"/>
       <c r="H82" s="30">
         <v>43283</v>
@@ -4748,16 +4758,16 @@
       </c>
     </row>
     <row r="83" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="101"/>
-      <c r="B83" s="76"/>
-      <c r="C83" s="57"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="25" t="s">
         <v>129</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F83" s="55"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="46"/>
       <c r="H83" s="30">
         <v>43283</v>
@@ -4770,16 +4780,16 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="101"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="57"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="25" t="s">
         <v>130</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F84" s="55"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="46"/>
       <c r="H84" s="30">
         <v>43283</v>
@@ -4792,9 +4802,9 @@
       </c>
     </row>
     <row r="85" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="101"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="69" t="s">
+      <c r="A85" s="91"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="63" t="s">
         <v>295</v>
       </c>
       <c r="D85" s="25" t="s">
@@ -4803,7 +4813,7 @@
       <c r="E85" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F85" s="55">
+      <c r="F85" s="60">
         <v>0.2</v>
       </c>
       <c r="G85" s="46"/>
@@ -4818,16 +4828,16 @@
       </c>
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="101"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="69"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E86" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F86" s="55"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="46"/>
       <c r="H86" s="30">
         <v>43283</v>
@@ -4840,16 +4850,16 @@
       </c>
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="101"/>
-      <c r="B87" s="76"/>
-      <c r="C87" s="74"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="92"/>
       <c r="D87" s="25" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F87" s="55"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="46"/>
       <c r="H87" s="30">
         <v>43283</v>
@@ -4862,16 +4872,16 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="101"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="74"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="25" t="s">
         <v>134</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F88" s="55"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="46"/>
       <c r="H88" s="30">
         <v>43283</v>
@@ -4884,13 +4894,13 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="75" t="s">
+      <c r="B89" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="66" t="s">
         <v>296</v>
       </c>
       <c r="D89" s="25" t="s">
@@ -4899,7 +4909,7 @@
       <c r="E89" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F89" s="60">
         <v>0.2</v>
       </c>
       <c r="G89" s="46"/>
@@ -4914,16 +4924,16 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="101"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="73"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="93"/>
       <c r="D90" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E90" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F90" s="55"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="46"/>
       <c r="H90" s="30">
         <v>43283</v>
@@ -4936,16 +4946,16 @@
       </c>
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="101"/>
-      <c r="B91" s="76"/>
-      <c r="C91" s="73"/>
+      <c r="A91" s="91"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="93"/>
       <c r="D91" s="25" t="s">
         <v>137</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F91" s="55"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="46"/>
       <c r="H91" s="30">
         <v>43283</v>
@@ -4958,16 +4968,16 @@
       </c>
     </row>
     <row r="92" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="101"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="73"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="93"/>
       <c r="D92" s="25" t="s">
         <v>138</v>
       </c>
       <c r="E92" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F92" s="55"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="9"/>
       <c r="H92" s="30">
         <v>43283</v>
@@ -4980,9 +4990,9 @@
       </c>
     </row>
     <row r="93" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="101"/>
-      <c r="B93" s="76"/>
-      <c r="C93" s="60" t="s">
+      <c r="A93" s="91"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="66" t="s">
         <v>297</v>
       </c>
       <c r="D93" s="25" t="s">
@@ -4991,7 +5001,7 @@
       <c r="E93" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F93" s="55">
+      <c r="F93" s="60">
         <v>0.3</v>
       </c>
       <c r="G93" s="46"/>
@@ -5006,16 +5016,16 @@
       </c>
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="101"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="73"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="93"/>
       <c r="D94" s="25" t="s">
         <v>140</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F94" s="55"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="46"/>
       <c r="H94" s="30">
         <v>43283</v>
@@ -5028,16 +5038,16 @@
       </c>
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="101"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="73"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="93"/>
       <c r="D95" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F95" s="55"/>
+      <c r="F95" s="60"/>
       <c r="G95" s="46"/>
       <c r="H95" s="30">
         <v>43283</v>
@@ -5050,16 +5060,16 @@
       </c>
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="101"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="73"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="93"/>
       <c r="D96" s="25" t="s">
         <v>142</v>
       </c>
       <c r="E96" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F96" s="55"/>
+      <c r="F96" s="60"/>
       <c r="G96" s="46"/>
       <c r="H96" s="30">
         <v>43283</v>
@@ -5072,9 +5082,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="101"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="56" t="s">
+      <c r="A97" s="91"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="78" t="s">
         <v>298</v>
       </c>
       <c r="D97" s="25" t="s">
@@ -5083,7 +5093,7 @@
       <c r="E97" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F97" s="60">
         <v>0.3</v>
       </c>
       <c r="G97" s="46"/>
@@ -5098,16 +5108,16 @@
       </c>
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="101"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="57"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="79"/>
       <c r="D98" s="25" t="s">
         <v>144</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F98" s="55"/>
+      <c r="F98" s="60"/>
       <c r="G98" s="46"/>
       <c r="H98" s="30">
         <v>43283</v>
@@ -5120,16 +5130,16 @@
       </c>
     </row>
     <row r="99" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="101"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="57"/>
+      <c r="A99" s="91"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="79"/>
       <c r="D99" s="25" t="s">
         <v>145</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F99" s="55"/>
+      <c r="F99" s="60"/>
       <c r="G99" s="46"/>
       <c r="H99" s="30">
         <v>43283</v>
@@ -5142,16 +5152,16 @@
       </c>
     </row>
     <row r="100" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="101"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="57"/>
+      <c r="A100" s="91"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="79"/>
       <c r="D100" s="25" t="s">
         <v>149</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F100" s="55"/>
+      <c r="F100" s="60"/>
       <c r="G100" s="46"/>
       <c r="H100" s="30">
         <v>43283</v>
@@ -5164,9 +5174,9 @@
       </c>
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="101"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="69" t="s">
+      <c r="A101" s="91"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="63" t="s">
         <v>299</v>
       </c>
       <c r="D101" s="25" t="s">
@@ -5175,7 +5185,7 @@
       <c r="E101" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F101" s="55">
+      <c r="F101" s="60">
         <v>0.1</v>
       </c>
       <c r="G101" s="46"/>
@@ -5190,16 +5200,16 @@
       </c>
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="101"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="69"/>
+      <c r="A102" s="91"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F102" s="55"/>
+      <c r="F102" s="60"/>
       <c r="G102" s="46"/>
       <c r="H102" s="30">
         <v>43283</v>
@@ -5212,16 +5222,16 @@
       </c>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="101"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="74"/>
+      <c r="A103" s="91"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="92"/>
       <c r="D103" s="25" t="s">
         <v>152</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F103" s="55"/>
+      <c r="F103" s="60"/>
       <c r="G103" s="46"/>
       <c r="H103" s="30">
         <v>43283</v>
@@ -5234,16 +5244,16 @@
       </c>
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="101"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="74"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="25" t="s">
         <v>153</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F104" s="55"/>
+      <c r="F104" s="60"/>
       <c r="G104" s="46"/>
       <c r="H104" s="30">
         <v>43283</v>
@@ -5256,13 +5266,13 @@
       </c>
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="87" t="s">
+      <c r="A105" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="75" t="s">
+      <c r="B105" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="66" t="s">
         <v>300</v>
       </c>
       <c r="D105" s="25" t="s">
@@ -5271,7 +5281,7 @@
       <c r="E105" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F105" s="55">
+      <c r="F105" s="60">
         <v>0.3</v>
       </c>
       <c r="G105" s="46"/>
@@ -5286,16 +5296,16 @@
       </c>
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="101"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="73"/>
+      <c r="A106" s="91"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="93"/>
       <c r="D106" s="25" t="s">
         <v>155</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F106" s="55"/>
+      <c r="F106" s="60"/>
       <c r="G106" s="46"/>
       <c r="H106" s="30">
         <v>43283</v>
@@ -5308,16 +5318,16 @@
       </c>
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="101"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="73"/>
+      <c r="A107" s="91"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="93"/>
       <c r="D107" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F107" s="55"/>
+      <c r="F107" s="60"/>
       <c r="G107" s="46"/>
       <c r="H107" s="30">
         <v>43283</v>
@@ -5330,16 +5340,16 @@
       </c>
     </row>
     <row r="108" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="101"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="73"/>
+      <c r="A108" s="91"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="93"/>
       <c r="D108" s="25" t="s">
         <v>157</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F108" s="55"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="46"/>
       <c r="H108" s="30">
         <v>43283</v>
@@ -5352,9 +5362,9 @@
       </c>
     </row>
     <row r="109" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="101"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="69" t="s">
+      <c r="A109" s="91"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="63" t="s">
         <v>301</v>
       </c>
       <c r="D109" s="25" t="s">
@@ -5363,7 +5373,7 @@
       <c r="E109" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F109" s="55">
+      <c r="F109" s="60">
         <v>0.3</v>
       </c>
       <c r="G109" s="46"/>
@@ -5378,16 +5388,16 @@
       </c>
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="101"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="74"/>
+      <c r="A110" s="91"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="25" t="s">
         <v>279</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F110" s="55"/>
+      <c r="F110" s="60"/>
       <c r="G110" s="46"/>
       <c r="H110" s="30">
         <v>43283</v>
@@ -5400,16 +5410,16 @@
       </c>
     </row>
     <row r="111" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="101"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="74"/>
+      <c r="A111" s="91"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="92"/>
       <c r="D111" s="25" t="s">
         <v>161</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F111" s="55"/>
+      <c r="F111" s="60"/>
       <c r="G111" s="46"/>
       <c r="H111" s="30">
         <v>43283</v>
@@ -5422,16 +5432,16 @@
       </c>
     </row>
     <row r="112" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="101"/>
-      <c r="B112" s="76"/>
-      <c r="C112" s="74"/>
+      <c r="A112" s="91"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="92"/>
       <c r="D112" s="25" t="s">
         <v>162</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F112" s="55"/>
+      <c r="F112" s="60"/>
       <c r="G112" s="46"/>
       <c r="H112" s="30">
         <v>43283</v>
@@ -5444,9 +5454,9 @@
       </c>
     </row>
     <row r="113" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="101"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="69" t="s">
+      <c r="A113" s="91"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="63" t="s">
         <v>302</v>
       </c>
       <c r="D113" s="25" t="s">
@@ -5455,7 +5465,7 @@
       <c r="E113" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F113" s="55">
+      <c r="F113" s="60">
         <v>0.25</v>
       </c>
       <c r="G113" s="46"/>
@@ -5470,16 +5480,16 @@
       </c>
     </row>
     <row r="114" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="101"/>
-      <c r="B114" s="76"/>
-      <c r="C114" s="69"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="63"/>
       <c r="D114" s="25" t="s">
         <v>164</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F114" s="55"/>
+      <c r="F114" s="60"/>
       <c r="G114" s="46"/>
       <c r="H114" s="30">
         <v>43283</v>
@@ -5492,16 +5502,16 @@
       </c>
     </row>
     <row r="115" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="101"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="69"/>
+      <c r="A115" s="91"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="63"/>
       <c r="D115" s="25" t="s">
         <v>165</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F115" s="55"/>
+      <c r="F115" s="60"/>
       <c r="G115" s="46"/>
       <c r="H115" s="30">
         <v>43283</v>
@@ -5514,16 +5524,16 @@
       </c>
     </row>
     <row r="116" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="101"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="69"/>
+      <c r="A116" s="91"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="25" t="s">
         <v>166</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F116" s="55"/>
+      <c r="F116" s="60"/>
       <c r="G116" s="9"/>
       <c r="H116" s="30">
         <v>43283</v>
@@ -5536,9 +5546,9 @@
       </c>
     </row>
     <row r="117" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="101"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="69" t="s">
+      <c r="A117" s="91"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="63" t="s">
         <v>303</v>
       </c>
       <c r="D117" s="25" t="s">
@@ -5547,7 +5557,7 @@
       <c r="E117" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F117" s="55">
+      <c r="F117" s="60">
         <v>0.12</v>
       </c>
       <c r="G117" s="46"/>
@@ -5562,16 +5572,16 @@
       </c>
     </row>
     <row r="118" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="101"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="69"/>
+      <c r="A118" s="91"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F118" s="55"/>
+      <c r="F118" s="60"/>
       <c r="G118" s="46"/>
       <c r="H118" s="30">
         <v>43283</v>
@@ -5584,16 +5594,16 @@
       </c>
     </row>
     <row r="119" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="101"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="69"/>
+      <c r="A119" s="91"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="25" t="s">
         <v>169</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F119" s="55"/>
+      <c r="F119" s="60"/>
       <c r="G119" s="46"/>
       <c r="H119" s="30">
         <v>43283</v>
@@ -5606,16 +5616,16 @@
       </c>
     </row>
     <row r="120" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="101"/>
-      <c r="B120" s="78"/>
-      <c r="C120" s="69"/>
+      <c r="A120" s="91"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="25" t="s">
         <v>170</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F120" s="55"/>
+      <c r="F120" s="60"/>
       <c r="G120" s="46"/>
       <c r="H120" s="30">
         <v>43283</v>
@@ -5628,13 +5638,13 @@
       </c>
     </row>
     <row r="121" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="87" t="s">
+      <c r="A121" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="75" t="s">
+      <c r="B121" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="69" t="s">
+      <c r="C121" s="63" t="s">
         <v>304</v>
       </c>
       <c r="D121" s="25" t="s">
@@ -5643,7 +5653,7 @@
       <c r="E121" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F121" s="70">
+      <c r="F121" s="82">
         <v>0.4</v>
       </c>
       <c r="G121" s="46"/>
@@ -5658,16 +5668,16 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="101"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="74"/>
+      <c r="A122" s="91"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="25" t="s">
         <v>173</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F122" s="71"/>
+      <c r="F122" s="83"/>
       <c r="G122" s="46"/>
       <c r="H122" s="30">
         <v>43283</v>
@@ -5680,16 +5690,16 @@
       </c>
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="101"/>
-      <c r="B123" s="76"/>
-      <c r="C123" s="74"/>
+      <c r="A123" s="91"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="92"/>
       <c r="D123" s="25" t="s">
         <v>174</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F123" s="71"/>
+      <c r="F123" s="83"/>
       <c r="G123" s="46"/>
       <c r="H123" s="30">
         <v>43283</v>
@@ -5702,16 +5712,16 @@
       </c>
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="101"/>
-      <c r="B124" s="76"/>
-      <c r="C124" s="74"/>
+      <c r="A124" s="91"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="25" t="s">
         <v>175</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F124" s="72"/>
+      <c r="F124" s="84"/>
       <c r="G124" s="9"/>
       <c r="H124" s="30">
         <v>43283</v>
@@ -5724,9 +5734,9 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="101"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="69" t="s">
+      <c r="A125" s="91"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="63" t="s">
         <v>305</v>
       </c>
       <c r="D125" s="25" t="s">
@@ -5735,7 +5745,7 @@
       <c r="E125" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F125" s="70">
+      <c r="F125" s="82">
         <v>0.3</v>
       </c>
       <c r="G125" s="46"/>
@@ -5750,16 +5760,16 @@
       </c>
     </row>
     <row r="126" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="101"/>
-      <c r="B126" s="76"/>
-      <c r="C126" s="74"/>
+      <c r="A126" s="91"/>
+      <c r="B126" s="69"/>
+      <c r="C126" s="92"/>
       <c r="D126" s="25" t="s">
         <v>177</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F126" s="71"/>
+      <c r="F126" s="83"/>
       <c r="G126" s="46"/>
       <c r="H126" s="30">
         <v>43283</v>
@@ -5772,16 +5782,16 @@
       </c>
     </row>
     <row r="127" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="101"/>
-      <c r="B127" s="76"/>
-      <c r="C127" s="74"/>
+      <c r="A127" s="91"/>
+      <c r="B127" s="69"/>
+      <c r="C127" s="92"/>
       <c r="D127" s="25" t="s">
         <v>178</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F127" s="71"/>
+      <c r="F127" s="83"/>
       <c r="G127" s="46"/>
       <c r="H127" s="30">
         <v>43283</v>
@@ -5794,16 +5804,16 @@
       </c>
     </row>
     <row r="128" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="101"/>
-      <c r="B128" s="76"/>
-      <c r="C128" s="74"/>
+      <c r="A128" s="91"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="25" t="s">
         <v>179</v>
       </c>
       <c r="E128" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F128" s="72"/>
+      <c r="F128" s="84"/>
       <c r="G128" s="46"/>
       <c r="H128" s="30">
         <v>43283</v>
@@ -5816,9 +5826,9 @@
       </c>
     </row>
     <row r="129" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="101"/>
-      <c r="B129" s="76"/>
-      <c r="C129" s="69" t="s">
+      <c r="A129" s="91"/>
+      <c r="B129" s="69"/>
+      <c r="C129" s="63" t="s">
         <v>306</v>
       </c>
       <c r="D129" s="25" t="s">
@@ -5827,7 +5837,7 @@
       <c r="E129" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F129" s="70">
+      <c r="F129" s="82">
         <v>0.32</v>
       </c>
       <c r="G129" s="9"/>
@@ -5842,16 +5852,16 @@
       </c>
     </row>
     <row r="130" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="101"/>
-      <c r="B130" s="76"/>
-      <c r="C130" s="69"/>
+      <c r="A130" s="91"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="63"/>
       <c r="D130" s="25" t="s">
         <v>181</v>
       </c>
       <c r="E130" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F130" s="71"/>
+      <c r="F130" s="83"/>
       <c r="G130" s="46"/>
       <c r="H130" s="30">
         <v>43283</v>
@@ -5864,16 +5874,16 @@
       </c>
     </row>
     <row r="131" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="101"/>
-      <c r="B131" s="76"/>
-      <c r="C131" s="69"/>
+      <c r="A131" s="91"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="63"/>
       <c r="D131" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E131" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F131" s="71"/>
+      <c r="F131" s="83"/>
       <c r="G131" s="46"/>
       <c r="H131" s="30">
         <v>43283</v>
@@ -5886,16 +5896,16 @@
       </c>
     </row>
     <row r="132" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="101"/>
-      <c r="B132" s="76"/>
-      <c r="C132" s="69"/>
+      <c r="A132" s="91"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="63"/>
       <c r="D132" s="25" t="s">
         <v>183</v>
       </c>
       <c r="E132" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F132" s="72"/>
+      <c r="F132" s="84"/>
       <c r="G132" s="8"/>
       <c r="H132" s="30">
         <v>43283</v>
@@ -5908,9 +5918,9 @@
       </c>
     </row>
     <row r="133" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="101"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="69" t="s">
+      <c r="A133" s="91"/>
+      <c r="B133" s="69"/>
+      <c r="C133" s="63" t="s">
         <v>307</v>
       </c>
       <c r="D133" s="25" t="s">
@@ -5919,7 +5929,7 @@
       <c r="E133" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F133" s="55">
+      <c r="F133" s="60">
         <v>0.2</v>
       </c>
       <c r="G133" s="46"/>
@@ -5934,16 +5944,16 @@
       </c>
     </row>
     <row r="134" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="101"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="69"/>
+      <c r="A134" s="91"/>
+      <c r="B134" s="69"/>
+      <c r="C134" s="63"/>
       <c r="D134" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E134" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F134" s="55"/>
+      <c r="F134" s="60"/>
       <c r="G134" s="46"/>
       <c r="H134" s="30">
         <v>43283</v>
@@ -5956,16 +5966,16 @@
       </c>
     </row>
     <row r="135" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="101"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="74"/>
+      <c r="A135" s="91"/>
+      <c r="B135" s="69"/>
+      <c r="C135" s="92"/>
       <c r="D135" s="25" t="s">
         <v>187</v>
       </c>
       <c r="E135" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F135" s="55"/>
+      <c r="F135" s="60"/>
       <c r="G135" s="46"/>
       <c r="H135" s="30">
         <v>43283</v>
@@ -5978,16 +5988,16 @@
       </c>
     </row>
     <row r="136" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="101"/>
-      <c r="B136" s="77"/>
-      <c r="C136" s="74"/>
+      <c r="A136" s="91"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="92"/>
       <c r="D136" s="25" t="s">
         <v>188</v>
       </c>
       <c r="E136" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F136" s="55"/>
+      <c r="F136" s="60"/>
       <c r="G136" s="46"/>
       <c r="H136" s="30">
         <v>43283</v>
@@ -6001,14 +6011,14 @@
     </row>
     <row r="137" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
-      <c r="B137" s="86" t="s">
+      <c r="B137" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="86"/>
-      <c r="D137" s="86"/>
-      <c r="E137" s="86"/>
-      <c r="F137" s="86"/>
-      <c r="G137" s="86"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
       <c r="H137" s="32" t="s">
         <v>1</v>
       </c>
@@ -6031,23 +6041,25 @@
     </row>
     <row r="138" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
-      <c r="B138" s="86"/>
-      <c r="C138" s="86"/>
-      <c r="D138" s="86"/>
-      <c r="E138" s="86"/>
-      <c r="F138" s="86"/>
-      <c r="G138" s="86"/>
-      <c r="H138" s="93">
+      <c r="B138" s="71"/>
+      <c r="C138" s="71"/>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="54">
         <v>43320</v>
       </c>
-      <c r="I138" s="93"/>
-      <c r="J138" s="91">
+      <c r="I138" s="54">
+        <v>43322</v>
+      </c>
+      <c r="J138" s="56">
         <f>AVERAGE(J141:J236)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K138" s="54">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K138" s="112">
         <f>SUM(F141:F236)</f>
-        <v>1.24</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="12"/>
@@ -6055,16 +6067,16 @@
     </row>
     <row r="139" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
-      <c r="B139" s="86"/>
-      <c r="C139" s="86"/>
-      <c r="D139" s="86"/>
-      <c r="E139" s="86"/>
-      <c r="F139" s="86"/>
-      <c r="G139" s="86"/>
-      <c r="H139" s="94"/>
-      <c r="I139" s="94"/>
-      <c r="J139" s="92"/>
-      <c r="K139" s="54"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="57"/>
+      <c r="K139" s="112"/>
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
       <c r="N139" s="14"/>
@@ -6106,13 +6118,13 @@
       <c r="N140" s="13"/>
     </row>
     <row r="141" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="87" t="s">
+      <c r="A141" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B141" s="75" t="s">
+      <c r="B141" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C141" s="60" t="s">
+      <c r="C141" s="66" t="s">
         <v>308</v>
       </c>
       <c r="D141" s="10" t="s">
@@ -6121,7 +6133,7 @@
       <c r="E141" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F141" s="55">
+      <c r="F141" s="60">
         <v>0.28000000000000003</v>
       </c>
       <c r="G141" s="8"/>
@@ -6137,16 +6149,16 @@
       <c r="M141" s="13"/>
     </row>
     <row r="142" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="89"/>
-      <c r="B142" s="76"/>
-      <c r="C142" s="100"/>
+      <c r="A142" s="65"/>
+      <c r="B142" s="69"/>
+      <c r="C142" s="67"/>
       <c r="D142" s="10" t="s">
         <v>468</v>
       </c>
       <c r="E142" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F142" s="55"/>
+      <c r="F142" s="60"/>
       <c r="G142" s="46"/>
       <c r="H142" s="30">
         <v>43320</v>
@@ -6160,16 +6172,16 @@
       <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="89"/>
-      <c r="B143" s="76"/>
-      <c r="C143" s="100"/>
+      <c r="A143" s="65"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="67"/>
       <c r="D143" s="10" t="s">
         <v>469</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F143" s="55"/>
+      <c r="F143" s="60"/>
       <c r="G143" s="46"/>
       <c r="H143" s="30">
         <v>43320</v>
@@ -6183,16 +6195,16 @@
       <c r="M143" s="13"/>
     </row>
     <row r="144" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="89"/>
-      <c r="B144" s="76"/>
-      <c r="C144" s="100"/>
+      <c r="A144" s="65"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="67"/>
       <c r="D144" s="10" t="s">
         <v>470</v>
       </c>
       <c r="E144" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F144" s="55"/>
+      <c r="F144" s="60"/>
       <c r="G144" s="8"/>
       <c r="H144" s="30">
         <v>43320</v>
@@ -6206,9 +6218,9 @@
       <c r="M144" s="13"/>
     </row>
     <row r="145" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="89"/>
-      <c r="B145" s="76"/>
-      <c r="C145" s="60" t="s">
+      <c r="A145" s="65"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="66" t="s">
         <v>309</v>
       </c>
       <c r="D145" s="10" t="s">
@@ -6217,7 +6229,7 @@
       <c r="E145" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F145" s="55">
+      <c r="F145" s="60">
         <v>0.42</v>
       </c>
       <c r="G145" s="46"/>
@@ -6233,16 +6245,16 @@
       <c r="M145" s="13"/>
     </row>
     <row r="146" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="89"/>
-      <c r="B146" s="76"/>
-      <c r="C146" s="100"/>
+      <c r="A146" s="65"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="67"/>
       <c r="D146" s="10" t="s">
         <v>190</v>
       </c>
       <c r="E146" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F146" s="55"/>
+      <c r="F146" s="60"/>
       <c r="G146" s="46"/>
       <c r="H146" s="30">
         <v>43320</v>
@@ -6256,16 +6268,16 @@
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="89"/>
-      <c r="B147" s="76"/>
-      <c r="C147" s="100"/>
+      <c r="A147" s="65"/>
+      <c r="B147" s="69"/>
+      <c r="C147" s="67"/>
       <c r="D147" s="10" t="s">
         <v>192</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F147" s="55"/>
+      <c r="F147" s="60"/>
       <c r="G147" s="46"/>
       <c r="H147" s="30">
         <v>43320</v>
@@ -6279,16 +6291,16 @@
       <c r="M147" s="13"/>
     </row>
     <row r="148" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="89"/>
-      <c r="B148" s="76"/>
-      <c r="C148" s="100"/>
+      <c r="A148" s="65"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="67"/>
       <c r="D148" s="10" t="s">
         <v>193</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F148" s="55"/>
+      <c r="F148" s="60"/>
       <c r="G148" s="9"/>
       <c r="H148" s="30">
         <v>43320</v>
@@ -6302,9 +6314,9 @@
       <c r="M148" s="13"/>
     </row>
     <row r="149" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="89"/>
-      <c r="B149" s="76"/>
-      <c r="C149" s="69" t="s">
+      <c r="A149" s="65"/>
+      <c r="B149" s="69"/>
+      <c r="C149" s="63" t="s">
         <v>310</v>
       </c>
       <c r="D149" s="10" t="s">
@@ -6313,7 +6325,7 @@
       <c r="E149" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F149" s="55">
+      <c r="F149" s="60">
         <v>0.34</v>
       </c>
       <c r="G149" s="46"/>
@@ -6329,16 +6341,16 @@
       <c r="M149" s="13"/>
     </row>
     <row r="150" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="89"/>
-      <c r="B150" s="76"/>
-      <c r="C150" s="69"/>
+      <c r="A150" s="65"/>
+      <c r="B150" s="69"/>
+      <c r="C150" s="63"/>
       <c r="D150" s="10" t="s">
         <v>195</v>
       </c>
       <c r="E150" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F150" s="55"/>
+      <c r="F150" s="60"/>
       <c r="G150" s="46"/>
       <c r="H150" s="30">
         <v>43320</v>
@@ -6349,16 +6361,16 @@
       </c>
     </row>
     <row r="151" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="89"/>
-      <c r="B151" s="76"/>
-      <c r="C151" s="69"/>
+      <c r="A151" s="65"/>
+      <c r="B151" s="69"/>
+      <c r="C151" s="63"/>
       <c r="D151" s="10" t="s">
         <v>196</v>
       </c>
       <c r="E151" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F151" s="55"/>
+      <c r="F151" s="60"/>
       <c r="G151" s="46"/>
       <c r="H151" s="30">
         <v>43320</v>
@@ -6369,16 +6381,16 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="89"/>
-      <c r="B152" s="76"/>
-      <c r="C152" s="69"/>
+      <c r="A152" s="65"/>
+      <c r="B152" s="69"/>
+      <c r="C152" s="63"/>
       <c r="D152" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E152" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F152" s="55"/>
+      <c r="F152" s="60"/>
       <c r="G152" s="9"/>
       <c r="H152" s="30">
         <v>43320</v>
@@ -6392,9 +6404,9 @@
       <c r="M152" s="13"/>
     </row>
     <row r="153" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="89"/>
-      <c r="B153" s="76"/>
-      <c r="C153" s="56" t="s">
+      <c r="A153" s="65"/>
+      <c r="B153" s="69"/>
+      <c r="C153" s="78" t="s">
         <v>311</v>
       </c>
       <c r="D153" s="10" t="s">
@@ -6403,7 +6415,7 @@
       <c r="E153" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F153" s="55">
+      <c r="F153" s="60">
         <v>0.2</v>
       </c>
       <c r="G153" s="46"/>
@@ -6416,16 +6428,16 @@
       </c>
     </row>
     <row r="154" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="89"/>
-      <c r="B154" s="76"/>
-      <c r="C154" s="57"/>
+      <c r="A154" s="65"/>
+      <c r="B154" s="69"/>
+      <c r="C154" s="79"/>
       <c r="D154" s="10" t="s">
         <v>312</v>
       </c>
       <c r="E154" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F154" s="55"/>
+      <c r="F154" s="60"/>
       <c r="G154" s="46"/>
       <c r="H154" s="30">
         <v>43320</v>
@@ -6436,16 +6448,16 @@
       </c>
     </row>
     <row r="155" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="89"/>
-      <c r="B155" s="76"/>
-      <c r="C155" s="57"/>
+      <c r="A155" s="65"/>
+      <c r="B155" s="69"/>
+      <c r="C155" s="79"/>
       <c r="D155" s="10" t="s">
         <v>313</v>
       </c>
       <c r="E155" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F155" s="55"/>
+      <c r="F155" s="60"/>
       <c r="G155" s="46"/>
       <c r="H155" s="30">
         <v>43320</v>
@@ -6456,16 +6468,16 @@
       </c>
     </row>
     <row r="156" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="89"/>
-      <c r="B156" s="78"/>
-      <c r="C156" s="59"/>
+      <c r="A156" s="65"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="81"/>
       <c r="D156" s="10" t="s">
         <v>314</v>
       </c>
       <c r="E156" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F156" s="55"/>
+      <c r="F156" s="60"/>
       <c r="G156" s="46"/>
       <c r="H156" s="30">
         <v>43320</v>
@@ -6479,13 +6491,13 @@
       <c r="M156" s="13"/>
     </row>
     <row r="157" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="87" t="s">
+      <c r="A157" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B157" s="75" t="s">
+      <c r="B157" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="60" t="s">
+      <c r="C157" s="66" t="s">
         <v>316</v>
       </c>
       <c r="D157" s="10" t="s">
@@ -6494,72 +6506,82 @@
       <c r="E157" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F157" s="55"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="33"/>
-      <c r="J157" s="34">
-        <v>0</v>
+      <c r="F157" s="60">
+        <v>0.38</v>
+      </c>
+      <c r="G157" s="46"/>
+      <c r="H157" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I157" s="30"/>
+      <c r="J157" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="89"/>
-      <c r="B158" s="76"/>
-      <c r="C158" s="100"/>
+      <c r="A158" s="65"/>
+      <c r="B158" s="69"/>
+      <c r="C158" s="67"/>
       <c r="D158" s="10" t="s">
         <v>199</v>
       </c>
       <c r="E158" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F158" s="55"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="34">
-        <v>0</v>
+      <c r="F158" s="60"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I158" s="30"/>
+      <c r="J158" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="89"/>
-      <c r="B159" s="76"/>
-      <c r="C159" s="100"/>
+      <c r="A159" s="65"/>
+      <c r="B159" s="69"/>
+      <c r="C159" s="67"/>
       <c r="D159" s="10" t="s">
         <v>200</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F159" s="55"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="34">
-        <v>0</v>
+      <c r="F159" s="60"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I159" s="30"/>
+      <c r="J159" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="89"/>
-      <c r="B160" s="76"/>
-      <c r="C160" s="100"/>
+      <c r="A160" s="65"/>
+      <c r="B160" s="69"/>
+      <c r="C160" s="67"/>
       <c r="D160" s="10" t="s">
         <v>201</v>
       </c>
       <c r="E160" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F160" s="55"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="34">
-        <v>0</v>
+      <c r="F160" s="60"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I160" s="30"/>
+      <c r="J160" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="89"/>
-      <c r="B161" s="76"/>
-      <c r="C161" s="60" t="s">
+      <c r="A161" s="65"/>
+      <c r="B161" s="69"/>
+      <c r="C161" s="66" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="10" t="s">
@@ -6568,72 +6590,82 @@
       <c r="E161" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F161" s="55"/>
-      <c r="G161" s="38"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="33"/>
-      <c r="J161" s="34">
-        <v>0</v>
+      <c r="F161" s="60">
+        <v>0.22</v>
+      </c>
+      <c r="G161" s="46"/>
+      <c r="H161" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I161" s="30"/>
+      <c r="J161" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="89"/>
-      <c r="B162" s="76"/>
-      <c r="C162" s="100"/>
+      <c r="A162" s="65"/>
+      <c r="B162" s="69"/>
+      <c r="C162" s="67"/>
       <c r="D162" s="10" t="s">
         <v>202</v>
       </c>
       <c r="E162" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F162" s="55"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="34">
-        <v>0</v>
+      <c r="F162" s="60"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I162" s="30"/>
+      <c r="J162" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="89"/>
-      <c r="B163" s="76"/>
-      <c r="C163" s="100"/>
+      <c r="A163" s="65"/>
+      <c r="B163" s="69"/>
+      <c r="C163" s="67"/>
       <c r="D163" s="10" t="s">
         <v>203</v>
       </c>
       <c r="E163" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F163" s="55"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
-      <c r="J163" s="34">
-        <v>0</v>
+      <c r="F163" s="60"/>
+      <c r="G163" s="46"/>
+      <c r="H163" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I163" s="30"/>
+      <c r="J163" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="89"/>
-      <c r="B164" s="76"/>
-      <c r="C164" s="100"/>
+      <c r="A164" s="65"/>
+      <c r="B164" s="69"/>
+      <c r="C164" s="67"/>
       <c r="D164" s="10" t="s">
         <v>204</v>
       </c>
       <c r="E164" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F164" s="55"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="33"/>
-      <c r="J164" s="34">
-        <v>0</v>
+      <c r="F164" s="60"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I164" s="30"/>
+      <c r="J164" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="89"/>
-      <c r="B165" s="76"/>
-      <c r="C165" s="69" t="s">
+      <c r="A165" s="65"/>
+      <c r="B165" s="69"/>
+      <c r="C165" s="63" t="s">
         <v>318</v>
       </c>
       <c r="D165" s="10" t="s">
@@ -6642,72 +6674,82 @@
       <c r="E165" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F165" s="55"/>
-      <c r="G165" s="35"/>
-      <c r="H165" s="33"/>
-      <c r="I165" s="33"/>
-      <c r="J165" s="34">
-        <v>0</v>
+      <c r="F165" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="G165" s="46"/>
+      <c r="H165" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I165" s="30"/>
+      <c r="J165" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="89"/>
-      <c r="B166" s="76"/>
-      <c r="C166" s="69"/>
+      <c r="A166" s="65"/>
+      <c r="B166" s="69"/>
+      <c r="C166" s="63"/>
       <c r="D166" s="10" t="s">
         <v>206</v>
       </c>
       <c r="E166" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F166" s="55"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="33"/>
-      <c r="J166" s="34">
-        <v>0</v>
+      <c r="F166" s="60"/>
+      <c r="G166" s="46"/>
+      <c r="H166" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I166" s="30"/>
+      <c r="J166" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="89"/>
-      <c r="B167" s="76"/>
-      <c r="C167" s="69"/>
+      <c r="A167" s="65"/>
+      <c r="B167" s="69"/>
+      <c r="C167" s="63"/>
       <c r="D167" s="10" t="s">
         <v>207</v>
       </c>
       <c r="E167" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F167" s="55"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="33"/>
-      <c r="I167" s="33"/>
-      <c r="J167" s="34">
-        <v>0</v>
+      <c r="F167" s="60"/>
+      <c r="G167" s="46"/>
+      <c r="H167" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I167" s="30"/>
+      <c r="J167" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="89"/>
-      <c r="B168" s="76"/>
-      <c r="C168" s="69"/>
+      <c r="A168" s="65"/>
+      <c r="B168" s="69"/>
+      <c r="C168" s="63"/>
       <c r="D168" s="10" t="s">
         <v>208</v>
       </c>
       <c r="E168" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F168" s="55"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="33"/>
-      <c r="I168" s="33"/>
-      <c r="J168" s="34">
-        <v>0</v>
+      <c r="F168" s="60"/>
+      <c r="G168" s="46"/>
+      <c r="H168" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I168" s="30"/>
+      <c r="J168" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="89"/>
-      <c r="B169" s="76"/>
-      <c r="C169" s="56" t="s">
+      <c r="A169" s="65"/>
+      <c r="B169" s="69"/>
+      <c r="C169" s="78" t="s">
         <v>319</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -6716,76 +6758,86 @@
       <c r="E169" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F169" s="55"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="33"/>
-      <c r="I169" s="33"/>
-      <c r="J169" s="34">
-        <v>0</v>
+      <c r="F169" s="60">
+        <v>0.22</v>
+      </c>
+      <c r="G169" s="46"/>
+      <c r="H169" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I169" s="30"/>
+      <c r="J169" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="89"/>
-      <c r="B170" s="76"/>
-      <c r="C170" s="57"/>
+      <c r="A170" s="65"/>
+      <c r="B170" s="69"/>
+      <c r="C170" s="79"/>
       <c r="D170" s="10" t="s">
         <v>210</v>
       </c>
       <c r="E170" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F170" s="55"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="33"/>
-      <c r="I170" s="33"/>
-      <c r="J170" s="34">
-        <v>0</v>
+      <c r="F170" s="60"/>
+      <c r="G170" s="46"/>
+      <c r="H170" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I170" s="30"/>
+      <c r="J170" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="89"/>
-      <c r="B171" s="76"/>
-      <c r="C171" s="57"/>
+      <c r="A171" s="65"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="79"/>
       <c r="D171" s="10" t="s">
         <v>336</v>
       </c>
       <c r="E171" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F171" s="55"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="34">
-        <v>0</v>
+      <c r="F171" s="60"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I171" s="30"/>
+      <c r="J171" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="89"/>
-      <c r="B172" s="76"/>
-      <c r="C172" s="59"/>
+      <c r="A172" s="65"/>
+      <c r="B172" s="69"/>
+      <c r="C172" s="81"/>
       <c r="D172" s="10" t="s">
         <v>337</v>
       </c>
       <c r="E172" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="55"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="34">
-        <v>0</v>
+      <c r="F172" s="60"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I172" s="30"/>
+      <c r="J172" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="106" t="s">
+      <c r="A173" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B173" s="69" t="s">
+      <c r="B173" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C173" s="108" t="s">
+      <c r="C173" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D173" s="10" t="s">
@@ -6794,72 +6846,82 @@
       <c r="E173" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F173" s="55"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="34">
-        <v>0</v>
+      <c r="F173" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="G173" s="46"/>
+      <c r="H173" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I173" s="30"/>
+      <c r="J173" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="107"/>
-      <c r="B174" s="69"/>
-      <c r="C174" s="109"/>
+      <c r="A174" s="86"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="59"/>
       <c r="D174" s="10" t="s">
         <v>211</v>
       </c>
       <c r="E174" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F174" s="55"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="34">
-        <v>0</v>
+      <c r="F174" s="60"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I174" s="30"/>
+      <c r="J174" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="107"/>
-      <c r="B175" s="69"/>
-      <c r="C175" s="109"/>
+      <c r="A175" s="86"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="59"/>
       <c r="D175" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="55"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="33"/>
-      <c r="J175" s="34">
-        <v>0</v>
+      <c r="F175" s="60"/>
+      <c r="G175" s="46"/>
+      <c r="H175" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I175" s="30"/>
+      <c r="J175" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="107"/>
-      <c r="B176" s="69"/>
-      <c r="C176" s="109"/>
+      <c r="A176" s="86"/>
+      <c r="B176" s="63"/>
+      <c r="C176" s="59"/>
       <c r="D176" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E176" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F176" s="55"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="33"/>
-      <c r="I176" s="33"/>
-      <c r="J176" s="34">
-        <v>0</v>
+      <c r="F176" s="60"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I176" s="30"/>
+      <c r="J176" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="107"/>
-      <c r="B177" s="69"/>
-      <c r="C177" s="108" t="s">
+      <c r="A177" s="86"/>
+      <c r="B177" s="63"/>
+      <c r="C177" s="58" t="s">
         <v>321</v>
       </c>
       <c r="D177" s="10" t="s">
@@ -6868,72 +6930,82 @@
       <c r="E177" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F177" s="55"/>
-      <c r="G177" s="38"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="34">
-        <v>0</v>
+      <c r="F177" s="60">
+        <v>0.35</v>
+      </c>
+      <c r="G177" s="46"/>
+      <c r="H177" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I177" s="30"/>
+      <c r="J177" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="107"/>
-      <c r="B178" s="69"/>
-      <c r="C178" s="109"/>
+      <c r="A178" s="86"/>
+      <c r="B178" s="63"/>
+      <c r="C178" s="59"/>
       <c r="D178" s="10" t="s">
         <v>215</v>
       </c>
       <c r="E178" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F178" s="55"/>
-      <c r="G178" s="37"/>
-      <c r="H178" s="33"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="34">
-        <v>0</v>
+      <c r="F178" s="60"/>
+      <c r="G178" s="46"/>
+      <c r="H178" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I178" s="30"/>
+      <c r="J178" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="107"/>
-      <c r="B179" s="69"/>
-      <c r="C179" s="109"/>
+      <c r="A179" s="86"/>
+      <c r="B179" s="63"/>
+      <c r="C179" s="59"/>
       <c r="D179" s="10" t="s">
         <v>216</v>
       </c>
       <c r="E179" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F179" s="55"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="33"/>
-      <c r="J179" s="34">
-        <v>0</v>
+      <c r="F179" s="60"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I179" s="30"/>
+      <c r="J179" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="107"/>
-      <c r="B180" s="69"/>
-      <c r="C180" s="109"/>
+      <c r="A180" s="86"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="59"/>
       <c r="D180" s="10" t="s">
         <v>217</v>
       </c>
       <c r="E180" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F180" s="55"/>
-      <c r="G180" s="37"/>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="34">
-        <v>0</v>
+      <c r="F180" s="60"/>
+      <c r="G180" s="46"/>
+      <c r="H180" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I180" s="30"/>
+      <c r="J180" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="107"/>
-      <c r="B181" s="69"/>
-      <c r="C181" s="68" t="s">
+      <c r="A181" s="86"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="62" t="s">
         <v>322</v>
       </c>
       <c r="D181" s="10" t="s">
@@ -6942,72 +7014,82 @@
       <c r="E181" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F181" s="55"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="33"/>
-      <c r="J181" s="34">
-        <v>0</v>
+      <c r="F181" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="G181" s="46"/>
+      <c r="H181" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I181" s="30"/>
+      <c r="J181" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="107"/>
-      <c r="B182" s="69"/>
-      <c r="C182" s="68"/>
+      <c r="A182" s="86"/>
+      <c r="B182" s="63"/>
+      <c r="C182" s="62"/>
       <c r="D182" s="10" t="s">
         <v>220</v>
       </c>
       <c r="E182" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F182" s="55"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="34">
-        <v>0</v>
+      <c r="F182" s="60"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I182" s="30"/>
+      <c r="J182" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="107"/>
-      <c r="B183" s="69"/>
-      <c r="C183" s="68"/>
+      <c r="A183" s="86"/>
+      <c r="B183" s="63"/>
+      <c r="C183" s="62"/>
       <c r="D183" s="10" t="s">
         <v>221</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F183" s="55"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="34">
-        <v>0</v>
+      <c r="F183" s="60"/>
+      <c r="G183" s="46"/>
+      <c r="H183" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I183" s="30"/>
+      <c r="J183" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="107"/>
-      <c r="B184" s="69"/>
-      <c r="C184" s="68"/>
+      <c r="A184" s="86"/>
+      <c r="B184" s="63"/>
+      <c r="C184" s="62"/>
       <c r="D184" s="10" t="s">
         <v>222</v>
       </c>
       <c r="E184" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F184" s="55"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="34">
-        <v>0</v>
+      <c r="F184" s="60"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I184" s="30"/>
+      <c r="J184" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="107"/>
-      <c r="B185" s="69"/>
-      <c r="C185" s="65" t="s">
+      <c r="A185" s="86"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="87" t="s">
         <v>323</v>
       </c>
       <c r="D185" s="10" t="s">
@@ -7016,76 +7098,86 @@
       <c r="E185" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F185" s="55"/>
-      <c r="G185" s="35"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33"/>
-      <c r="J185" s="34">
-        <v>0</v>
+      <c r="F185" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G185" s="46"/>
+      <c r="H185" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I185" s="30"/>
+      <c r="J185" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="107"/>
-      <c r="B186" s="69"/>
-      <c r="C186" s="66"/>
+      <c r="A186" s="86"/>
+      <c r="B186" s="63"/>
+      <c r="C186" s="88"/>
       <c r="D186" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E186" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F186" s="55"/>
-      <c r="G186" s="35"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="34">
-        <v>0</v>
+      <c r="F186" s="60"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I186" s="30"/>
+      <c r="J186" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="107"/>
-      <c r="B187" s="69"/>
-      <c r="C187" s="66"/>
+      <c r="A187" s="86"/>
+      <c r="B187" s="63"/>
+      <c r="C187" s="88"/>
       <c r="D187" s="10" t="s">
         <v>225</v>
       </c>
       <c r="E187" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F187" s="55"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="34">
-        <v>0</v>
+      <c r="F187" s="60"/>
+      <c r="G187" s="46"/>
+      <c r="H187" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I187" s="30"/>
+      <c r="J187" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="107"/>
-      <c r="B188" s="69"/>
-      <c r="C188" s="110"/>
+      <c r="A188" s="86"/>
+      <c r="B188" s="63"/>
+      <c r="C188" s="89"/>
       <c r="D188" s="10" t="s">
         <v>226</v>
       </c>
       <c r="E188" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F188" s="55"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="34">
-        <v>0</v>
+      <c r="F188" s="60"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I188" s="30"/>
+      <c r="J188" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="87" t="s">
+      <c r="A189" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B189" s="75" t="s">
+      <c r="B189" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C189" s="60" t="s">
+      <c r="C189" s="117" t="s">
         <v>324</v>
       </c>
       <c r="D189" s="10" t="s">
@@ -7094,72 +7186,82 @@
       <c r="E189" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F189" s="55"/>
-      <c r="G189" s="38"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="34">
-        <v>0</v>
+      <c r="F189" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G189" s="8"/>
+      <c r="H189" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I189" s="30"/>
+      <c r="J189" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="89"/>
-      <c r="B190" s="76"/>
-      <c r="C190" s="100"/>
+      <c r="A190" s="65"/>
+      <c r="B190" s="69"/>
+      <c r="C190" s="118"/>
       <c r="D190" s="10" t="s">
         <v>228</v>
       </c>
       <c r="E190" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F190" s="55"/>
-      <c r="G190" s="37"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="34">
-        <v>0</v>
+      <c r="F190" s="60"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I190" s="30"/>
+      <c r="J190" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="89"/>
-      <c r="B191" s="76"/>
-      <c r="C191" s="100"/>
+      <c r="A191" s="65"/>
+      <c r="B191" s="69"/>
+      <c r="C191" s="118"/>
       <c r="D191" s="10" t="s">
         <v>229</v>
       </c>
       <c r="E191" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F191" s="55"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="34">
-        <v>0</v>
+      <c r="F191" s="60"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I191" s="30"/>
+      <c r="J191" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="89"/>
-      <c r="B192" s="76"/>
-      <c r="C192" s="100"/>
+      <c r="A192" s="65"/>
+      <c r="B192" s="69"/>
+      <c r="C192" s="118"/>
       <c r="D192" s="10" t="s">
         <v>230</v>
       </c>
       <c r="E192" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F192" s="55"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="34">
-        <v>0</v>
+      <c r="F192" s="60"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I192" s="30"/>
+      <c r="J192" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="89"/>
-      <c r="B193" s="76"/>
-      <c r="C193" s="60" t="s">
+      <c r="A193" s="65"/>
+      <c r="B193" s="69"/>
+      <c r="C193" s="117" t="s">
         <v>325</v>
       </c>
       <c r="D193" s="10" t="s">
@@ -7168,72 +7270,82 @@
       <c r="E193" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F193" s="55"/>
-      <c r="G193" s="38"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="34">
-        <v>0</v>
+      <c r="F193" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G193" s="8"/>
+      <c r="H193" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I193" s="30"/>
+      <c r="J193" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="89"/>
-      <c r="B194" s="76"/>
-      <c r="C194" s="100"/>
+      <c r="A194" s="65"/>
+      <c r="B194" s="69"/>
+      <c r="C194" s="118"/>
       <c r="D194" s="10" t="s">
         <v>232</v>
       </c>
       <c r="E194" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F194" s="55"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="34">
-        <v>0</v>
+      <c r="F194" s="60"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I194" s="30"/>
+      <c r="J194" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="89"/>
-      <c r="B195" s="76"/>
-      <c r="C195" s="100"/>
+      <c r="A195" s="65"/>
+      <c r="B195" s="69"/>
+      <c r="C195" s="118"/>
       <c r="D195" s="10" t="s">
         <v>233</v>
       </c>
       <c r="E195" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F195" s="55"/>
-      <c r="G195" s="37"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="34">
-        <v>0</v>
+      <c r="F195" s="60"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I195" s="30"/>
+      <c r="J195" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="89"/>
-      <c r="B196" s="76"/>
-      <c r="C196" s="100"/>
+      <c r="A196" s="65"/>
+      <c r="B196" s="69"/>
+      <c r="C196" s="118"/>
       <c r="D196" s="10" t="s">
         <v>234</v>
       </c>
       <c r="E196" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F196" s="55"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="34">
-        <v>0</v>
+      <c r="F196" s="60"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I196" s="30"/>
+      <c r="J196" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="89"/>
-      <c r="B197" s="76"/>
-      <c r="C197" s="69" t="s">
+      <c r="A197" s="65"/>
+      <c r="B197" s="69"/>
+      <c r="C197" s="63" t="s">
         <v>326</v>
       </c>
       <c r="D197" s="10" t="s">
@@ -7242,7 +7354,7 @@
       <c r="E197" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F197" s="55"/>
+      <c r="F197" s="60"/>
       <c r="G197" s="35"/>
       <c r="H197" s="33"/>
       <c r="I197" s="33"/>
@@ -7251,16 +7363,16 @@
       </c>
     </row>
     <row r="198" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="89"/>
-      <c r="B198" s="76"/>
-      <c r="C198" s="69"/>
+      <c r="A198" s="65"/>
+      <c r="B198" s="69"/>
+      <c r="C198" s="63"/>
       <c r="D198" s="10" t="s">
         <v>236</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F198" s="55"/>
+      <c r="F198" s="60"/>
       <c r="G198" s="35"/>
       <c r="H198" s="33"/>
       <c r="I198" s="33"/>
@@ -7269,16 +7381,16 @@
       </c>
     </row>
     <row r="199" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="89"/>
-      <c r="B199" s="76"/>
-      <c r="C199" s="69"/>
+      <c r="A199" s="65"/>
+      <c r="B199" s="69"/>
+      <c r="C199" s="63"/>
       <c r="D199" s="10" t="s">
         <v>240</v>
       </c>
       <c r="E199" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F199" s="55"/>
+      <c r="F199" s="60"/>
       <c r="G199" s="35"/>
       <c r="H199" s="33"/>
       <c r="I199" s="33"/>
@@ -7287,16 +7399,16 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="89"/>
-      <c r="B200" s="76"/>
-      <c r="C200" s="69"/>
+      <c r="A200" s="65"/>
+      <c r="B200" s="69"/>
+      <c r="C200" s="63"/>
       <c r="D200" s="10" t="s">
         <v>241</v>
       </c>
       <c r="E200" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F200" s="55"/>
+      <c r="F200" s="60"/>
       <c r="G200" s="35"/>
       <c r="H200" s="33"/>
       <c r="I200" s="33"/>
@@ -7305,9 +7417,9 @@
       </c>
     </row>
     <row r="201" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="89"/>
-      <c r="B201" s="76"/>
-      <c r="C201" s="56" t="s">
+      <c r="A201" s="65"/>
+      <c r="B201" s="69"/>
+      <c r="C201" s="78" t="s">
         <v>327</v>
       </c>
       <c r="D201" s="10" t="s">
@@ -7316,7 +7428,7 @@
       <c r="E201" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F201" s="70"/>
+      <c r="F201" s="82"/>
       <c r="G201" s="35"/>
       <c r="H201" s="33"/>
       <c r="I201" s="33"/>
@@ -7325,16 +7437,16 @@
       </c>
     </row>
     <row r="202" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="89"/>
-      <c r="B202" s="76"/>
-      <c r="C202" s="57"/>
+      <c r="A202" s="65"/>
+      <c r="B202" s="69"/>
+      <c r="C202" s="79"/>
       <c r="D202" s="10" t="s">
         <v>243</v>
       </c>
       <c r="E202" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F202" s="71"/>
+      <c r="F202" s="83"/>
       <c r="G202" s="35"/>
       <c r="H202" s="33"/>
       <c r="I202" s="33"/>
@@ -7343,16 +7455,16 @@
       </c>
     </row>
     <row r="203" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="89"/>
-      <c r="B203" s="76"/>
-      <c r="C203" s="57"/>
+      <c r="A203" s="65"/>
+      <c r="B203" s="69"/>
+      <c r="C203" s="79"/>
       <c r="D203" s="10" t="s">
         <v>244</v>
       </c>
       <c r="E203" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F203" s="71"/>
+      <c r="F203" s="83"/>
       <c r="G203" s="35"/>
       <c r="H203" s="33"/>
       <c r="I203" s="33"/>
@@ -7361,16 +7473,16 @@
       </c>
     </row>
     <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="89"/>
-      <c r="B204" s="78"/>
-      <c r="C204" s="59"/>
+      <c r="A204" s="65"/>
+      <c r="B204" s="90"/>
+      <c r="C204" s="81"/>
       <c r="D204" s="10" t="s">
         <v>245</v>
       </c>
       <c r="E204" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F204" s="72"/>
+      <c r="F204" s="84"/>
       <c r="G204" s="35"/>
       <c r="H204" s="33"/>
       <c r="I204" s="33"/>
@@ -7379,13 +7491,13 @@
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="87" t="s">
+      <c r="A205" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B205" s="75" t="s">
+      <c r="B205" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C205" s="60" t="s">
+      <c r="C205" s="66" t="s">
         <v>328</v>
       </c>
       <c r="D205" s="10" t="s">
@@ -7394,7 +7506,7 @@
       <c r="E205" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F205" s="55"/>
+      <c r="F205" s="60"/>
       <c r="G205" s="38"/>
       <c r="H205" s="33"/>
       <c r="I205" s="33"/>
@@ -7403,16 +7515,16 @@
       </c>
     </row>
     <row r="206" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="89"/>
-      <c r="B206" s="76"/>
-      <c r="C206" s="100"/>
+      <c r="A206" s="65"/>
+      <c r="B206" s="69"/>
+      <c r="C206" s="67"/>
       <c r="D206" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E206" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F206" s="55"/>
+      <c r="F206" s="60"/>
       <c r="G206" s="37"/>
       <c r="H206" s="33"/>
       <c r="I206" s="33"/>
@@ -7421,16 +7533,16 @@
       </c>
     </row>
     <row r="207" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="89"/>
-      <c r="B207" s="76"/>
-      <c r="C207" s="100"/>
+      <c r="A207" s="65"/>
+      <c r="B207" s="69"/>
+      <c r="C207" s="67"/>
       <c r="D207" s="10" t="s">
         <v>248</v>
       </c>
       <c r="E207" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F207" s="55"/>
+      <c r="F207" s="60"/>
       <c r="G207" s="37"/>
       <c r="H207" s="33"/>
       <c r="I207" s="33"/>
@@ -7439,16 +7551,16 @@
       </c>
     </row>
     <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="89"/>
-      <c r="B208" s="76"/>
-      <c r="C208" s="100"/>
+      <c r="A208" s="65"/>
+      <c r="B208" s="69"/>
+      <c r="C208" s="67"/>
       <c r="D208" s="10" t="s">
         <v>249</v>
       </c>
       <c r="E208" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F208" s="55"/>
+      <c r="F208" s="60"/>
       <c r="G208" s="37"/>
       <c r="H208" s="33"/>
       <c r="I208" s="33"/>
@@ -7457,9 +7569,9 @@
       </c>
     </row>
     <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="89"/>
-      <c r="B209" s="76"/>
-      <c r="C209" s="60" t="s">
+      <c r="A209" s="65"/>
+      <c r="B209" s="69"/>
+      <c r="C209" s="66" t="s">
         <v>329</v>
       </c>
       <c r="D209" s="10" t="s">
@@ -7468,7 +7580,7 @@
       <c r="E209" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F209" s="55"/>
+      <c r="F209" s="60"/>
       <c r="G209" s="38"/>
       <c r="H209" s="33"/>
       <c r="I209" s="33"/>
@@ -7477,16 +7589,16 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="89"/>
-      <c r="B210" s="76"/>
-      <c r="C210" s="100"/>
+      <c r="A210" s="65"/>
+      <c r="B210" s="69"/>
+      <c r="C210" s="67"/>
       <c r="D210" s="10" t="s">
         <v>251</v>
       </c>
       <c r="E210" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F210" s="55"/>
+      <c r="F210" s="60"/>
       <c r="G210" s="37"/>
       <c r="H210" s="33"/>
       <c r="I210" s="33"/>
@@ -7495,16 +7607,16 @@
       </c>
     </row>
     <row r="211" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="89"/>
-      <c r="B211" s="76"/>
-      <c r="C211" s="100"/>
+      <c r="A211" s="65"/>
+      <c r="B211" s="69"/>
+      <c r="C211" s="67"/>
       <c r="D211" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E211" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F211" s="55"/>
+      <c r="F211" s="60"/>
       <c r="G211" s="37"/>
       <c r="H211" s="33"/>
       <c r="I211" s="33"/>
@@ -7513,16 +7625,16 @@
       </c>
     </row>
     <row r="212" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="89"/>
-      <c r="B212" s="76"/>
-      <c r="C212" s="100"/>
+      <c r="A212" s="65"/>
+      <c r="B212" s="69"/>
+      <c r="C212" s="67"/>
       <c r="D212" s="10" t="s">
         <v>259</v>
       </c>
       <c r="E212" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F212" s="55"/>
+      <c r="F212" s="60"/>
       <c r="G212" s="37"/>
       <c r="H212" s="33"/>
       <c r="I212" s="33"/>
@@ -7531,9 +7643,9 @@
       </c>
     </row>
     <row r="213" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="89"/>
-      <c r="B213" s="76"/>
-      <c r="C213" s="69" t="s">
+      <c r="A213" s="65"/>
+      <c r="B213" s="69"/>
+      <c r="C213" s="63" t="s">
         <v>330</v>
       </c>
       <c r="D213" s="10" t="s">
@@ -7542,7 +7654,7 @@
       <c r="E213" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F213" s="55"/>
+      <c r="F213" s="60"/>
       <c r="G213" s="35"/>
       <c r="H213" s="33"/>
       <c r="I213" s="33"/>
@@ -7551,16 +7663,16 @@
       </c>
     </row>
     <row r="214" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="89"/>
-      <c r="B214" s="76"/>
-      <c r="C214" s="69"/>
+      <c r="A214" s="65"/>
+      <c r="B214" s="69"/>
+      <c r="C214" s="63"/>
       <c r="D214" s="10" t="s">
         <v>261</v>
       </c>
       <c r="E214" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F214" s="55"/>
+      <c r="F214" s="60"/>
       <c r="G214" s="35"/>
       <c r="H214" s="33"/>
       <c r="I214" s="33"/>
@@ -7569,16 +7681,16 @@
       </c>
     </row>
     <row r="215" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="89"/>
-      <c r="B215" s="76"/>
-      <c r="C215" s="69"/>
+      <c r="A215" s="65"/>
+      <c r="B215" s="69"/>
+      <c r="C215" s="63"/>
       <c r="D215" s="10" t="s">
         <v>262</v>
       </c>
       <c r="E215" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F215" s="55"/>
+      <c r="F215" s="60"/>
       <c r="G215" s="35"/>
       <c r="H215" s="33"/>
       <c r="I215" s="33"/>
@@ -7587,16 +7699,16 @@
       </c>
     </row>
     <row r="216" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="89"/>
-      <c r="B216" s="76"/>
-      <c r="C216" s="69"/>
+      <c r="A216" s="65"/>
+      <c r="B216" s="69"/>
+      <c r="C216" s="63"/>
       <c r="D216" s="10" t="s">
         <v>263</v>
       </c>
       <c r="E216" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F216" s="55"/>
+      <c r="F216" s="60"/>
       <c r="G216" s="35"/>
       <c r="H216" s="33"/>
       <c r="I216" s="33"/>
@@ -7605,9 +7717,9 @@
       </c>
     </row>
     <row r="217" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="89"/>
-      <c r="B217" s="76"/>
-      <c r="C217" s="56" t="s">
+      <c r="A217" s="65"/>
+      <c r="B217" s="69"/>
+      <c r="C217" s="78" t="s">
         <v>331</v>
       </c>
       <c r="D217" s="10" t="s">
@@ -7616,7 +7728,7 @@
       <c r="E217" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F217" s="55"/>
+      <c r="F217" s="60"/>
       <c r="G217" s="35"/>
       <c r="H217" s="33"/>
       <c r="I217" s="33"/>
@@ -7625,16 +7737,16 @@
       </c>
     </row>
     <row r="218" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="89"/>
-      <c r="B218" s="76"/>
-      <c r="C218" s="57"/>
+      <c r="A218" s="65"/>
+      <c r="B218" s="69"/>
+      <c r="C218" s="79"/>
       <c r="D218" s="10" t="s">
         <v>265</v>
       </c>
       <c r="E218" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F218" s="55"/>
+      <c r="F218" s="60"/>
       <c r="G218" s="35"/>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
@@ -7643,16 +7755,16 @@
       </c>
     </row>
     <row r="219" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="89"/>
-      <c r="B219" s="76"/>
-      <c r="C219" s="57"/>
+      <c r="A219" s="65"/>
+      <c r="B219" s="69"/>
+      <c r="C219" s="79"/>
       <c r="D219" s="10" t="s">
         <v>266</v>
       </c>
       <c r="E219" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F219" s="55"/>
+      <c r="F219" s="60"/>
       <c r="G219" s="35"/>
       <c r="H219" s="33"/>
       <c r="I219" s="33"/>
@@ -7661,16 +7773,16 @@
       </c>
     </row>
     <row r="220" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="89"/>
-      <c r="B220" s="78"/>
-      <c r="C220" s="59"/>
+      <c r="A220" s="65"/>
+      <c r="B220" s="90"/>
+      <c r="C220" s="81"/>
       <c r="D220" s="10" t="s">
         <v>267</v>
       </c>
       <c r="E220" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F220" s="55"/>
+      <c r="F220" s="60"/>
       <c r="G220" s="35"/>
       <c r="H220" s="33"/>
       <c r="I220" s="33"/>
@@ -7679,13 +7791,13 @@
       </c>
     </row>
     <row r="221" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="87" t="s">
+      <c r="A221" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B221" s="75" t="s">
+      <c r="B221" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="C221" s="60" t="s">
+      <c r="C221" s="66" t="s">
         <v>332</v>
       </c>
       <c r="D221" s="10" t="s">
@@ -7694,7 +7806,7 @@
       <c r="E221" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F221" s="55"/>
+      <c r="F221" s="60"/>
       <c r="G221" s="38"/>
       <c r="H221" s="33"/>
       <c r="I221" s="33"/>
@@ -7703,16 +7815,16 @@
       </c>
     </row>
     <row r="222" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="89"/>
-      <c r="B222" s="76"/>
-      <c r="C222" s="100"/>
+      <c r="A222" s="65"/>
+      <c r="B222" s="69"/>
+      <c r="C222" s="67"/>
       <c r="D222" s="10" t="s">
         <v>269</v>
       </c>
       <c r="E222" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F222" s="55"/>
+      <c r="F222" s="60"/>
       <c r="G222" s="37"/>
       <c r="H222" s="33"/>
       <c r="I222" s="33"/>
@@ -7721,16 +7833,16 @@
       </c>
     </row>
     <row r="223" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="89"/>
-      <c r="B223" s="76"/>
-      <c r="C223" s="100"/>
+      <c r="A223" s="65"/>
+      <c r="B223" s="69"/>
+      <c r="C223" s="67"/>
       <c r="D223" s="10" t="s">
         <v>270</v>
       </c>
       <c r="E223" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F223" s="55"/>
+      <c r="F223" s="60"/>
       <c r="G223" s="37"/>
       <c r="H223" s="33"/>
       <c r="I223" s="33"/>
@@ -7739,16 +7851,16 @@
       </c>
     </row>
     <row r="224" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="89"/>
-      <c r="B224" s="76"/>
-      <c r="C224" s="100"/>
+      <c r="A224" s="65"/>
+      <c r="B224" s="69"/>
+      <c r="C224" s="67"/>
       <c r="D224" s="10" t="s">
         <v>271</v>
       </c>
       <c r="E224" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F224" s="55"/>
+      <c r="F224" s="60"/>
       <c r="G224" s="37"/>
       <c r="H224" s="33"/>
       <c r="I224" s="33"/>
@@ -7757,9 +7869,9 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="89"/>
-      <c r="B225" s="76"/>
-      <c r="C225" s="60" t="s">
+      <c r="A225" s="65"/>
+      <c r="B225" s="69"/>
+      <c r="C225" s="66" t="s">
         <v>333</v>
       </c>
       <c r="D225" s="10" t="s">
@@ -7768,7 +7880,7 @@
       <c r="E225" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F225" s="55"/>
+      <c r="F225" s="60"/>
       <c r="G225" s="38"/>
       <c r="H225" s="33"/>
       <c r="I225" s="33"/>
@@ -7777,16 +7889,16 @@
       </c>
     </row>
     <row r="226" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="89"/>
-      <c r="B226" s="76"/>
-      <c r="C226" s="100"/>
+      <c r="A226" s="65"/>
+      <c r="B226" s="69"/>
+      <c r="C226" s="67"/>
       <c r="D226" s="10" t="s">
         <v>273</v>
       </c>
       <c r="E226" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F226" s="55"/>
+      <c r="F226" s="60"/>
       <c r="G226" s="37"/>
       <c r="H226" s="33"/>
       <c r="I226" s="33"/>
@@ -7795,16 +7907,16 @@
       </c>
     </row>
     <row r="227" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="89"/>
-      <c r="B227" s="76"/>
-      <c r="C227" s="100"/>
+      <c r="A227" s="65"/>
+      <c r="B227" s="69"/>
+      <c r="C227" s="67"/>
       <c r="D227" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E227" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F227" s="55"/>
+      <c r="F227" s="60"/>
       <c r="G227" s="37"/>
       <c r="H227" s="33"/>
       <c r="I227" s="33"/>
@@ -7813,16 +7925,16 @@
       </c>
     </row>
     <row r="228" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="89"/>
-      <c r="B228" s="76"/>
-      <c r="C228" s="100"/>
+      <c r="A228" s="65"/>
+      <c r="B228" s="69"/>
+      <c r="C228" s="67"/>
       <c r="D228" s="10" t="s">
         <v>275</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F228" s="55"/>
+      <c r="F228" s="60"/>
       <c r="G228" s="37"/>
       <c r="H228" s="33"/>
       <c r="I228" s="33"/>
@@ -7831,9 +7943,9 @@
       </c>
     </row>
     <row r="229" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="89"/>
-      <c r="B229" s="76"/>
-      <c r="C229" s="69" t="s">
+      <c r="A229" s="65"/>
+      <c r="B229" s="69"/>
+      <c r="C229" s="63" t="s">
         <v>334</v>
       </c>
       <c r="D229" s="10" t="s">
@@ -7842,7 +7954,7 @@
       <c r="E229" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F229" s="55"/>
+      <c r="F229" s="60"/>
       <c r="G229" s="35"/>
       <c r="H229" s="33"/>
       <c r="I229" s="33"/>
@@ -7851,16 +7963,16 @@
       </c>
     </row>
     <row r="230" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="89"/>
-      <c r="B230" s="76"/>
-      <c r="C230" s="69"/>
+      <c r="A230" s="65"/>
+      <c r="B230" s="69"/>
+      <c r="C230" s="63"/>
       <c r="D230" s="10" t="s">
         <v>340</v>
       </c>
       <c r="E230" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F230" s="55"/>
+      <c r="F230" s="60"/>
       <c r="G230" s="35"/>
       <c r="H230" s="33"/>
       <c r="I230" s="33"/>
@@ -7869,16 +7981,16 @@
       </c>
     </row>
     <row r="231" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="89"/>
-      <c r="B231" s="76"/>
-      <c r="C231" s="69"/>
+      <c r="A231" s="65"/>
+      <c r="B231" s="69"/>
+      <c r="C231" s="63"/>
       <c r="D231" s="10" t="s">
         <v>341</v>
       </c>
       <c r="E231" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F231" s="55"/>
+      <c r="F231" s="60"/>
       <c r="G231" s="35"/>
       <c r="H231" s="33"/>
       <c r="I231" s="33"/>
@@ -7887,16 +7999,16 @@
       </c>
     </row>
     <row r="232" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="89"/>
-      <c r="B232" s="76"/>
-      <c r="C232" s="69"/>
+      <c r="A232" s="65"/>
+      <c r="B232" s="69"/>
+      <c r="C232" s="63"/>
       <c r="D232" s="10" t="s">
         <v>342</v>
       </c>
       <c r="E232" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F232" s="55"/>
+      <c r="F232" s="60"/>
       <c r="G232" s="35"/>
       <c r="H232" s="33"/>
       <c r="I232" s="33"/>
@@ -7905,9 +8017,9 @@
       </c>
     </row>
     <row r="233" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="89"/>
-      <c r="B233" s="76"/>
-      <c r="C233" s="56" t="s">
+      <c r="A233" s="65"/>
+      <c r="B233" s="69"/>
+      <c r="C233" s="78" t="s">
         <v>335</v>
       </c>
       <c r="D233" s="10" t="s">
@@ -7916,7 +8028,7 @@
       <c r="E233" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F233" s="55"/>
+      <c r="F233" s="60"/>
       <c r="G233" s="35"/>
       <c r="H233" s="33"/>
       <c r="I233" s="33"/>
@@ -7925,16 +8037,16 @@
       </c>
     </row>
     <row r="234" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="89"/>
-      <c r="B234" s="76"/>
-      <c r="C234" s="57"/>
+      <c r="A234" s="65"/>
+      <c r="B234" s="69"/>
+      <c r="C234" s="79"/>
       <c r="D234" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E234" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F234" s="55"/>
+      <c r="F234" s="60"/>
       <c r="G234" s="35"/>
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
@@ -7943,16 +8055,16 @@
       </c>
     </row>
     <row r="235" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="89"/>
-      <c r="B235" s="76"/>
-      <c r="C235" s="57"/>
+      <c r="A235" s="65"/>
+      <c r="B235" s="69"/>
+      <c r="C235" s="79"/>
       <c r="D235" s="10" t="s">
         <v>345</v>
       </c>
       <c r="E235" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F235" s="55"/>
+      <c r="F235" s="60"/>
       <c r="G235" s="35"/>
       <c r="H235" s="33"/>
       <c r="I235" s="33"/>
@@ -7961,16 +8073,16 @@
       </c>
     </row>
     <row r="236" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="89"/>
-      <c r="B236" s="77"/>
-      <c r="C236" s="58"/>
+      <c r="A236" s="65"/>
+      <c r="B236" s="70"/>
+      <c r="C236" s="80"/>
       <c r="D236" s="10" t="s">
         <v>346</v>
       </c>
       <c r="E236" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F236" s="55"/>
+      <c r="F236" s="60"/>
       <c r="G236" s="35"/>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
@@ -7980,14 +8092,14 @@
     </row>
     <row r="237" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
-      <c r="B237" s="86" t="s">
+      <c r="B237" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C237" s="86"/>
-      <c r="D237" s="86"/>
-      <c r="E237" s="86"/>
-      <c r="F237" s="86"/>
-      <c r="G237" s="86"/>
+      <c r="C237" s="71"/>
+      <c r="D237" s="71"/>
+      <c r="E237" s="71"/>
+      <c r="F237" s="71"/>
+      <c r="G237" s="71"/>
       <c r="H237" s="32" t="s">
         <v>1</v>
       </c>
@@ -8009,23 +8121,23 @@
     </row>
     <row r="238" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
-      <c r="B238" s="86"/>
-      <c r="C238" s="86"/>
-      <c r="D238" s="86"/>
-      <c r="E238" s="86"/>
-      <c r="F238" s="86"/>
-      <c r="G238" s="86"/>
-      <c r="H238" s="93">
+      <c r="B238" s="71"/>
+      <c r="C238" s="71"/>
+      <c r="D238" s="71"/>
+      <c r="E238" s="71"/>
+      <c r="F238" s="71"/>
+      <c r="G238" s="71"/>
+      <c r="H238" s="54">
         <v>43298</v>
       </c>
-      <c r="I238" s="93">
+      <c r="I238" s="54">
         <v>43299</v>
       </c>
-      <c r="J238" s="91">
+      <c r="J238" s="56">
         <f>AVERAGE(J241:J304)</f>
         <v>0</v>
       </c>
-      <c r="K238" s="54">
+      <c r="K238" s="112">
         <f>SUM(F241:F304)</f>
         <v>0</v>
       </c>
@@ -8035,16 +8147,16 @@
     </row>
     <row r="239" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
-      <c r="B239" s="86"/>
-      <c r="C239" s="86"/>
-      <c r="D239" s="86"/>
-      <c r="E239" s="86"/>
-      <c r="F239" s="86"/>
-      <c r="G239" s="86"/>
-      <c r="H239" s="94"/>
-      <c r="I239" s="94"/>
-      <c r="J239" s="92"/>
-      <c r="K239" s="54"/>
+      <c r="B239" s="71"/>
+      <c r="C239" s="71"/>
+      <c r="D239" s="71"/>
+      <c r="E239" s="71"/>
+      <c r="F239" s="71"/>
+      <c r="G239" s="71"/>
+      <c r="H239" s="55"/>
+      <c r="I239" s="55"/>
+      <c r="J239" s="57"/>
+      <c r="K239" s="112"/>
       <c r="L239" s="14"/>
       <c r="M239" s="14"/>
       <c r="N239" s="14"/>
@@ -8082,13 +8194,13 @@
       </c>
     </row>
     <row r="241" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="87" t="s">
+      <c r="A241" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B241" s="75" t="s">
+      <c r="B241" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C241" s="60" t="s">
+      <c r="C241" s="66" t="s">
         <v>348</v>
       </c>
       <c r="D241" s="10" t="s">
@@ -8097,7 +8209,7 @@
       <c r="E241" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F241" s="55"/>
+      <c r="F241" s="60"/>
       <c r="G241" s="38"/>
       <c r="H241" s="33"/>
       <c r="I241" s="33"/>
@@ -8106,16 +8218,16 @@
       </c>
     </row>
     <row r="242" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="89"/>
-      <c r="B242" s="76"/>
-      <c r="C242" s="100"/>
+      <c r="A242" s="65"/>
+      <c r="B242" s="69"/>
+      <c r="C242" s="67"/>
       <c r="D242" s="10" t="s">
         <v>349</v>
       </c>
       <c r="E242" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F242" s="55"/>
+      <c r="F242" s="60"/>
       <c r="G242" s="37"/>
       <c r="H242" s="33"/>
       <c r="I242" s="33"/>
@@ -8124,16 +8236,16 @@
       </c>
     </row>
     <row r="243" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="89"/>
-      <c r="B243" s="76"/>
-      <c r="C243" s="100"/>
+      <c r="A243" s="65"/>
+      <c r="B243" s="69"/>
+      <c r="C243" s="67"/>
       <c r="D243" s="10" t="s">
         <v>350</v>
       </c>
       <c r="E243" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F243" s="55"/>
+      <c r="F243" s="60"/>
       <c r="G243" s="37"/>
       <c r="H243" s="33"/>
       <c r="I243" s="33"/>
@@ -8142,16 +8254,16 @@
       </c>
     </row>
     <row r="244" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="89"/>
-      <c r="B244" s="76"/>
-      <c r="C244" s="100"/>
+      <c r="A244" s="65"/>
+      <c r="B244" s="69"/>
+      <c r="C244" s="67"/>
       <c r="D244" s="10" t="s">
         <v>351</v>
       </c>
       <c r="E244" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F244" s="55"/>
+      <c r="F244" s="60"/>
       <c r="G244" s="37"/>
       <c r="H244" s="33"/>
       <c r="I244" s="33"/>
@@ -8160,9 +8272,9 @@
       </c>
     </row>
     <row r="245" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="89"/>
-      <c r="B245" s="76"/>
-      <c r="C245" s="60" t="s">
+      <c r="A245" s="65"/>
+      <c r="B245" s="69"/>
+      <c r="C245" s="66" t="s">
         <v>352</v>
       </c>
       <c r="D245" s="10" t="s">
@@ -8171,7 +8283,7 @@
       <c r="E245" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F245" s="55"/>
+      <c r="F245" s="60"/>
       <c r="G245" s="38"/>
       <c r="H245" s="33"/>
       <c r="I245" s="33"/>
@@ -8180,16 +8292,16 @@
       </c>
     </row>
     <row r="246" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="89"/>
-      <c r="B246" s="76"/>
-      <c r="C246" s="100"/>
+      <c r="A246" s="65"/>
+      <c r="B246" s="69"/>
+      <c r="C246" s="67"/>
       <c r="D246" s="10" t="s">
         <v>354</v>
       </c>
       <c r="E246" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F246" s="55"/>
+      <c r="F246" s="60"/>
       <c r="G246" s="37"/>
       <c r="H246" s="33"/>
       <c r="I246" s="33"/>
@@ -8198,16 +8310,16 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="89"/>
-      <c r="B247" s="76"/>
-      <c r="C247" s="100"/>
+      <c r="A247" s="65"/>
+      <c r="B247" s="69"/>
+      <c r="C247" s="67"/>
       <c r="D247" s="10" t="s">
         <v>355</v>
       </c>
       <c r="E247" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F247" s="55"/>
+      <c r="F247" s="60"/>
       <c r="G247" s="37"/>
       <c r="H247" s="33"/>
       <c r="I247" s="33"/>
@@ -8216,16 +8328,16 @@
       </c>
     </row>
     <row r="248" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="89"/>
-      <c r="B248" s="76"/>
-      <c r="C248" s="100"/>
+      <c r="A248" s="65"/>
+      <c r="B248" s="69"/>
+      <c r="C248" s="67"/>
       <c r="D248" s="10" t="s">
         <v>356</v>
       </c>
       <c r="E248" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F248" s="55"/>
+      <c r="F248" s="60"/>
       <c r="G248" s="37"/>
       <c r="H248" s="33"/>
       <c r="I248" s="33"/>
@@ -8234,9 +8346,9 @@
       </c>
     </row>
     <row r="249" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="89"/>
-      <c r="B249" s="76"/>
-      <c r="C249" s="69" t="s">
+      <c r="A249" s="65"/>
+      <c r="B249" s="69"/>
+      <c r="C249" s="63" t="s">
         <v>357</v>
       </c>
       <c r="D249" s="10" t="s">
@@ -8245,7 +8357,7 @@
       <c r="E249" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F249" s="55"/>
+      <c r="F249" s="60"/>
       <c r="G249" s="35"/>
       <c r="H249" s="33"/>
       <c r="I249" s="33"/>
@@ -8254,16 +8366,16 @@
       </c>
     </row>
     <row r="250" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="89"/>
-      <c r="B250" s="76"/>
-      <c r="C250" s="69"/>
+      <c r="A250" s="65"/>
+      <c r="B250" s="69"/>
+      <c r="C250" s="63"/>
       <c r="D250" s="10" t="s">
         <v>359</v>
       </c>
       <c r="E250" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F250" s="55"/>
+      <c r="F250" s="60"/>
       <c r="G250" s="35"/>
       <c r="H250" s="33"/>
       <c r="I250" s="33"/>
@@ -8272,16 +8384,16 @@
       </c>
     </row>
     <row r="251" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="89"/>
-      <c r="B251" s="76"/>
-      <c r="C251" s="69"/>
+      <c r="A251" s="65"/>
+      <c r="B251" s="69"/>
+      <c r="C251" s="63"/>
       <c r="D251" s="10" t="s">
         <v>360</v>
       </c>
       <c r="E251" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F251" s="55"/>
+      <c r="F251" s="60"/>
       <c r="G251" s="35"/>
       <c r="H251" s="33"/>
       <c r="I251" s="33"/>
@@ -8290,16 +8402,16 @@
       </c>
     </row>
     <row r="252" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="89"/>
-      <c r="B252" s="76"/>
-      <c r="C252" s="69"/>
+      <c r="A252" s="65"/>
+      <c r="B252" s="69"/>
+      <c r="C252" s="63"/>
       <c r="D252" s="10" t="s">
         <v>361</v>
       </c>
       <c r="E252" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F252" s="55"/>
+      <c r="F252" s="60"/>
       <c r="G252" s="35"/>
       <c r="H252" s="33"/>
       <c r="I252" s="33"/>
@@ -8308,9 +8420,9 @@
       </c>
     </row>
     <row r="253" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="89"/>
-      <c r="B253" s="76"/>
-      <c r="C253" s="56" t="s">
+      <c r="A253" s="65"/>
+      <c r="B253" s="69"/>
+      <c r="C253" s="78" t="s">
         <v>362</v>
       </c>
       <c r="D253" s="10" t="s">
@@ -8319,7 +8431,7 @@
       <c r="E253" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F253" s="55"/>
+      <c r="F253" s="60"/>
       <c r="G253" s="35"/>
       <c r="H253" s="33"/>
       <c r="I253" s="33"/>
@@ -8328,16 +8440,16 @@
       </c>
     </row>
     <row r="254" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="89"/>
-      <c r="B254" s="76"/>
-      <c r="C254" s="57"/>
+      <c r="A254" s="65"/>
+      <c r="B254" s="69"/>
+      <c r="C254" s="79"/>
       <c r="D254" s="10" t="s">
         <v>364</v>
       </c>
       <c r="E254" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F254" s="55"/>
+      <c r="F254" s="60"/>
       <c r="G254" s="35"/>
       <c r="H254" s="33"/>
       <c r="I254" s="33"/>
@@ -8346,16 +8458,16 @@
       </c>
     </row>
     <row r="255" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="89"/>
-      <c r="B255" s="76"/>
-      <c r="C255" s="57"/>
+      <c r="A255" s="65"/>
+      <c r="B255" s="69"/>
+      <c r="C255" s="79"/>
       <c r="D255" s="10" t="s">
         <v>365</v>
       </c>
       <c r="E255" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F255" s="55"/>
+      <c r="F255" s="60"/>
       <c r="G255" s="35"/>
       <c r="H255" s="33"/>
       <c r="I255" s="33"/>
@@ -8364,16 +8476,16 @@
       </c>
     </row>
     <row r="256" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="89"/>
-      <c r="B256" s="78"/>
-      <c r="C256" s="59"/>
+      <c r="A256" s="65"/>
+      <c r="B256" s="90"/>
+      <c r="C256" s="81"/>
       <c r="D256" s="10" t="s">
         <v>366</v>
       </c>
       <c r="E256" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F256" s="55"/>
+      <c r="F256" s="60"/>
       <c r="G256" s="35"/>
       <c r="H256" s="33"/>
       <c r="I256" s="33"/>
@@ -8382,13 +8494,13 @@
       </c>
     </row>
     <row r="257" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="87" t="s">
+      <c r="A257" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="B257" s="75" t="s">
+      <c r="B257" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="C257" s="60" t="s">
+      <c r="C257" s="66" t="s">
         <v>380</v>
       </c>
       <c r="D257" s="10" t="s">
@@ -8397,7 +8509,7 @@
       <c r="E257" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F257" s="55"/>
+      <c r="F257" s="60"/>
       <c r="G257" s="36"/>
       <c r="H257" s="33"/>
       <c r="I257" s="33"/>
@@ -8406,16 +8518,16 @@
       </c>
     </row>
     <row r="258" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="87"/>
-      <c r="B258" s="76"/>
-      <c r="C258" s="61"/>
+      <c r="A258" s="64"/>
+      <c r="B258" s="69"/>
+      <c r="C258" s="96"/>
       <c r="D258" s="10" t="s">
         <v>368</v>
       </c>
       <c r="E258" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F258" s="55"/>
+      <c r="F258" s="60"/>
       <c r="G258" s="36"/>
       <c r="H258" s="33"/>
       <c r="I258" s="33"/>
@@ -8424,16 +8536,16 @@
       </c>
     </row>
     <row r="259" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="87"/>
-      <c r="B259" s="76"/>
-      <c r="C259" s="61"/>
+      <c r="A259" s="64"/>
+      <c r="B259" s="69"/>
+      <c r="C259" s="96"/>
       <c r="D259" s="10" t="s">
         <v>369</v>
       </c>
       <c r="E259" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F259" s="55"/>
+      <c r="F259" s="60"/>
       <c r="G259" s="36"/>
       <c r="H259" s="33"/>
       <c r="I259" s="33"/>
@@ -8442,16 +8554,16 @@
       </c>
     </row>
     <row r="260" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="87"/>
-      <c r="B260" s="76"/>
-      <c r="C260" s="61"/>
+      <c r="A260" s="64"/>
+      <c r="B260" s="69"/>
+      <c r="C260" s="96"/>
       <c r="D260" s="10" t="s">
         <v>370</v>
       </c>
       <c r="E260" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F260" s="55"/>
+      <c r="F260" s="60"/>
       <c r="G260" s="36"/>
       <c r="H260" s="33"/>
       <c r="I260" s="33"/>
@@ -8460,9 +8572,9 @@
       </c>
     </row>
     <row r="261" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="89"/>
-      <c r="B261" s="76"/>
-      <c r="C261" s="69" t="s">
+      <c r="A261" s="65"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="63" t="s">
         <v>381</v>
       </c>
       <c r="D261" s="20" t="s">
@@ -8471,7 +8583,7 @@
       <c r="E261" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F261" s="55"/>
+      <c r="F261" s="60"/>
       <c r="G261" s="38"/>
       <c r="H261" s="33"/>
       <c r="I261" s="33"/>
@@ -8480,16 +8592,16 @@
       </c>
     </row>
     <row r="262" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="89"/>
-      <c r="B262" s="76"/>
-      <c r="C262" s="104"/>
+      <c r="A262" s="65"/>
+      <c r="B262" s="69"/>
+      <c r="C262" s="94"/>
       <c r="D262" s="20" t="s">
         <v>372</v>
       </c>
       <c r="E262" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F262" s="55"/>
+      <c r="F262" s="60"/>
       <c r="G262" s="37"/>
       <c r="H262" s="33"/>
       <c r="I262" s="33"/>
@@ -8498,16 +8610,16 @@
       </c>
     </row>
     <row r="263" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="89"/>
-      <c r="B263" s="76"/>
-      <c r="C263" s="104"/>
+      <c r="A263" s="65"/>
+      <c r="B263" s="69"/>
+      <c r="C263" s="94"/>
       <c r="D263" s="20" t="s">
         <v>373</v>
       </c>
       <c r="E263" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F263" s="55"/>
+      <c r="F263" s="60"/>
       <c r="G263" s="37"/>
       <c r="H263" s="33"/>
       <c r="I263" s="33"/>
@@ -8516,16 +8628,16 @@
       </c>
     </row>
     <row r="264" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="89"/>
-      <c r="B264" s="76"/>
-      <c r="C264" s="104"/>
+      <c r="A264" s="65"/>
+      <c r="B264" s="69"/>
+      <c r="C264" s="94"/>
       <c r="D264" s="20" t="s">
         <v>374</v>
       </c>
       <c r="E264" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F264" s="55"/>
+      <c r="F264" s="60"/>
       <c r="G264" s="37"/>
       <c r="H264" s="33"/>
       <c r="I264" s="33"/>
@@ -8534,13 +8646,13 @@
       </c>
     </row>
     <row r="265" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="111" t="s">
+      <c r="A265" s="72" t="s">
         <v>383</v>
       </c>
-      <c r="B265" s="69" t="s">
+      <c r="B265" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="62" t="s">
+      <c r="C265" s="113" t="s">
         <v>385</v>
       </c>
       <c r="D265" s="20" t="s">
@@ -8549,7 +8661,7 @@
       <c r="E265" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F265" s="55"/>
+      <c r="F265" s="60"/>
       <c r="G265" s="36"/>
       <c r="H265" s="33"/>
       <c r="I265" s="33"/>
@@ -8558,16 +8670,16 @@
       </c>
     </row>
     <row r="266" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="112"/>
-      <c r="B266" s="69"/>
-      <c r="C266" s="63"/>
+      <c r="A266" s="73"/>
+      <c r="B266" s="63"/>
+      <c r="C266" s="114"/>
       <c r="D266" s="20" t="s">
         <v>376</v>
       </c>
       <c r="E266" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F266" s="55"/>
+      <c r="F266" s="60"/>
       <c r="G266" s="36"/>
       <c r="H266" s="33"/>
       <c r="I266" s="33"/>
@@ -8576,16 +8688,16 @@
       </c>
     </row>
     <row r="267" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="112"/>
-      <c r="B267" s="69"/>
-      <c r="C267" s="63"/>
+      <c r="A267" s="73"/>
+      <c r="B267" s="63"/>
+      <c r="C267" s="114"/>
       <c r="D267" s="20" t="s">
         <v>377</v>
       </c>
       <c r="E267" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F267" s="55"/>
+      <c r="F267" s="60"/>
       <c r="G267" s="38"/>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
@@ -8594,16 +8706,16 @@
       </c>
     </row>
     <row r="268" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="112"/>
-      <c r="B268" s="69"/>
-      <c r="C268" s="64"/>
+      <c r="A268" s="73"/>
+      <c r="B268" s="63"/>
+      <c r="C268" s="115"/>
       <c r="D268" s="20" t="s">
         <v>378</v>
       </c>
       <c r="E268" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F268" s="55"/>
+      <c r="F268" s="60"/>
       <c r="G268" s="38"/>
       <c r="H268" s="33"/>
       <c r="I268" s="33"/>
@@ -8612,9 +8724,9 @@
       </c>
     </row>
     <row r="269" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="112"/>
-      <c r="B269" s="69"/>
-      <c r="C269" s="108" t="s">
+      <c r="A269" s="73"/>
+      <c r="B269" s="63"/>
+      <c r="C269" s="58" t="s">
         <v>393</v>
       </c>
       <c r="D269" s="20" t="s">
@@ -8623,7 +8735,7 @@
       <c r="E269" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F269" s="55"/>
+      <c r="F269" s="60"/>
       <c r="G269" s="38"/>
       <c r="H269" s="33"/>
       <c r="I269" s="33"/>
@@ -8632,16 +8744,16 @@
       </c>
     </row>
     <row r="270" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="112"/>
-      <c r="B270" s="69"/>
-      <c r="C270" s="109"/>
+      <c r="A270" s="73"/>
+      <c r="B270" s="63"/>
+      <c r="C270" s="59"/>
       <c r="D270" s="20" t="s">
         <v>387</v>
       </c>
       <c r="E270" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F270" s="55"/>
+      <c r="F270" s="60"/>
       <c r="G270" s="37"/>
       <c r="H270" s="33"/>
       <c r="I270" s="33"/>
@@ -8650,16 +8762,16 @@
       </c>
     </row>
     <row r="271" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="112"/>
-      <c r="B271" s="69"/>
-      <c r="C271" s="109"/>
+      <c r="A271" s="73"/>
+      <c r="B271" s="63"/>
+      <c r="C271" s="59"/>
       <c r="D271" s="20" t="s">
         <v>388</v>
       </c>
       <c r="E271" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F271" s="55"/>
+      <c r="F271" s="60"/>
       <c r="G271" s="37"/>
       <c r="H271" s="33"/>
       <c r="I271" s="33"/>
@@ -8668,16 +8780,16 @@
       </c>
     </row>
     <row r="272" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="112"/>
-      <c r="B272" s="69"/>
-      <c r="C272" s="109"/>
+      <c r="A272" s="73"/>
+      <c r="B272" s="63"/>
+      <c r="C272" s="59"/>
       <c r="D272" s="20" t="s">
         <v>389</v>
       </c>
       <c r="E272" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F272" s="55"/>
+      <c r="F272" s="60"/>
       <c r="G272" s="37"/>
       <c r="H272" s="33"/>
       <c r="I272" s="33"/>
@@ -8686,9 +8798,9 @@
       </c>
     </row>
     <row r="273" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="112"/>
-      <c r="B273" s="69"/>
-      <c r="C273" s="68" t="s">
+      <c r="A273" s="73"/>
+      <c r="B273" s="63"/>
+      <c r="C273" s="62" t="s">
         <v>394</v>
       </c>
       <c r="D273" s="20" t="s">
@@ -8697,7 +8809,7 @@
       <c r="E273" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F273" s="55"/>
+      <c r="F273" s="60"/>
       <c r="G273" s="35"/>
       <c r="H273" s="33"/>
       <c r="I273" s="33"/>
@@ -8706,16 +8818,16 @@
       </c>
     </row>
     <row r="274" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="112"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="68"/>
+      <c r="A274" s="73"/>
+      <c r="B274" s="63"/>
+      <c r="C274" s="62"/>
       <c r="D274" s="20" t="s">
         <v>391</v>
       </c>
       <c r="E274" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F274" s="55"/>
+      <c r="F274" s="60"/>
       <c r="G274" s="35"/>
       <c r="H274" s="33"/>
       <c r="I274" s="33"/>
@@ -8724,16 +8836,16 @@
       </c>
     </row>
     <row r="275" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="112"/>
-      <c r="B275" s="69"/>
-      <c r="C275" s="68"/>
+      <c r="A275" s="73"/>
+      <c r="B275" s="63"/>
+      <c r="C275" s="62"/>
       <c r="D275" s="20" t="s">
         <v>392</v>
       </c>
       <c r="E275" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F275" s="55"/>
+      <c r="F275" s="60"/>
       <c r="G275" s="35"/>
       <c r="H275" s="33"/>
       <c r="I275" s="33"/>
@@ -8742,16 +8854,16 @@
       </c>
     </row>
     <row r="276" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="112"/>
-      <c r="B276" s="69"/>
-      <c r="C276" s="68"/>
+      <c r="A276" s="73"/>
+      <c r="B276" s="63"/>
+      <c r="C276" s="62"/>
       <c r="D276" s="20" t="s">
         <v>396</v>
       </c>
       <c r="E276" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F276" s="55"/>
+      <c r="F276" s="60"/>
       <c r="G276" s="35"/>
       <c r="H276" s="33"/>
       <c r="I276" s="33"/>
@@ -8760,9 +8872,9 @@
       </c>
     </row>
     <row r="277" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="112"/>
-      <c r="B277" s="69"/>
-      <c r="C277" s="65" t="s">
+      <c r="A277" s="73"/>
+      <c r="B277" s="63"/>
+      <c r="C277" s="87" t="s">
         <v>395</v>
       </c>
       <c r="D277" s="20" t="s">
@@ -8771,7 +8883,7 @@
       <c r="E277" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F277" s="55"/>
+      <c r="F277" s="60"/>
       <c r="G277" s="35"/>
       <c r="H277" s="33"/>
       <c r="I277" s="33"/>
@@ -8780,16 +8892,16 @@
       </c>
     </row>
     <row r="278" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="112"/>
-      <c r="B278" s="69"/>
-      <c r="C278" s="66"/>
+      <c r="A278" s="73"/>
+      <c r="B278" s="63"/>
+      <c r="C278" s="88"/>
       <c r="D278" s="20" t="s">
         <v>398</v>
       </c>
       <c r="E278" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F278" s="55"/>
+      <c r="F278" s="60"/>
       <c r="G278" s="35"/>
       <c r="H278" s="33"/>
       <c r="I278" s="33"/>
@@ -8798,16 +8910,16 @@
       </c>
     </row>
     <row r="279" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="112"/>
-      <c r="B279" s="69"/>
-      <c r="C279" s="66"/>
+      <c r="A279" s="73"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="88"/>
       <c r="D279" s="20" t="s">
         <v>399</v>
       </c>
       <c r="E279" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F279" s="55"/>
+      <c r="F279" s="60"/>
       <c r="G279" s="35"/>
       <c r="H279" s="33"/>
       <c r="I279" s="33"/>
@@ -8816,16 +8928,16 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="112"/>
-      <c r="B280" s="69"/>
-      <c r="C280" s="67"/>
+      <c r="A280" s="73"/>
+      <c r="B280" s="63"/>
+      <c r="C280" s="116"/>
       <c r="D280" s="20" t="s">
         <v>400</v>
       </c>
       <c r="E280" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F280" s="55"/>
+      <c r="F280" s="60"/>
       <c r="G280" s="35"/>
       <c r="H280" s="33"/>
       <c r="I280" s="33"/>
@@ -8834,9 +8946,9 @@
       </c>
     </row>
     <row r="281" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="112"/>
-      <c r="B281" s="69"/>
-      <c r="C281" s="68" t="s">
+      <c r="A281" s="73"/>
+      <c r="B281" s="63"/>
+      <c r="C281" s="62" t="s">
         <v>401</v>
       </c>
       <c r="D281" s="20" t="s">
@@ -8845,7 +8957,7 @@
       <c r="E281" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F281" s="55"/>
+      <c r="F281" s="60"/>
       <c r="G281" s="35"/>
       <c r="H281" s="33"/>
       <c r="I281" s="33"/>
@@ -8854,16 +8966,16 @@
       </c>
     </row>
     <row r="282" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="112"/>
-      <c r="B282" s="69"/>
-      <c r="C282" s="68"/>
+      <c r="A282" s="73"/>
+      <c r="B282" s="63"/>
+      <c r="C282" s="62"/>
       <c r="D282" s="20" t="s">
         <v>403</v>
       </c>
       <c r="E282" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F282" s="55"/>
+      <c r="F282" s="60"/>
       <c r="G282" s="35"/>
       <c r="H282" s="33"/>
       <c r="I282" s="33"/>
@@ -8872,16 +8984,16 @@
       </c>
     </row>
     <row r="283" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="112"/>
-      <c r="B283" s="69"/>
-      <c r="C283" s="68"/>
+      <c r="A283" s="73"/>
+      <c r="B283" s="63"/>
+      <c r="C283" s="62"/>
       <c r="D283" s="20" t="s">
         <v>404</v>
       </c>
       <c r="E283" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F283" s="55"/>
+      <c r="F283" s="60"/>
       <c r="G283" s="35"/>
       <c r="H283" s="33"/>
       <c r="I283" s="33"/>
@@ -8890,16 +9002,16 @@
       </c>
     </row>
     <row r="284" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="113"/>
-      <c r="B284" s="69"/>
-      <c r="C284" s="68"/>
+      <c r="A284" s="74"/>
+      <c r="B284" s="63"/>
+      <c r="C284" s="62"/>
       <c r="D284" s="20" t="s">
         <v>405</v>
       </c>
       <c r="E284" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F284" s="55"/>
+      <c r="F284" s="60"/>
       <c r="G284" s="35"/>
       <c r="H284" s="33"/>
       <c r="I284" s="33"/>
@@ -8908,13 +9020,13 @@
       </c>
     </row>
     <row r="285" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="87" t="s">
+      <c r="A285" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="B285" s="114" t="s">
+      <c r="B285" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="C285" s="105" t="s">
+      <c r="C285" s="95" t="s">
         <v>413</v>
       </c>
       <c r="D285" s="20" t="s">
@@ -8923,7 +9035,7 @@
       <c r="E285" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F285" s="55"/>
+      <c r="F285" s="60"/>
       <c r="G285" s="36"/>
       <c r="H285" s="33"/>
       <c r="I285" s="33"/>
@@ -8932,16 +9044,16 @@
       </c>
     </row>
     <row r="286" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="87"/>
-      <c r="B286" s="115"/>
-      <c r="C286" s="61"/>
+      <c r="A286" s="64"/>
+      <c r="B286" s="76"/>
+      <c r="C286" s="96"/>
       <c r="D286" s="20" t="s">
         <v>409</v>
       </c>
       <c r="E286" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F286" s="55"/>
+      <c r="F286" s="60"/>
       <c r="G286" s="36"/>
       <c r="H286" s="33"/>
       <c r="I286" s="33"/>
@@ -8950,16 +9062,16 @@
       </c>
     </row>
     <row r="287" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="87"/>
-      <c r="B287" s="115"/>
-      <c r="C287" s="61"/>
+      <c r="A287" s="64"/>
+      <c r="B287" s="76"/>
+      <c r="C287" s="96"/>
       <c r="D287" s="20" t="s">
         <v>410</v>
       </c>
       <c r="E287" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F287" s="55"/>
+      <c r="F287" s="60"/>
       <c r="G287" s="36"/>
       <c r="H287" s="33"/>
       <c r="I287" s="33"/>
@@ -8968,16 +9080,16 @@
       </c>
     </row>
     <row r="288" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="87"/>
-      <c r="B288" s="115"/>
-      <c r="C288" s="61"/>
+      <c r="A288" s="64"/>
+      <c r="B288" s="76"/>
+      <c r="C288" s="96"/>
       <c r="D288" s="20" t="s">
         <v>411</v>
       </c>
       <c r="E288" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F288" s="55"/>
+      <c r="F288" s="60"/>
       <c r="G288" s="36"/>
       <c r="H288" s="33"/>
       <c r="I288" s="33"/>
@@ -8986,9 +9098,9 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="89"/>
-      <c r="B289" s="115"/>
-      <c r="C289" s="60" t="s">
+      <c r="A289" s="65"/>
+      <c r="B289" s="76"/>
+      <c r="C289" s="66" t="s">
         <v>414</v>
       </c>
       <c r="D289" s="20" t="s">
@@ -8997,7 +9109,7 @@
       <c r="E289" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F289" s="55"/>
+      <c r="F289" s="60"/>
       <c r="G289" s="38"/>
       <c r="H289" s="33"/>
       <c r="I289" s="33"/>
@@ -9006,16 +9118,16 @@
       </c>
     </row>
     <row r="290" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="89"/>
-      <c r="B290" s="115"/>
-      <c r="C290" s="100"/>
+      <c r="A290" s="65"/>
+      <c r="B290" s="76"/>
+      <c r="C290" s="67"/>
       <c r="D290" s="20" t="s">
         <v>415</v>
       </c>
       <c r="E290" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F290" s="55"/>
+      <c r="F290" s="60"/>
       <c r="G290" s="37"/>
       <c r="H290" s="33"/>
       <c r="I290" s="33"/>
@@ -9024,16 +9136,16 @@
       </c>
     </row>
     <row r="291" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="89"/>
-      <c r="B291" s="115"/>
-      <c r="C291" s="100"/>
+      <c r="A291" s="65"/>
+      <c r="B291" s="76"/>
+      <c r="C291" s="67"/>
       <c r="D291" s="20" t="s">
         <v>416</v>
       </c>
       <c r="E291" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F291" s="55"/>
+      <c r="F291" s="60"/>
       <c r="G291" s="37"/>
       <c r="H291" s="33"/>
       <c r="I291" s="33"/>
@@ -9042,16 +9154,16 @@
       </c>
     </row>
     <row r="292" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="89"/>
-      <c r="B292" s="115"/>
-      <c r="C292" s="100"/>
+      <c r="A292" s="65"/>
+      <c r="B292" s="76"/>
+      <c r="C292" s="67"/>
       <c r="D292" s="20" t="s">
         <v>417</v>
       </c>
       <c r="E292" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F292" s="55"/>
+      <c r="F292" s="60"/>
       <c r="G292" s="37"/>
       <c r="H292" s="33"/>
       <c r="I292" s="33"/>
@@ -9060,9 +9172,9 @@
       </c>
     </row>
     <row r="293" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="89"/>
-      <c r="B293" s="115"/>
-      <c r="C293" s="56" t="s">
+      <c r="A293" s="65"/>
+      <c r="B293" s="76"/>
+      <c r="C293" s="78" t="s">
         <v>423</v>
       </c>
       <c r="D293" s="20" t="s">
@@ -9071,7 +9183,7 @@
       <c r="E293" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F293" s="55"/>
+      <c r="F293" s="60"/>
       <c r="G293" s="35"/>
       <c r="H293" s="33"/>
       <c r="I293" s="33"/>
@@ -9080,16 +9192,16 @@
       </c>
     </row>
     <row r="294" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="89"/>
-      <c r="B294" s="115"/>
-      <c r="C294" s="57"/>
+      <c r="A294" s="65"/>
+      <c r="B294" s="76"/>
+      <c r="C294" s="79"/>
       <c r="D294" s="20" t="s">
         <v>419</v>
       </c>
       <c r="E294" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F294" s="55"/>
+      <c r="F294" s="60"/>
       <c r="G294" s="35"/>
       <c r="H294" s="33"/>
       <c r="I294" s="33"/>
@@ -9098,16 +9210,16 @@
       </c>
     </row>
     <row r="295" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="89"/>
-      <c r="B295" s="115"/>
-      <c r="C295" s="57"/>
+      <c r="A295" s="65"/>
+      <c r="B295" s="76"/>
+      <c r="C295" s="79"/>
       <c r="D295" s="20" t="s">
         <v>420</v>
       </c>
       <c r="E295" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F295" s="55"/>
+      <c r="F295" s="60"/>
       <c r="G295" s="35"/>
       <c r="H295" s="33"/>
       <c r="I295" s="33"/>
@@ -9116,16 +9228,16 @@
       </c>
     </row>
     <row r="296" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="89"/>
-      <c r="B296" s="115"/>
-      <c r="C296" s="58"/>
+      <c r="A296" s="65"/>
+      <c r="B296" s="76"/>
+      <c r="C296" s="80"/>
       <c r="D296" s="20" t="s">
         <v>421</v>
       </c>
       <c r="E296" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F296" s="55"/>
+      <c r="F296" s="60"/>
       <c r="G296" s="35"/>
       <c r="H296" s="33"/>
       <c r="I296" s="33"/>
@@ -9134,9 +9246,9 @@
       </c>
     </row>
     <row r="297" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="89"/>
-      <c r="B297" s="115"/>
-      <c r="C297" s="56" t="s">
+      <c r="A297" s="65"/>
+      <c r="B297" s="76"/>
+      <c r="C297" s="78" t="s">
         <v>431</v>
       </c>
       <c r="D297" s="20" t="s">
@@ -9145,7 +9257,7 @@
       <c r="E297" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F297" s="55"/>
+      <c r="F297" s="60"/>
       <c r="G297" s="35"/>
       <c r="H297" s="33"/>
       <c r="I297" s="33"/>
@@ -9154,16 +9266,16 @@
       </c>
     </row>
     <row r="298" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="89"/>
-      <c r="B298" s="115"/>
-      <c r="C298" s="57"/>
+      <c r="A298" s="65"/>
+      <c r="B298" s="76"/>
+      <c r="C298" s="79"/>
       <c r="D298" s="20" t="s">
         <v>424</v>
       </c>
       <c r="E298" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F298" s="55"/>
+      <c r="F298" s="60"/>
       <c r="G298" s="35"/>
       <c r="H298" s="33"/>
       <c r="I298" s="33"/>
@@ -9172,16 +9284,16 @@
       </c>
     </row>
     <row r="299" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="89"/>
-      <c r="B299" s="115"/>
-      <c r="C299" s="57"/>
+      <c r="A299" s="65"/>
+      <c r="B299" s="76"/>
+      <c r="C299" s="79"/>
       <c r="D299" s="20" t="s">
         <v>425</v>
       </c>
       <c r="E299" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F299" s="55"/>
+      <c r="F299" s="60"/>
       <c r="G299" s="35"/>
       <c r="H299" s="33"/>
       <c r="I299" s="33"/>
@@ -9190,16 +9302,16 @@
       </c>
     </row>
     <row r="300" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="89"/>
-      <c r="B300" s="115"/>
-      <c r="C300" s="58"/>
+      <c r="A300" s="65"/>
+      <c r="B300" s="76"/>
+      <c r="C300" s="80"/>
       <c r="D300" s="20" t="s">
         <v>426</v>
       </c>
       <c r="E300" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F300" s="55"/>
+      <c r="F300" s="60"/>
       <c r="G300" s="35"/>
       <c r="H300" s="33"/>
       <c r="I300" s="33"/>
@@ -9208,9 +9320,9 @@
       </c>
     </row>
     <row r="301" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="89"/>
-      <c r="B301" s="115"/>
-      <c r="C301" s="56" t="s">
+      <c r="A301" s="65"/>
+      <c r="B301" s="76"/>
+      <c r="C301" s="78" t="s">
         <v>432</v>
       </c>
       <c r="D301" s="20" t="s">
@@ -9219,7 +9331,7 @@
       <c r="E301" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F301" s="55"/>
+      <c r="F301" s="60"/>
       <c r="G301" s="35"/>
       <c r="H301" s="33"/>
       <c r="I301" s="33"/>
@@ -9228,16 +9340,16 @@
       </c>
     </row>
     <row r="302" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="89"/>
-      <c r="B302" s="115"/>
-      <c r="C302" s="57"/>
+      <c r="A302" s="65"/>
+      <c r="B302" s="76"/>
+      <c r="C302" s="79"/>
       <c r="D302" s="20" t="s">
         <v>428</v>
       </c>
       <c r="E302" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F302" s="55"/>
+      <c r="F302" s="60"/>
       <c r="G302" s="35"/>
       <c r="H302" s="33"/>
       <c r="I302" s="33"/>
@@ -9246,16 +9358,16 @@
       </c>
     </row>
     <row r="303" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="89"/>
-      <c r="B303" s="115"/>
-      <c r="C303" s="57"/>
+      <c r="A303" s="65"/>
+      <c r="B303" s="76"/>
+      <c r="C303" s="79"/>
       <c r="D303" s="20" t="s">
         <v>429</v>
       </c>
       <c r="E303" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F303" s="55"/>
+      <c r="F303" s="60"/>
       <c r="G303" s="35"/>
       <c r="H303" s="33"/>
       <c r="I303" s="33"/>
@@ -9264,16 +9376,16 @@
       </c>
     </row>
     <row r="304" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="89"/>
-      <c r="B304" s="116"/>
-      <c r="C304" s="58"/>
+      <c r="A304" s="65"/>
+      <c r="B304" s="77"/>
+      <c r="C304" s="80"/>
       <c r="D304" s="20" t="s">
         <v>430</v>
       </c>
       <c r="E304" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F304" s="55"/>
+      <c r="F304" s="60"/>
       <c r="G304" s="35"/>
       <c r="H304" s="33"/>
       <c r="I304" s="33"/>
@@ -9283,14 +9395,14 @@
     </row>
     <row r="305" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
-      <c r="B305" s="86" t="s">
+      <c r="B305" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C305" s="86"/>
-      <c r="D305" s="86"/>
-      <c r="E305" s="86"/>
-      <c r="F305" s="86"/>
-      <c r="G305" s="86"/>
+      <c r="C305" s="71"/>
+      <c r="D305" s="71"/>
+      <c r="E305" s="71"/>
+      <c r="F305" s="71"/>
+      <c r="G305" s="71"/>
       <c r="H305" s="32" t="s">
         <v>1</v>
       </c>
@@ -9312,23 +9424,23 @@
     </row>
     <row r="306" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
-      <c r="B306" s="86"/>
-      <c r="C306" s="86"/>
-      <c r="D306" s="86"/>
-      <c r="E306" s="86"/>
-      <c r="F306" s="86"/>
-      <c r="G306" s="86"/>
-      <c r="H306" s="93">
+      <c r="B306" s="71"/>
+      <c r="C306" s="71"/>
+      <c r="D306" s="71"/>
+      <c r="E306" s="71"/>
+      <c r="F306" s="71"/>
+      <c r="G306" s="71"/>
+      <c r="H306" s="54">
         <v>43299</v>
       </c>
-      <c r="I306" s="93">
+      <c r="I306" s="54">
         <v>43299</v>
       </c>
-      <c r="J306" s="91">
+      <c r="J306" s="56">
         <f>AVERAGE(J309:J332)</f>
         <v>0</v>
       </c>
-      <c r="K306" s="54">
+      <c r="K306" s="112">
         <f>SUM(F309:F332)</f>
         <v>0</v>
       </c>
@@ -9338,16 +9450,16 @@
     </row>
     <row r="307" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
-      <c r="B307" s="86"/>
-      <c r="C307" s="86"/>
-      <c r="D307" s="86"/>
-      <c r="E307" s="86"/>
-      <c r="F307" s="86"/>
-      <c r="G307" s="86"/>
-      <c r="H307" s="94"/>
-      <c r="I307" s="94"/>
-      <c r="J307" s="92"/>
-      <c r="K307" s="54"/>
+      <c r="B307" s="71"/>
+      <c r="C307" s="71"/>
+      <c r="D307" s="71"/>
+      <c r="E307" s="71"/>
+      <c r="F307" s="71"/>
+      <c r="G307" s="71"/>
+      <c r="H307" s="55"/>
+      <c r="I307" s="55"/>
+      <c r="J307" s="57"/>
+      <c r="K307" s="112"/>
       <c r="L307" s="14"/>
       <c r="M307" s="14"/>
     </row>
@@ -9387,10 +9499,10 @@
       <c r="A309" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B309" s="60" t="s">
+      <c r="B309" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="C309" s="60" t="s">
+      <c r="C309" s="66" t="s">
         <v>437</v>
       </c>
       <c r="D309" s="10" t="s">
@@ -9399,7 +9511,7 @@
       <c r="E309" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F309" s="55"/>
+      <c r="F309" s="60"/>
       <c r="G309" s="38"/>
       <c r="H309" s="33"/>
       <c r="I309" s="33"/>
@@ -9409,15 +9521,15 @@
     </row>
     <row r="310" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="98"/>
-      <c r="B310" s="61"/>
-      <c r="C310" s="61"/>
+      <c r="B310" s="96"/>
+      <c r="C310" s="96"/>
       <c r="D310" s="10" t="s">
         <v>434</v>
       </c>
       <c r="E310" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F310" s="55"/>
+      <c r="F310" s="60"/>
       <c r="G310" s="38"/>
       <c r="H310" s="33"/>
       <c r="I310" s="33"/>
@@ -9427,15 +9539,15 @@
     </row>
     <row r="311" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="98"/>
-      <c r="B311" s="61"/>
-      <c r="C311" s="61"/>
+      <c r="B311" s="96"/>
+      <c r="C311" s="96"/>
       <c r="D311" s="10" t="s">
         <v>435</v>
       </c>
       <c r="E311" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F311" s="55"/>
+      <c r="F311" s="60"/>
       <c r="G311" s="38"/>
       <c r="H311" s="33"/>
       <c r="I311" s="33"/>
@@ -9445,15 +9557,15 @@
     </row>
     <row r="312" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="99"/>
-      <c r="B312" s="100"/>
-      <c r="C312" s="100"/>
+      <c r="B312" s="67"/>
+      <c r="C312" s="67"/>
       <c r="D312" s="10" t="s">
         <v>436</v>
       </c>
       <c r="E312" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F312" s="55"/>
+      <c r="F312" s="60"/>
       <c r="G312" s="37"/>
       <c r="H312" s="33"/>
       <c r="I312" s="33"/>
@@ -9462,13 +9574,13 @@
       </c>
     </row>
     <row r="313" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="87" t="s">
+      <c r="A313" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B313" s="75" t="s">
+      <c r="B313" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="C313" s="60" t="s">
+      <c r="C313" s="66" t="s">
         <v>438</v>
       </c>
       <c r="D313" s="10" t="s">
@@ -9477,7 +9589,7 @@
       <c r="E313" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F313" s="55"/>
+      <c r="F313" s="60"/>
       <c r="G313" s="38"/>
       <c r="H313" s="33"/>
       <c r="I313" s="33"/>
@@ -9486,16 +9598,16 @@
       </c>
     </row>
     <row r="314" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="89"/>
-      <c r="B314" s="76"/>
-      <c r="C314" s="100"/>
+      <c r="A314" s="65"/>
+      <c r="B314" s="69"/>
+      <c r="C314" s="67"/>
       <c r="D314" s="10" t="s">
         <v>442</v>
       </c>
       <c r="E314" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F314" s="55"/>
+      <c r="F314" s="60"/>
       <c r="G314" s="37"/>
       <c r="H314" s="33"/>
       <c r="I314" s="33"/>
@@ -9504,16 +9616,16 @@
       </c>
     </row>
     <row r="315" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="89"/>
-      <c r="B315" s="76"/>
-      <c r="C315" s="100"/>
+      <c r="A315" s="65"/>
+      <c r="B315" s="69"/>
+      <c r="C315" s="67"/>
       <c r="D315" s="10" t="s">
         <v>443</v>
       </c>
       <c r="E315" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F315" s="55"/>
+      <c r="F315" s="60"/>
       <c r="G315" s="37"/>
       <c r="H315" s="33"/>
       <c r="I315" s="33"/>
@@ -9522,16 +9634,16 @@
       </c>
     </row>
     <row r="316" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="89"/>
-      <c r="B316" s="76"/>
-      <c r="C316" s="100"/>
+      <c r="A316" s="65"/>
+      <c r="B316" s="69"/>
+      <c r="C316" s="67"/>
       <c r="D316" s="10" t="s">
         <v>444</v>
       </c>
       <c r="E316" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F316" s="55"/>
+      <c r="F316" s="60"/>
       <c r="G316" s="37"/>
       <c r="H316" s="33"/>
       <c r="I316" s="33"/>
@@ -9540,9 +9652,9 @@
       </c>
     </row>
     <row r="317" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="89"/>
-      <c r="B317" s="76"/>
-      <c r="C317" s="60" t="s">
+      <c r="A317" s="65"/>
+      <c r="B317" s="69"/>
+      <c r="C317" s="66" t="s">
         <v>439</v>
       </c>
       <c r="D317" s="10" t="s">
@@ -9551,7 +9663,7 @@
       <c r="E317" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F317" s="55"/>
+      <c r="F317" s="60"/>
       <c r="G317" s="38"/>
       <c r="H317" s="33"/>
       <c r="I317" s="33"/>
@@ -9560,16 +9672,16 @@
       </c>
     </row>
     <row r="318" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="89"/>
-      <c r="B318" s="76"/>
-      <c r="C318" s="100"/>
+      <c r="A318" s="65"/>
+      <c r="B318" s="69"/>
+      <c r="C318" s="67"/>
       <c r="D318" s="10" t="s">
         <v>446</v>
       </c>
       <c r="E318" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F318" s="55"/>
+      <c r="F318" s="60"/>
       <c r="G318" s="37"/>
       <c r="H318" s="33"/>
       <c r="I318" s="33"/>
@@ -9578,16 +9690,16 @@
       </c>
     </row>
     <row r="319" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="89"/>
-      <c r="B319" s="76"/>
-      <c r="C319" s="100"/>
+      <c r="A319" s="65"/>
+      <c r="B319" s="69"/>
+      <c r="C319" s="67"/>
       <c r="D319" s="10" t="s">
         <v>447</v>
       </c>
       <c r="E319" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F319" s="55"/>
+      <c r="F319" s="60"/>
       <c r="G319" s="37"/>
       <c r="H319" s="33"/>
       <c r="I319" s="33"/>
@@ -9596,16 +9708,16 @@
       </c>
     </row>
     <row r="320" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="89"/>
-      <c r="B320" s="76"/>
-      <c r="C320" s="100"/>
+      <c r="A320" s="65"/>
+      <c r="B320" s="69"/>
+      <c r="C320" s="67"/>
       <c r="D320" s="10" t="s">
         <v>448</v>
       </c>
       <c r="E320" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F320" s="55"/>
+      <c r="F320" s="60"/>
       <c r="G320" s="37"/>
       <c r="H320" s="33"/>
       <c r="I320" s="33"/>
@@ -9614,9 +9726,9 @@
       </c>
     </row>
     <row r="321" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="89"/>
-      <c r="B321" s="76"/>
-      <c r="C321" s="60" t="s">
+      <c r="A321" s="65"/>
+      <c r="B321" s="69"/>
+      <c r="C321" s="66" t="s">
         <v>440</v>
       </c>
       <c r="D321" s="10" t="s">
@@ -9625,7 +9737,7 @@
       <c r="E321" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F321" s="55"/>
+      <c r="F321" s="60"/>
       <c r="G321" s="35"/>
       <c r="H321" s="33"/>
       <c r="I321" s="33"/>
@@ -9634,16 +9746,16 @@
       </c>
     </row>
     <row r="322" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="89"/>
-      <c r="B322" s="76"/>
-      <c r="C322" s="100"/>
+      <c r="A322" s="65"/>
+      <c r="B322" s="69"/>
+      <c r="C322" s="67"/>
       <c r="D322" s="10" t="s">
         <v>450</v>
       </c>
       <c r="E322" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F322" s="55"/>
+      <c r="F322" s="60"/>
       <c r="G322" s="35"/>
       <c r="H322" s="33"/>
       <c r="I322" s="33"/>
@@ -9652,16 +9764,16 @@
       </c>
     </row>
     <row r="323" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="89"/>
-      <c r="B323" s="76"/>
-      <c r="C323" s="100"/>
+      <c r="A323" s="65"/>
+      <c r="B323" s="69"/>
+      <c r="C323" s="67"/>
       <c r="D323" s="10" t="s">
         <v>451</v>
       </c>
       <c r="E323" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F323" s="55"/>
+      <c r="F323" s="60"/>
       <c r="G323" s="35"/>
       <c r="H323" s="33"/>
       <c r="I323" s="33"/>
@@ -9670,16 +9782,16 @@
       </c>
     </row>
     <row r="324" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="89"/>
-      <c r="B324" s="76"/>
-      <c r="C324" s="100"/>
+      <c r="A324" s="65"/>
+      <c r="B324" s="69"/>
+      <c r="C324" s="67"/>
       <c r="D324" s="10" t="s">
         <v>452</v>
       </c>
       <c r="E324" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F324" s="55"/>
+      <c r="F324" s="60"/>
       <c r="G324" s="35"/>
       <c r="H324" s="33"/>
       <c r="I324" s="33"/>
@@ -9688,9 +9800,9 @@
       </c>
     </row>
     <row r="325" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="89"/>
-      <c r="B325" s="76"/>
-      <c r="C325" s="56" t="s">
+      <c r="A325" s="65"/>
+      <c r="B325" s="69"/>
+      <c r="C325" s="78" t="s">
         <v>453</v>
       </c>
       <c r="D325" s="10" t="s">
@@ -9699,7 +9811,7 @@
       <c r="E325" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F325" s="55"/>
+      <c r="F325" s="60"/>
       <c r="G325" s="35"/>
       <c r="H325" s="33"/>
       <c r="I325" s="33"/>
@@ -9708,16 +9820,16 @@
       </c>
     </row>
     <row r="326" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="89"/>
-      <c r="B326" s="76"/>
-      <c r="C326" s="57"/>
+      <c r="A326" s="65"/>
+      <c r="B326" s="69"/>
+      <c r="C326" s="79"/>
       <c r="D326" s="10" t="s">
         <v>455</v>
       </c>
       <c r="E326" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F326" s="55"/>
+      <c r="F326" s="60"/>
       <c r="G326" s="35"/>
       <c r="H326" s="33"/>
       <c r="I326" s="33"/>
@@ -9726,16 +9838,16 @@
       </c>
     </row>
     <row r="327" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="89"/>
-      <c r="B327" s="76"/>
-      <c r="C327" s="57"/>
+      <c r="A327" s="65"/>
+      <c r="B327" s="69"/>
+      <c r="C327" s="79"/>
       <c r="D327" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E327" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F327" s="55"/>
+      <c r="F327" s="60"/>
       <c r="G327" s="35"/>
       <c r="H327" s="33"/>
       <c r="I327" s="33"/>
@@ -9744,16 +9856,16 @@
       </c>
     </row>
     <row r="328" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="89"/>
-      <c r="B328" s="76"/>
-      <c r="C328" s="58"/>
+      <c r="A328" s="65"/>
+      <c r="B328" s="69"/>
+      <c r="C328" s="80"/>
       <c r="D328" s="10" t="s">
         <v>457</v>
       </c>
       <c r="E328" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F328" s="55"/>
+      <c r="F328" s="60"/>
       <c r="G328" s="35"/>
       <c r="H328" s="33"/>
       <c r="I328" s="33"/>
@@ -9762,9 +9874,9 @@
       </c>
     </row>
     <row r="329" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="89"/>
-      <c r="B329" s="76"/>
-      <c r="C329" s="56" t="s">
+      <c r="A329" s="65"/>
+      <c r="B329" s="69"/>
+      <c r="C329" s="78" t="s">
         <v>458</v>
       </c>
       <c r="D329" s="10" t="s">
@@ -9773,7 +9885,7 @@
       <c r="E329" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F329" s="55"/>
+      <c r="F329" s="60"/>
       <c r="G329" s="35"/>
       <c r="H329" s="33"/>
       <c r="I329" s="33"/>
@@ -9782,16 +9894,16 @@
       </c>
     </row>
     <row r="330" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="89"/>
-      <c r="B330" s="76"/>
-      <c r="C330" s="57"/>
+      <c r="A330" s="65"/>
+      <c r="B330" s="69"/>
+      <c r="C330" s="79"/>
       <c r="D330" s="10" t="s">
         <v>460</v>
       </c>
       <c r="E330" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F330" s="55"/>
+      <c r="F330" s="60"/>
       <c r="G330" s="35"/>
       <c r="H330" s="33"/>
       <c r="I330" s="33"/>
@@ -9800,16 +9912,16 @@
       </c>
     </row>
     <row r="331" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="89"/>
-      <c r="B331" s="76"/>
-      <c r="C331" s="57"/>
+      <c r="A331" s="65"/>
+      <c r="B331" s="69"/>
+      <c r="C331" s="79"/>
       <c r="D331" s="10" t="s">
         <v>461</v>
       </c>
       <c r="E331" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F331" s="55"/>
+      <c r="F331" s="60"/>
       <c r="G331" s="35"/>
       <c r="H331" s="33"/>
       <c r="I331" s="33"/>
@@ -9818,16 +9930,16 @@
       </c>
     </row>
     <row r="332" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="89"/>
-      <c r="B332" s="77"/>
-      <c r="C332" s="58"/>
+      <c r="A332" s="65"/>
+      <c r="B332" s="70"/>
+      <c r="C332" s="80"/>
       <c r="D332" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E332" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F332" s="55"/>
+      <c r="F332" s="60"/>
       <c r="G332" s="35"/>
       <c r="H332" s="33"/>
       <c r="I332" s="33"/>
@@ -9837,14 +9949,14 @@
     </row>
     <row r="333" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
-      <c r="B333" s="86" t="s">
+      <c r="B333" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="86"/>
-      <c r="D333" s="86"/>
-      <c r="E333" s="86"/>
-      <c r="F333" s="86"/>
-      <c r="G333" s="86"/>
+      <c r="C333" s="71"/>
+      <c r="D333" s="71"/>
+      <c r="E333" s="71"/>
+      <c r="F333" s="71"/>
+      <c r="G333" s="71"/>
       <c r="H333" s="32" t="s">
         <v>1</v>
       </c>
@@ -9866,23 +9978,23 @@
     </row>
     <row r="334" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
-      <c r="B334" s="86"/>
-      <c r="C334" s="86"/>
-      <c r="D334" s="86"/>
-      <c r="E334" s="86"/>
-      <c r="F334" s="86"/>
-      <c r="G334" s="86"/>
-      <c r="H334" s="93">
+      <c r="B334" s="71"/>
+      <c r="C334" s="71"/>
+      <c r="D334" s="71"/>
+      <c r="E334" s="71"/>
+      <c r="F334" s="71"/>
+      <c r="G334" s="71"/>
+      <c r="H334" s="54">
         <v>43300</v>
       </c>
-      <c r="I334" s="93">
+      <c r="I334" s="54">
         <v>43301</v>
       </c>
-      <c r="J334" s="91">
+      <c r="J334" s="56">
         <f>AVERAGE(J337:J354)</f>
         <v>0</v>
       </c>
-      <c r="K334" s="54">
+      <c r="K334" s="112">
         <f>SUM(F337:F354)</f>
         <v>0</v>
       </c>
@@ -9892,16 +10004,16 @@
     </row>
     <row r="335" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
-      <c r="B335" s="86"/>
-      <c r="C335" s="86"/>
-      <c r="D335" s="86"/>
-      <c r="E335" s="86"/>
-      <c r="F335" s="86"/>
-      <c r="G335" s="86"/>
-      <c r="H335" s="94"/>
-      <c r="I335" s="94"/>
-      <c r="J335" s="92"/>
-      <c r="K335" s="54"/>
+      <c r="B335" s="71"/>
+      <c r="C335" s="71"/>
+      <c r="D335" s="71"/>
+      <c r="E335" s="71"/>
+      <c r="F335" s="71"/>
+      <c r="G335" s="71"/>
+      <c r="H335" s="55"/>
+      <c r="I335" s="55"/>
+      <c r="J335" s="57"/>
+      <c r="K335" s="112"/>
       <c r="L335" s="14"/>
       <c r="M335" s="14"/>
     </row>
@@ -9938,13 +10050,13 @@
       </c>
     </row>
     <row r="337" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="103" t="s">
+      <c r="A337" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B337" s="69" t="s">
+      <c r="B337" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C337" s="108" t="s">
+      <c r="C337" s="58" t="s">
         <v>239</v>
       </c>
       <c r="D337" s="10" t="s">
@@ -9953,7 +10065,7 @@
       <c r="E337" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F337" s="55"/>
+      <c r="F337" s="60"/>
       <c r="G337" s="38"/>
       <c r="H337" s="33"/>
       <c r="I337" s="33"/>
@@ -9962,16 +10074,16 @@
       </c>
     </row>
     <row r="338" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="103"/>
-      <c r="B338" s="69"/>
-      <c r="C338" s="109"/>
+      <c r="A338" s="61"/>
+      <c r="B338" s="63"/>
+      <c r="C338" s="59"/>
       <c r="D338" s="10" t="s">
         <v>259</v>
       </c>
       <c r="E338" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F338" s="55"/>
+      <c r="F338" s="60"/>
       <c r="G338" s="37"/>
       <c r="H338" s="33"/>
       <c r="I338" s="33"/>
@@ -9980,16 +10092,16 @@
       </c>
     </row>
     <row r="339" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="103"/>
-      <c r="B339" s="69"/>
-      <c r="C339" s="109"/>
+      <c r="A339" s="61"/>
+      <c r="B339" s="63"/>
+      <c r="C339" s="59"/>
       <c r="D339" s="10" t="s">
         <v>260</v>
       </c>
       <c r="E339" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F339" s="55"/>
+      <c r="F339" s="60"/>
       <c r="G339" s="37"/>
       <c r="H339" s="33"/>
       <c r="I339" s="33"/>
@@ -9998,9 +10110,9 @@
       </c>
     </row>
     <row r="340" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="103"/>
-      <c r="B340" s="69"/>
-      <c r="C340" s="108" t="s">
+      <c r="A340" s="61"/>
+      <c r="B340" s="63"/>
+      <c r="C340" s="58" t="s">
         <v>252</v>
       </c>
       <c r="D340" s="10" t="s">
@@ -10009,7 +10121,7 @@
       <c r="E340" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F340" s="55"/>
+      <c r="F340" s="60"/>
       <c r="G340" s="38"/>
       <c r="H340" s="33"/>
       <c r="I340" s="33"/>
@@ -10018,16 +10130,16 @@
       </c>
     </row>
     <row r="341" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="103"/>
-      <c r="B341" s="69"/>
-      <c r="C341" s="109"/>
+      <c r="A341" s="61"/>
+      <c r="B341" s="63"/>
+      <c r="C341" s="59"/>
       <c r="D341" s="10" t="s">
         <v>262</v>
       </c>
       <c r="E341" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F341" s="55"/>
+      <c r="F341" s="60"/>
       <c r="G341" s="37"/>
       <c r="H341" s="33"/>
       <c r="I341" s="33"/>
@@ -10036,16 +10148,16 @@
       </c>
     </row>
     <row r="342" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="103"/>
-      <c r="B342" s="69"/>
-      <c r="C342" s="109"/>
+      <c r="A342" s="61"/>
+      <c r="B342" s="63"/>
+      <c r="C342" s="59"/>
       <c r="D342" s="10" t="s">
         <v>263</v>
       </c>
       <c r="E342" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F342" s="55"/>
+      <c r="F342" s="60"/>
       <c r="G342" s="37"/>
       <c r="H342" s="33"/>
       <c r="I342" s="33"/>
@@ -10054,9 +10166,9 @@
       </c>
     </row>
     <row r="343" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="103"/>
-      <c r="B343" s="69"/>
-      <c r="C343" s="68" t="s">
+      <c r="A343" s="61"/>
+      <c r="B343" s="63"/>
+      <c r="C343" s="62" t="s">
         <v>253</v>
       </c>
       <c r="D343" s="20" t="s">
@@ -10065,7 +10177,7 @@
       <c r="E343" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F343" s="55"/>
+      <c r="F343" s="60"/>
       <c r="G343" s="35"/>
       <c r="H343" s="33"/>
       <c r="I343" s="33"/>
@@ -10074,16 +10186,16 @@
       </c>
     </row>
     <row r="344" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="103"/>
-      <c r="B344" s="69"/>
-      <c r="C344" s="68"/>
+      <c r="A344" s="61"/>
+      <c r="B344" s="63"/>
+      <c r="C344" s="62"/>
       <c r="D344" s="20" t="s">
         <v>265</v>
       </c>
       <c r="E344" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F344" s="55"/>
+      <c r="F344" s="60"/>
       <c r="G344" s="35"/>
       <c r="H344" s="33"/>
       <c r="I344" s="33"/>
@@ -10092,16 +10204,16 @@
       </c>
     </row>
     <row r="345" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="103"/>
-      <c r="B345" s="69"/>
-      <c r="C345" s="68"/>
+      <c r="A345" s="61"/>
+      <c r="B345" s="63"/>
+      <c r="C345" s="62"/>
       <c r="D345" s="20" t="s">
         <v>266</v>
       </c>
       <c r="E345" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F345" s="55"/>
+      <c r="F345" s="60"/>
       <c r="G345" s="35"/>
       <c r="H345" s="33"/>
       <c r="I345" s="33"/>
@@ -10110,9 +10222,9 @@
       </c>
     </row>
     <row r="346" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="103"/>
-      <c r="B346" s="69"/>
-      <c r="C346" s="108" t="s">
+      <c r="A346" s="61"/>
+      <c r="B346" s="63"/>
+      <c r="C346" s="58" t="s">
         <v>254</v>
       </c>
       <c r="D346" s="10" t="s">
@@ -10121,7 +10233,7 @@
       <c r="E346" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F346" s="55"/>
+      <c r="F346" s="60"/>
       <c r="G346" s="38"/>
       <c r="H346" s="33"/>
       <c r="I346" s="33"/>
@@ -10130,16 +10242,16 @@
       </c>
     </row>
     <row r="347" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="103"/>
-      <c r="B347" s="69"/>
-      <c r="C347" s="109"/>
+      <c r="A347" s="61"/>
+      <c r="B347" s="63"/>
+      <c r="C347" s="59"/>
       <c r="D347" s="10" t="s">
         <v>268</v>
       </c>
       <c r="E347" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F347" s="55"/>
+      <c r="F347" s="60"/>
       <c r="G347" s="37"/>
       <c r="H347" s="33"/>
       <c r="I347" s="33"/>
@@ -10148,16 +10260,16 @@
       </c>
     </row>
     <row r="348" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="103"/>
-      <c r="B348" s="69"/>
-      <c r="C348" s="109"/>
+      <c r="A348" s="61"/>
+      <c r="B348" s="63"/>
+      <c r="C348" s="59"/>
       <c r="D348" s="10" t="s">
         <v>269</v>
       </c>
       <c r="E348" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F348" s="55"/>
+      <c r="F348" s="60"/>
       <c r="G348" s="37"/>
       <c r="H348" s="33"/>
       <c r="I348" s="33"/>
@@ -10166,9 +10278,9 @@
       </c>
     </row>
     <row r="349" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="103"/>
-      <c r="B349" s="69"/>
-      <c r="C349" s="108" t="s">
+      <c r="A349" s="61"/>
+      <c r="B349" s="63"/>
+      <c r="C349" s="58" t="s">
         <v>255</v>
       </c>
       <c r="D349" s="10" t="s">
@@ -10177,7 +10289,7 @@
       <c r="E349" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F349" s="55"/>
+      <c r="F349" s="60"/>
       <c r="G349" s="38"/>
       <c r="H349" s="33"/>
       <c r="I349" s="33"/>
@@ -10186,16 +10298,16 @@
       </c>
     </row>
     <row r="350" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="103"/>
-      <c r="B350" s="69"/>
-      <c r="C350" s="109"/>
+      <c r="A350" s="61"/>
+      <c r="B350" s="63"/>
+      <c r="C350" s="59"/>
       <c r="D350" s="10" t="s">
         <v>271</v>
       </c>
       <c r="E350" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F350" s="55"/>
+      <c r="F350" s="60"/>
       <c r="G350" s="37"/>
       <c r="H350" s="33"/>
       <c r="I350" s="33"/>
@@ -10204,16 +10316,16 @@
       </c>
     </row>
     <row r="351" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="103"/>
-      <c r="B351" s="69"/>
-      <c r="C351" s="109"/>
+      <c r="A351" s="61"/>
+      <c r="B351" s="63"/>
+      <c r="C351" s="59"/>
       <c r="D351" s="10" t="s">
         <v>272</v>
       </c>
       <c r="E351" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F351" s="55"/>
+      <c r="F351" s="60"/>
       <c r="G351" s="37"/>
       <c r="H351" s="33"/>
       <c r="I351" s="33"/>
@@ -10222,9 +10334,9 @@
       </c>
     </row>
     <row r="352" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="103"/>
-      <c r="B352" s="69"/>
-      <c r="C352" s="68" t="s">
+      <c r="A352" s="61"/>
+      <c r="B352" s="63"/>
+      <c r="C352" s="62" t="s">
         <v>256</v>
       </c>
       <c r="D352" s="20" t="s">
@@ -10233,7 +10345,7 @@
       <c r="E352" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F352" s="55"/>
+      <c r="F352" s="60"/>
       <c r="G352" s="35"/>
       <c r="H352" s="33"/>
       <c r="I352" s="33"/>
@@ -10242,16 +10354,16 @@
       </c>
     </row>
     <row r="353" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="103"/>
-      <c r="B353" s="69"/>
-      <c r="C353" s="68"/>
+      <c r="A353" s="61"/>
+      <c r="B353" s="63"/>
+      <c r="C353" s="62"/>
       <c r="D353" s="20" t="s">
         <v>274</v>
       </c>
       <c r="E353" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F353" s="55"/>
+      <c r="F353" s="60"/>
       <c r="G353" s="35"/>
       <c r="H353" s="33"/>
       <c r="I353" s="33"/>
@@ -10260,16 +10372,16 @@
       </c>
     </row>
     <row r="354" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="103"/>
-      <c r="B354" s="69"/>
-      <c r="C354" s="68"/>
+      <c r="A354" s="61"/>
+      <c r="B354" s="63"/>
+      <c r="C354" s="62"/>
       <c r="D354" s="20" t="s">
         <v>275</v>
       </c>
       <c r="E354" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F354" s="55"/>
+      <c r="F354" s="60"/>
       <c r="G354" s="35"/>
       <c r="H354" s="33"/>
       <c r="I354" s="33"/>
@@ -11923,72 +12035,155 @@
     <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="239">
-    <mergeCell ref="H334:H335"/>
-    <mergeCell ref="I334:I335"/>
-    <mergeCell ref="J334:J335"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="F337:F339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="F340:F342"/>
-    <mergeCell ref="A337:A354"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="F346:F348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="F349:F351"/>
-    <mergeCell ref="C352:C354"/>
-    <mergeCell ref="F352:F354"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="F343:F345"/>
-    <mergeCell ref="B337:B354"/>
-    <mergeCell ref="A313:A332"/>
-    <mergeCell ref="C313:C316"/>
-    <mergeCell ref="F313:F316"/>
-    <mergeCell ref="C317:C320"/>
-    <mergeCell ref="F317:F320"/>
-    <mergeCell ref="C321:C324"/>
-    <mergeCell ref="F321:F324"/>
-    <mergeCell ref="B313:B332"/>
-    <mergeCell ref="B333:G335"/>
-    <mergeCell ref="A285:A304"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="F289:F292"/>
-    <mergeCell ref="C269:C272"/>
-    <mergeCell ref="F269:F272"/>
-    <mergeCell ref="A265:A284"/>
-    <mergeCell ref="B265:B284"/>
-    <mergeCell ref="B285:B304"/>
-    <mergeCell ref="C293:C296"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="C301:C304"/>
-    <mergeCell ref="F293:F296"/>
-    <mergeCell ref="F297:F300"/>
-    <mergeCell ref="A189:A204"/>
-    <mergeCell ref="C189:C192"/>
-    <mergeCell ref="F189:F192"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="F197:F200"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="F193:F196"/>
-    <mergeCell ref="C201:C204"/>
-    <mergeCell ref="H238:H239"/>
-    <mergeCell ref="B237:G239"/>
-    <mergeCell ref="F201:F204"/>
-    <mergeCell ref="A157:A172"/>
-    <mergeCell ref="A173:A188"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="F173:F176"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="F177:F180"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="F181:F184"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="F157:F160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="F161:F164"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="K306:K307"/>
+    <mergeCell ref="K334:K335"/>
+    <mergeCell ref="F301:F304"/>
+    <mergeCell ref="F285:F288"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="C329:C332"/>
+    <mergeCell ref="F329:F332"/>
+    <mergeCell ref="F325:F328"/>
+    <mergeCell ref="F281:F284"/>
+    <mergeCell ref="F277:F280"/>
+    <mergeCell ref="F253:F256"/>
+    <mergeCell ref="F257:F260"/>
+    <mergeCell ref="F265:F268"/>
+    <mergeCell ref="C233:C236"/>
+    <mergeCell ref="C253:C256"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="C265:C268"/>
+    <mergeCell ref="C277:C280"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="F185:F188"/>
+    <mergeCell ref="C281:C284"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="F129:F132"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="B121:B136"/>
+    <mergeCell ref="B141:B156"/>
+    <mergeCell ref="B157:B172"/>
+    <mergeCell ref="B173:B188"/>
+    <mergeCell ref="B189:B204"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B72"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="A5:G7"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A57:A72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="A141:A156"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="B41:B56"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="F309:F312"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="A41:A56"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="F81:F84"/>
+    <mergeCell ref="A121:A136"/>
+    <mergeCell ref="B77:B88"/>
+    <mergeCell ref="H306:H307"/>
+    <mergeCell ref="I306:I307"/>
+    <mergeCell ref="J306:J307"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="F221:F224"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="F225:F228"/>
+    <mergeCell ref="C229:C232"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="B305:G307"/>
+    <mergeCell ref="C261:C264"/>
+    <mergeCell ref="B137:G139"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="I238:I239"/>
+    <mergeCell ref="J238:J239"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="F273:F276"/>
+    <mergeCell ref="C285:C288"/>
+    <mergeCell ref="F233:F236"/>
+    <mergeCell ref="F217:F220"/>
+    <mergeCell ref="A105:A120"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="B89:B104"/>
+    <mergeCell ref="B105:B120"/>
+    <mergeCell ref="A89:A104"/>
+    <mergeCell ref="F117:F120"/>
+    <mergeCell ref="C117:C120"/>
     <mergeCell ref="A257:A264"/>
     <mergeCell ref="B257:B264"/>
     <mergeCell ref="B205:B220"/>
@@ -12013,155 +12208,72 @@
     <mergeCell ref="C249:C252"/>
     <mergeCell ref="F249:F252"/>
     <mergeCell ref="B241:B256"/>
-    <mergeCell ref="A105:A120"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="B89:B104"/>
-    <mergeCell ref="B105:B120"/>
-    <mergeCell ref="A89:A104"/>
-    <mergeCell ref="F117:F120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="H306:H307"/>
-    <mergeCell ref="I306:I307"/>
-    <mergeCell ref="J306:J307"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="F221:F224"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="F225:F228"/>
-    <mergeCell ref="C229:C232"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="B305:G307"/>
-    <mergeCell ref="C261:C264"/>
-    <mergeCell ref="B137:G139"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="I238:I239"/>
-    <mergeCell ref="J238:J239"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="F273:F276"/>
-    <mergeCell ref="C285:C288"/>
-    <mergeCell ref="F233:F236"/>
-    <mergeCell ref="F217:F220"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="F309:F312"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="A41:A56"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="F81:F84"/>
-    <mergeCell ref="A121:A136"/>
-    <mergeCell ref="B77:B88"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B41:B56"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="B121:B136"/>
-    <mergeCell ref="B141:B156"/>
-    <mergeCell ref="B157:B172"/>
-    <mergeCell ref="B173:B188"/>
-    <mergeCell ref="B189:B204"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B57:B72"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="A5:G7"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A57:A72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="A141:A156"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="F129:F132"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="F97:F100"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="K306:K307"/>
-    <mergeCell ref="K334:K335"/>
-    <mergeCell ref="F301:F304"/>
-    <mergeCell ref="F285:F288"/>
-    <mergeCell ref="C325:C328"/>
-    <mergeCell ref="C329:C332"/>
-    <mergeCell ref="F329:F332"/>
-    <mergeCell ref="F325:F328"/>
-    <mergeCell ref="F281:F284"/>
-    <mergeCell ref="F277:F280"/>
-    <mergeCell ref="F253:F256"/>
-    <mergeCell ref="F257:F260"/>
-    <mergeCell ref="F265:F268"/>
-    <mergeCell ref="C233:C236"/>
-    <mergeCell ref="C253:C256"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="C265:C268"/>
-    <mergeCell ref="C277:C280"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="F185:F188"/>
-    <mergeCell ref="C281:C284"/>
+    <mergeCell ref="A157:A172"/>
+    <mergeCell ref="A173:A188"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="F173:F176"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="F177:F180"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="F181:F184"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="A189:A204"/>
+    <mergeCell ref="C189:C192"/>
+    <mergeCell ref="F189:F192"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="F197:F200"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="F193:F196"/>
+    <mergeCell ref="C201:C204"/>
+    <mergeCell ref="H238:H239"/>
+    <mergeCell ref="B237:G239"/>
+    <mergeCell ref="F201:F204"/>
+    <mergeCell ref="A285:A304"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="F289:F292"/>
+    <mergeCell ref="C269:C272"/>
+    <mergeCell ref="F269:F272"/>
+    <mergeCell ref="A265:A284"/>
+    <mergeCell ref="B265:B284"/>
+    <mergeCell ref="B285:B304"/>
+    <mergeCell ref="C293:C296"/>
+    <mergeCell ref="C297:C300"/>
+    <mergeCell ref="C301:C304"/>
+    <mergeCell ref="F293:F296"/>
+    <mergeCell ref="F297:F300"/>
+    <mergeCell ref="A313:A332"/>
+    <mergeCell ref="C313:C316"/>
+    <mergeCell ref="F313:F316"/>
+    <mergeCell ref="C317:C320"/>
+    <mergeCell ref="F317:F320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="B313:B332"/>
+    <mergeCell ref="B333:G335"/>
+    <mergeCell ref="H334:H335"/>
+    <mergeCell ref="I334:I335"/>
+    <mergeCell ref="J334:J335"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="F337:F339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="F340:F342"/>
+    <mergeCell ref="A337:A354"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="F346:F348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="F349:F351"/>
+    <mergeCell ref="C352:C354"/>
+    <mergeCell ref="F352:F354"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="F343:F345"/>
+    <mergeCell ref="B337:B354"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/1 Planeación de casos de pruebas CMMS(Recuperado automáticamente).xlsx
+++ b/1 Planeación de casos de pruebas CMMS(Recuperado automáticamente).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milenio\Desktop\testing\Pruebas\envios CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E487E8E5-13FA-49E3-8F22-C0B74F288DFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFB76D3A-3AF9-4350-BF30-A736B5D80D54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1446,7 +1446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1541,6 +1541,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1613,7 +1619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,7 +2032,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2230,7 +2236,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2246,6 +2265,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2332,10 +2354,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2751,11 +2776,11 @@
       </c>
       <c r="F4" s="3">
         <f>'Planeación detallada'!J138</f>
-        <v>0.58333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="G4" s="45">
         <f>'Planeación detallada'!K138</f>
-        <v>5.1100000000000003</v>
+        <v>7.6099999999999994</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2845,8 +2870,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197:C200"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F225" sqref="F225:F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2877,35 +2902,35 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="101">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="107">
         <f>SUM(J6,J138,J238,J306,J334)/5</f>
-        <v>0.31666666666666671</v>
-      </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+        <v>0.375</v>
+      </c>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -2973,7 +2998,7 @@
         <f>AVERAGE(J9:J136)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="112">
+      <c r="K6" s="118">
         <f>SUM(F9:F136)</f>
         <v>8.7099999999999991</v>
       </c>
@@ -2992,7 +3017,7 @@
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
       <c r="J7" s="57"/>
-      <c r="K7" s="112"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
@@ -3035,7 +3060,7 @@
       <c r="B9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="108" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -3061,7 +3086,7 @@
     <row r="10" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
       <c r="B10" s="69"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="25" t="s">
         <v>50</v>
       </c>
@@ -3083,7 +3108,7 @@
     <row r="11" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
       <c r="B11" s="69"/>
-      <c r="C11" s="103"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="25" t="s">
         <v>51</v>
       </c>
@@ -3105,7 +3130,7 @@
     <row r="12" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="61"/>
       <c r="B12" s="69"/>
-      <c r="C12" s="103"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
@@ -3153,7 +3178,7 @@
     <row r="14" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="61"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="93"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="25" t="s">
         <v>54</v>
       </c>
@@ -3175,7 +3200,7 @@
     <row r="15" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="61"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="93"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="25" t="s">
         <v>55</v>
       </c>
@@ -3197,7 +3222,7 @@
     <row r="16" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
       <c r="B16" s="69"/>
-      <c r="C16" s="93"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="25" t="s">
         <v>56</v>
       </c>
@@ -3381,7 +3406,7 @@
     <row r="24" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="25" t="s">
         <v>65</v>
       </c>
@@ -3431,9 +3456,9 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="91"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="69"/>
-      <c r="C26" s="93"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="25" t="s">
         <v>67</v>
       </c>
@@ -3453,9 +3478,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="91"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="69"/>
-      <c r="C27" s="93"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="25" t="s">
         <v>68</v>
       </c>
@@ -3475,9 +3500,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="91"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="69"/>
-      <c r="C28" s="93"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="25" t="s">
         <v>69</v>
       </c>
@@ -3497,7 +3522,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="91"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="69"/>
       <c r="C29" s="66" t="s">
         <v>281</v>
@@ -3508,7 +3533,7 @@
       <c r="E29" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="87">
         <v>0.12</v>
       </c>
       <c r="G29" s="46"/>
@@ -3523,16 +3548,16 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="91"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="69"/>
-      <c r="C30" s="96"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F30" s="83"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="46"/>
       <c r="H30" s="30">
         <v>43283</v>
@@ -3545,16 +3570,16 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="91"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="69"/>
-      <c r="C31" s="96"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F31" s="83"/>
+      <c r="F31" s="88"/>
       <c r="G31" s="46"/>
       <c r="H31" s="30">
         <v>43283</v>
@@ -3567,16 +3592,16 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="91"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="69"/>
-      <c r="C32" s="96"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F32" s="84"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="46"/>
       <c r="H32" s="30">
         <v>43283</v>
@@ -3589,7 +3614,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="91"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="69"/>
       <c r="C33" s="63" t="s">
         <v>282</v>
@@ -3600,7 +3625,7 @@
       <c r="E33" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="87">
         <v>0.3</v>
       </c>
       <c r="G33" s="46"/>
@@ -3615,7 +3640,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="91"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="69"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25" t="s">
@@ -3624,7 +3649,7 @@
       <c r="E34" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F34" s="83"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="46"/>
       <c r="H34" s="30">
         <v>43283</v>
@@ -3637,7 +3662,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="91"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="69"/>
       <c r="C35" s="63"/>
       <c r="D35" s="25" t="s">
@@ -3646,7 +3671,7 @@
       <c r="E35" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F35" s="83"/>
+      <c r="F35" s="88"/>
       <c r="G35" s="46"/>
       <c r="H35" s="30">
         <v>43283</v>
@@ -3659,7 +3684,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="91"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="69"/>
       <c r="C36" s="63"/>
       <c r="D36" s="25" t="s">
@@ -3668,7 +3693,7 @@
       <c r="E36" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F36" s="84"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="9"/>
       <c r="H36" s="30">
         <v>43283</v>
@@ -3681,7 +3706,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="91"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="69"/>
       <c r="C37" s="63" t="s">
         <v>283</v>
@@ -3707,7 +3732,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="91"/>
+      <c r="A38" s="97"/>
       <c r="B38" s="69"/>
       <c r="C38" s="63"/>
       <c r="D38" s="25" t="s">
@@ -3729,7 +3754,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="91"/>
+      <c r="A39" s="97"/>
       <c r="B39" s="69"/>
       <c r="C39" s="63"/>
       <c r="D39" s="25" t="s">
@@ -3751,7 +3776,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
+      <c r="A40" s="97"/>
       <c r="B40" s="69"/>
       <c r="C40" s="63"/>
       <c r="D40" s="25" t="s">
@@ -3803,9 +3828,9 @@
       </c>
     </row>
     <row r="42" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
+      <c r="A42" s="97"/>
       <c r="B42" s="69"/>
-      <c r="C42" s="93"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="25" t="s">
         <v>86</v>
       </c>
@@ -3826,9 +3851,9 @@
       <c r="Z42" s="27"/>
     </row>
     <row r="43" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="91"/>
+      <c r="A43" s="97"/>
       <c r="B43" s="69"/>
-      <c r="C43" s="93"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="25" t="s">
         <v>87</v>
       </c>
@@ -3848,9 +3873,9 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="91"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="69"/>
-      <c r="C44" s="93"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="25" t="s">
         <v>88</v>
       </c>
@@ -3870,7 +3895,7 @@
       </c>
     </row>
     <row r="45" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="91"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="69"/>
       <c r="C45" s="66" t="s">
         <v>285</v>
@@ -3896,9 +3921,9 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="91"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="69"/>
-      <c r="C46" s="93"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="25" t="s">
         <v>90</v>
       </c>
@@ -3918,9 +3943,9 @@
       </c>
     </row>
     <row r="47" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="91"/>
+      <c r="A47" s="97"/>
       <c r="B47" s="69"/>
-      <c r="C47" s="93"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="25" t="s">
         <v>91</v>
       </c>
@@ -3940,9 +3965,9 @@
       </c>
     </row>
     <row r="48" spans="1:26" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="91"/>
+      <c r="A48" s="97"/>
       <c r="B48" s="69"/>
-      <c r="C48" s="93"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="25" t="s">
         <v>92</v>
       </c>
@@ -3962,7 +3987,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="91"/>
+      <c r="A49" s="97"/>
       <c r="B49" s="69"/>
       <c r="C49" s="78" t="s">
         <v>286</v>
@@ -3988,7 +4013,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="91"/>
+      <c r="A50" s="97"/>
       <c r="B50" s="69"/>
       <c r="C50" s="79"/>
       <c r="D50" s="25" t="s">
@@ -4010,7 +4035,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="91"/>
+      <c r="A51" s="97"/>
       <c r="B51" s="69"/>
       <c r="C51" s="79"/>
       <c r="D51" s="25" t="s">
@@ -4032,7 +4057,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="91"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="69"/>
       <c r="C52" s="79"/>
       <c r="D52" s="25" t="s">
@@ -4054,7 +4079,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="91"/>
+      <c r="A53" s="97"/>
       <c r="B53" s="69"/>
       <c r="C53" s="63" t="s">
         <v>287</v>
@@ -4080,7 +4105,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="91"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="69"/>
       <c r="C54" s="63"/>
       <c r="D54" s="25" t="s">
@@ -4102,9 +4127,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="91"/>
+      <c r="A55" s="97"/>
       <c r="B55" s="69"/>
-      <c r="C55" s="92"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="25" t="s">
         <v>99</v>
       </c>
@@ -4124,9 +4149,9 @@
       </c>
     </row>
     <row r="56" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="91"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="92"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="25" t="s">
         <v>100</v>
       </c>
@@ -4178,7 +4203,7 @@
     <row r="58" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="64"/>
       <c r="B58" s="69"/>
-      <c r="C58" s="96"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="25" t="s">
         <v>102</v>
       </c>
@@ -4200,7 +4225,7 @@
     <row r="59" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="64"/>
       <c r="B59" s="69"/>
-      <c r="C59" s="96"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="25" t="s">
         <v>103</v>
       </c>
@@ -4222,7 +4247,7 @@
     <row r="60" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="64"/>
       <c r="B60" s="69"/>
-      <c r="C60" s="110"/>
+      <c r="C60" s="116"/>
       <c r="D60" s="25" t="s">
         <v>104</v>
       </c>
@@ -4270,7 +4295,7 @@
     <row r="62" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="64"/>
       <c r="B62" s="69"/>
-      <c r="C62" s="96"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="25" t="s">
         <v>106</v>
       </c>
@@ -4292,7 +4317,7 @@
     <row r="63" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="64"/>
       <c r="B63" s="69"/>
-      <c r="C63" s="96"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="25" t="s">
         <v>107</v>
       </c>
@@ -4314,7 +4339,7 @@
     <row r="64" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="64"/>
       <c r="B64" s="69"/>
-      <c r="C64" s="111"/>
+      <c r="C64" s="117"/>
       <c r="D64" s="25" t="s">
         <v>108</v>
       </c>
@@ -4497,8 +4522,8 @@
     </row>
     <row r="72" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="64"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="25" t="s">
         <v>116</v>
       </c>
@@ -4518,7 +4543,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="103" t="s">
         <v>15</v>
       </c>
       <c r="B73" s="66" t="s">
@@ -4548,9 +4573,9 @@
       </c>
     </row>
     <row r="74" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="98"/>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
       <c r="D74" s="25" t="s">
         <v>118</v>
       </c>
@@ -4570,9 +4595,9 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="98"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
+      <c r="A75" s="104"/>
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
       <c r="D75" s="25" t="s">
         <v>119</v>
       </c>
@@ -4592,9 +4617,9 @@
       </c>
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="100"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="25" t="s">
         <v>120</v>
       </c>
@@ -4644,9 +4669,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="91"/>
+      <c r="A78" s="97"/>
       <c r="B78" s="69"/>
-      <c r="C78" s="93"/>
+      <c r="C78" s="99"/>
       <c r="D78" s="25" t="s">
         <v>124</v>
       </c>
@@ -4666,9 +4691,9 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="91"/>
+      <c r="A79" s="97"/>
       <c r="B79" s="69"/>
-      <c r="C79" s="93"/>
+      <c r="C79" s="99"/>
       <c r="D79" s="25" t="s">
         <v>125</v>
       </c>
@@ -4688,9 +4713,9 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="91"/>
+      <c r="A80" s="97"/>
       <c r="B80" s="69"/>
-      <c r="C80" s="93"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="25" t="s">
         <v>126</v>
       </c>
@@ -4710,7 +4735,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="91"/>
+      <c r="A81" s="97"/>
       <c r="B81" s="69"/>
       <c r="C81" s="78" t="s">
         <v>294</v>
@@ -4736,7 +4761,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="91"/>
+      <c r="A82" s="97"/>
       <c r="B82" s="69"/>
       <c r="C82" s="79"/>
       <c r="D82" s="25" t="s">
@@ -4758,7 +4783,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="91"/>
+      <c r="A83" s="97"/>
       <c r="B83" s="69"/>
       <c r="C83" s="79"/>
       <c r="D83" s="25" t="s">
@@ -4780,7 +4805,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="91"/>
+      <c r="A84" s="97"/>
       <c r="B84" s="69"/>
       <c r="C84" s="79"/>
       <c r="D84" s="25" t="s">
@@ -4802,7 +4827,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="91"/>
+      <c r="A85" s="97"/>
       <c r="B85" s="69"/>
       <c r="C85" s="63" t="s">
         <v>295</v>
@@ -4828,7 +4853,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="91"/>
+      <c r="A86" s="97"/>
       <c r="B86" s="69"/>
       <c r="C86" s="63"/>
       <c r="D86" s="25" t="s">
@@ -4850,9 +4875,9 @@
       </c>
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="91"/>
+      <c r="A87" s="97"/>
       <c r="B87" s="69"/>
-      <c r="C87" s="92"/>
+      <c r="C87" s="98"/>
       <c r="D87" s="25" t="s">
         <v>133</v>
       </c>
@@ -4872,9 +4897,9 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="91"/>
-      <c r="B88" s="90"/>
-      <c r="C88" s="92"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="98"/>
       <c r="D88" s="25" t="s">
         <v>134</v>
       </c>
@@ -4924,9 +4949,9 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="91"/>
+      <c r="A90" s="97"/>
       <c r="B90" s="69"/>
-      <c r="C90" s="93"/>
+      <c r="C90" s="99"/>
       <c r="D90" s="25" t="s">
         <v>136</v>
       </c>
@@ -4946,9 +4971,9 @@
       </c>
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="91"/>
+      <c r="A91" s="97"/>
       <c r="B91" s="69"/>
-      <c r="C91" s="93"/>
+      <c r="C91" s="99"/>
       <c r="D91" s="25" t="s">
         <v>137</v>
       </c>
@@ -4968,9 +4993,9 @@
       </c>
     </row>
     <row r="92" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="91"/>
+      <c r="A92" s="97"/>
       <c r="B92" s="69"/>
-      <c r="C92" s="93"/>
+      <c r="C92" s="99"/>
       <c r="D92" s="25" t="s">
         <v>138</v>
       </c>
@@ -4990,7 +5015,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="91"/>
+      <c r="A93" s="97"/>
       <c r="B93" s="69"/>
       <c r="C93" s="66" t="s">
         <v>297</v>
@@ -5016,9 +5041,9 @@
       </c>
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="91"/>
+      <c r="A94" s="97"/>
       <c r="B94" s="69"/>
-      <c r="C94" s="93"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="25" t="s">
         <v>140</v>
       </c>
@@ -5038,9 +5063,9 @@
       </c>
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="91"/>
+      <c r="A95" s="97"/>
       <c r="B95" s="69"/>
-      <c r="C95" s="93"/>
+      <c r="C95" s="99"/>
       <c r="D95" s="25" t="s">
         <v>141</v>
       </c>
@@ -5060,9 +5085,9 @@
       </c>
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="91"/>
+      <c r="A96" s="97"/>
       <c r="B96" s="69"/>
-      <c r="C96" s="93"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="25" t="s">
         <v>142</v>
       </c>
@@ -5082,7 +5107,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="91"/>
+      <c r="A97" s="97"/>
       <c r="B97" s="69"/>
       <c r="C97" s="78" t="s">
         <v>298</v>
@@ -5108,7 +5133,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="91"/>
+      <c r="A98" s="97"/>
       <c r="B98" s="69"/>
       <c r="C98" s="79"/>
       <c r="D98" s="25" t="s">
@@ -5130,7 +5155,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="91"/>
+      <c r="A99" s="97"/>
       <c r="B99" s="69"/>
       <c r="C99" s="79"/>
       <c r="D99" s="25" t="s">
@@ -5152,7 +5177,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="91"/>
+      <c r="A100" s="97"/>
       <c r="B100" s="69"/>
       <c r="C100" s="79"/>
       <c r="D100" s="25" t="s">
@@ -5174,7 +5199,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="91"/>
+      <c r="A101" s="97"/>
       <c r="B101" s="69"/>
       <c r="C101" s="63" t="s">
         <v>299</v>
@@ -5200,7 +5225,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="91"/>
+      <c r="A102" s="97"/>
       <c r="B102" s="69"/>
       <c r="C102" s="63"/>
       <c r="D102" s="25" t="s">
@@ -5222,9 +5247,9 @@
       </c>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="91"/>
+      <c r="A103" s="97"/>
       <c r="B103" s="69"/>
-      <c r="C103" s="92"/>
+      <c r="C103" s="98"/>
       <c r="D103" s="25" t="s">
         <v>152</v>
       </c>
@@ -5244,9 +5269,9 @@
       </c>
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="91"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="92"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="98"/>
       <c r="D104" s="25" t="s">
         <v>153</v>
       </c>
@@ -5296,9 +5321,9 @@
       </c>
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="91"/>
+      <c r="A106" s="97"/>
       <c r="B106" s="69"/>
-      <c r="C106" s="93"/>
+      <c r="C106" s="99"/>
       <c r="D106" s="25" t="s">
         <v>155</v>
       </c>
@@ -5318,9 +5343,9 @@
       </c>
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="91"/>
+      <c r="A107" s="97"/>
       <c r="B107" s="69"/>
-      <c r="C107" s="93"/>
+      <c r="C107" s="99"/>
       <c r="D107" s="25" t="s">
         <v>156</v>
       </c>
@@ -5340,9 +5365,9 @@
       </c>
     </row>
     <row r="108" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="91"/>
+      <c r="A108" s="97"/>
       <c r="B108" s="69"/>
-      <c r="C108" s="93"/>
+      <c r="C108" s="99"/>
       <c r="D108" s="25" t="s">
         <v>157</v>
       </c>
@@ -5362,7 +5387,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="91"/>
+      <c r="A109" s="97"/>
       <c r="B109" s="69"/>
       <c r="C109" s="63" t="s">
         <v>301</v>
@@ -5388,9 +5413,9 @@
       </c>
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="91"/>
+      <c r="A110" s="97"/>
       <c r="B110" s="69"/>
-      <c r="C110" s="92"/>
+      <c r="C110" s="98"/>
       <c r="D110" s="25" t="s">
         <v>279</v>
       </c>
@@ -5410,9 +5435,9 @@
       </c>
     </row>
     <row r="111" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="91"/>
+      <c r="A111" s="97"/>
       <c r="B111" s="69"/>
-      <c r="C111" s="92"/>
+      <c r="C111" s="98"/>
       <c r="D111" s="25" t="s">
         <v>161</v>
       </c>
@@ -5432,9 +5457,9 @@
       </c>
     </row>
     <row r="112" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="91"/>
+      <c r="A112" s="97"/>
       <c r="B112" s="69"/>
-      <c r="C112" s="92"/>
+      <c r="C112" s="98"/>
       <c r="D112" s="25" t="s">
         <v>162</v>
       </c>
@@ -5454,7 +5479,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="91"/>
+      <c r="A113" s="97"/>
       <c r="B113" s="69"/>
       <c r="C113" s="63" t="s">
         <v>302</v>
@@ -5480,7 +5505,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="91"/>
+      <c r="A114" s="97"/>
       <c r="B114" s="69"/>
       <c r="C114" s="63"/>
       <c r="D114" s="25" t="s">
@@ -5502,7 +5527,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="91"/>
+      <c r="A115" s="97"/>
       <c r="B115" s="69"/>
       <c r="C115" s="63"/>
       <c r="D115" s="25" t="s">
@@ -5524,7 +5549,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="91"/>
+      <c r="A116" s="97"/>
       <c r="B116" s="69"/>
       <c r="C116" s="63"/>
       <c r="D116" s="25" t="s">
@@ -5546,7 +5571,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="91"/>
+      <c r="A117" s="97"/>
       <c r="B117" s="69"/>
       <c r="C117" s="63" t="s">
         <v>303</v>
@@ -5572,7 +5597,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="91"/>
+      <c r="A118" s="97"/>
       <c r="B118" s="69"/>
       <c r="C118" s="63"/>
       <c r="D118" s="25" t="s">
@@ -5594,7 +5619,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="91"/>
+      <c r="A119" s="97"/>
       <c r="B119" s="69"/>
       <c r="C119" s="63"/>
       <c r="D119" s="25" t="s">
@@ -5616,8 +5641,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="91"/>
-      <c r="B120" s="90"/>
+      <c r="A120" s="97"/>
+      <c r="B120" s="96"/>
       <c r="C120" s="63"/>
       <c r="D120" s="25" t="s">
         <v>170</v>
@@ -5653,7 +5678,7 @@
       <c r="E121" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F121" s="82">
+      <c r="F121" s="87">
         <v>0.4</v>
       </c>
       <c r="G121" s="46"/>
@@ -5668,16 +5693,16 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="91"/>
+      <c r="A122" s="97"/>
       <c r="B122" s="69"/>
-      <c r="C122" s="92"/>
+      <c r="C122" s="98"/>
       <c r="D122" s="25" t="s">
         <v>173</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F122" s="83"/>
+      <c r="F122" s="88"/>
       <c r="G122" s="46"/>
       <c r="H122" s="30">
         <v>43283</v>
@@ -5690,16 +5715,16 @@
       </c>
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="91"/>
+      <c r="A123" s="97"/>
       <c r="B123" s="69"/>
-      <c r="C123" s="92"/>
+      <c r="C123" s="98"/>
       <c r="D123" s="25" t="s">
         <v>174</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F123" s="83"/>
+      <c r="F123" s="88"/>
       <c r="G123" s="46"/>
       <c r="H123" s="30">
         <v>43283</v>
@@ -5712,16 +5737,16 @@
       </c>
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="91"/>
+      <c r="A124" s="97"/>
       <c r="B124" s="69"/>
-      <c r="C124" s="92"/>
+      <c r="C124" s="98"/>
       <c r="D124" s="25" t="s">
         <v>175</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F124" s="84"/>
+      <c r="F124" s="89"/>
       <c r="G124" s="9"/>
       <c r="H124" s="30">
         <v>43283</v>
@@ -5734,7 +5759,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="91"/>
+      <c r="A125" s="97"/>
       <c r="B125" s="69"/>
       <c r="C125" s="63" t="s">
         <v>305</v>
@@ -5745,7 +5770,7 @@
       <c r="E125" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F125" s="82">
+      <c r="F125" s="87">
         <v>0.3</v>
       </c>
       <c r="G125" s="46"/>
@@ -5760,16 +5785,16 @@
       </c>
     </row>
     <row r="126" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="91"/>
+      <c r="A126" s="97"/>
       <c r="B126" s="69"/>
-      <c r="C126" s="92"/>
+      <c r="C126" s="98"/>
       <c r="D126" s="25" t="s">
         <v>177</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F126" s="83"/>
+      <c r="F126" s="88"/>
       <c r="G126" s="46"/>
       <c r="H126" s="30">
         <v>43283</v>
@@ -5782,16 +5807,16 @@
       </c>
     </row>
     <row r="127" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="91"/>
+      <c r="A127" s="97"/>
       <c r="B127" s="69"/>
-      <c r="C127" s="92"/>
+      <c r="C127" s="98"/>
       <c r="D127" s="25" t="s">
         <v>178</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F127" s="83"/>
+      <c r="F127" s="88"/>
       <c r="G127" s="46"/>
       <c r="H127" s="30">
         <v>43283</v>
@@ -5804,16 +5829,16 @@
       </c>
     </row>
     <row r="128" spans="1:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="91"/>
+      <c r="A128" s="97"/>
       <c r="B128" s="69"/>
-      <c r="C128" s="92"/>
+      <c r="C128" s="98"/>
       <c r="D128" s="25" t="s">
         <v>179</v>
       </c>
       <c r="E128" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F128" s="84"/>
+      <c r="F128" s="89"/>
       <c r="G128" s="46"/>
       <c r="H128" s="30">
         <v>43283</v>
@@ -5826,7 +5851,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="91"/>
+      <c r="A129" s="97"/>
       <c r="B129" s="69"/>
       <c r="C129" s="63" t="s">
         <v>306</v>
@@ -5837,7 +5862,7 @@
       <c r="E129" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F129" s="82">
+      <c r="F129" s="87">
         <v>0.32</v>
       </c>
       <c r="G129" s="9"/>
@@ -5852,7 +5877,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="91"/>
+      <c r="A130" s="97"/>
       <c r="B130" s="69"/>
       <c r="C130" s="63"/>
       <c r="D130" s="25" t="s">
@@ -5861,7 +5886,7 @@
       <c r="E130" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F130" s="83"/>
+      <c r="F130" s="88"/>
       <c r="G130" s="46"/>
       <c r="H130" s="30">
         <v>43283</v>
@@ -5874,7 +5899,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="91"/>
+      <c r="A131" s="97"/>
       <c r="B131" s="69"/>
       <c r="C131" s="63"/>
       <c r="D131" s="25" t="s">
@@ -5883,7 +5908,7 @@
       <c r="E131" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="F131" s="83"/>
+      <c r="F131" s="88"/>
       <c r="G131" s="46"/>
       <c r="H131" s="30">
         <v>43283</v>
@@ -5896,7 +5921,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="91"/>
+      <c r="A132" s="97"/>
       <c r="B132" s="69"/>
       <c r="C132" s="63"/>
       <c r="D132" s="25" t="s">
@@ -5905,7 +5930,7 @@
       <c r="E132" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="F132" s="84"/>
+      <c r="F132" s="89"/>
       <c r="G132" s="8"/>
       <c r="H132" s="30">
         <v>43283</v>
@@ -5918,7 +5943,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="91"/>
+      <c r="A133" s="97"/>
       <c r="B133" s="69"/>
       <c r="C133" s="63" t="s">
         <v>307</v>
@@ -5944,7 +5969,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="91"/>
+      <c r="A134" s="97"/>
       <c r="B134" s="69"/>
       <c r="C134" s="63"/>
       <c r="D134" s="25" t="s">
@@ -5966,9 +5991,9 @@
       </c>
     </row>
     <row r="135" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="91"/>
+      <c r="A135" s="97"/>
       <c r="B135" s="69"/>
-      <c r="C135" s="92"/>
+      <c r="C135" s="98"/>
       <c r="D135" s="25" t="s">
         <v>187</v>
       </c>
@@ -5988,9 +6013,9 @@
       </c>
     </row>
     <row r="136" spans="1:14" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="91"/>
+      <c r="A136" s="97"/>
       <c r="B136" s="70"/>
-      <c r="C136" s="92"/>
+      <c r="C136" s="98"/>
       <c r="D136" s="25" t="s">
         <v>188</v>
       </c>
@@ -6055,11 +6080,11 @@
       </c>
       <c r="J138" s="56">
         <f>AVERAGE(J141:J236)</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="K138" s="112">
+        <v>0.875</v>
+      </c>
+      <c r="K138" s="118">
         <f>SUM(F141:F236)</f>
-        <v>5.1100000000000003</v>
+        <v>7.6099999999999994</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="12"/>
@@ -6076,7 +6101,7 @@
       <c r="H139" s="55"/>
       <c r="I139" s="55"/>
       <c r="J139" s="57"/>
-      <c r="K139" s="112"/>
+      <c r="K139" s="118"/>
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
       <c r="N139" s="14"/>
@@ -6469,8 +6494,8 @@
     </row>
     <row r="156" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="65"/>
-      <c r="B156" s="90"/>
-      <c r="C156" s="81"/>
+      <c r="B156" s="96"/>
+      <c r="C156" s="92"/>
       <c r="D156" s="10" t="s">
         <v>314</v>
       </c>
@@ -6813,7 +6838,7 @@
     <row r="172" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="65"/>
       <c r="B172" s="69"/>
-      <c r="C172" s="81"/>
+      <c r="C172" s="92"/>
       <c r="D172" s="10" t="s">
         <v>337</v>
       </c>
@@ -6831,7 +6856,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="85" t="s">
+      <c r="A173" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B173" s="63" t="s">
@@ -6859,7 +6884,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="86"/>
+      <c r="A174" s="91"/>
       <c r="B174" s="63"/>
       <c r="C174" s="59"/>
       <c r="D174" s="10" t="s">
@@ -6879,7 +6904,7 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="86"/>
+      <c r="A175" s="91"/>
       <c r="B175" s="63"/>
       <c r="C175" s="59"/>
       <c r="D175" s="10" t="s">
@@ -6899,7 +6924,7 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="86"/>
+      <c r="A176" s="91"/>
       <c r="B176" s="63"/>
       <c r="C176" s="59"/>
       <c r="D176" s="10" t="s">
@@ -6919,7 +6944,7 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="86"/>
+      <c r="A177" s="91"/>
       <c r="B177" s="63"/>
       <c r="C177" s="58" t="s">
         <v>321</v>
@@ -6943,7 +6968,7 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="86"/>
+      <c r="A178" s="91"/>
       <c r="B178" s="63"/>
       <c r="C178" s="59"/>
       <c r="D178" s="10" t="s">
@@ -6963,7 +6988,7 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="86"/>
+      <c r="A179" s="91"/>
       <c r="B179" s="63"/>
       <c r="C179" s="59"/>
       <c r="D179" s="10" t="s">
@@ -6983,7 +7008,7 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="86"/>
+      <c r="A180" s="91"/>
       <c r="B180" s="63"/>
       <c r="C180" s="59"/>
       <c r="D180" s="10" t="s">
@@ -7003,7 +7028,7 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="86"/>
+      <c r="A181" s="91"/>
       <c r="B181" s="63"/>
       <c r="C181" s="62" t="s">
         <v>322</v>
@@ -7027,7 +7052,7 @@
       </c>
     </row>
     <row r="182" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="86"/>
+      <c r="A182" s="91"/>
       <c r="B182" s="63"/>
       <c r="C182" s="62"/>
       <c r="D182" s="10" t="s">
@@ -7047,7 +7072,7 @@
       </c>
     </row>
     <row r="183" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="86"/>
+      <c r="A183" s="91"/>
       <c r="B183" s="63"/>
       <c r="C183" s="62"/>
       <c r="D183" s="10" t="s">
@@ -7067,7 +7092,7 @@
       </c>
     </row>
     <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="86"/>
+      <c r="A184" s="91"/>
       <c r="B184" s="63"/>
       <c r="C184" s="62"/>
       <c r="D184" s="10" t="s">
@@ -7087,9 +7112,9 @@
       </c>
     </row>
     <row r="185" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="86"/>
+      <c r="A185" s="91"/>
       <c r="B185" s="63"/>
-      <c r="C185" s="87" t="s">
+      <c r="C185" s="93" t="s">
         <v>323</v>
       </c>
       <c r="D185" s="10" t="s">
@@ -7111,9 +7136,9 @@
       </c>
     </row>
     <row r="186" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="86"/>
+      <c r="A186" s="91"/>
       <c r="B186" s="63"/>
-      <c r="C186" s="88"/>
+      <c r="C186" s="94"/>
       <c r="D186" s="10" t="s">
         <v>224</v>
       </c>
@@ -7131,9 +7156,9 @@
       </c>
     </row>
     <row r="187" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="86"/>
+      <c r="A187" s="91"/>
       <c r="B187" s="63"/>
-      <c r="C187" s="88"/>
+      <c r="C187" s="94"/>
       <c r="D187" s="10" t="s">
         <v>225</v>
       </c>
@@ -7151,9 +7176,9 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="86"/>
+      <c r="A188" s="91"/>
       <c r="B188" s="63"/>
-      <c r="C188" s="89"/>
+      <c r="C188" s="95"/>
       <c r="D188" s="10" t="s">
         <v>226</v>
       </c>
@@ -7177,7 +7202,7 @@
       <c r="B189" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C189" s="117" t="s">
+      <c r="C189" s="81" t="s">
         <v>324</v>
       </c>
       <c r="D189" s="10" t="s">
@@ -7201,7 +7226,7 @@
     <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="65"/>
       <c r="B190" s="69"/>
-      <c r="C190" s="118"/>
+      <c r="C190" s="82"/>
       <c r="D190" s="10" t="s">
         <v>228</v>
       </c>
@@ -7221,7 +7246,7 @@
     <row r="191" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="65"/>
       <c r="B191" s="69"/>
-      <c r="C191" s="118"/>
+      <c r="C191" s="82"/>
       <c r="D191" s="10" t="s">
         <v>229</v>
       </c>
@@ -7241,7 +7266,7 @@
     <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="65"/>
       <c r="B192" s="69"/>
-      <c r="C192" s="118"/>
+      <c r="C192" s="82"/>
       <c r="D192" s="10" t="s">
         <v>230</v>
       </c>
@@ -7261,7 +7286,7 @@
     <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="65"/>
       <c r="B193" s="69"/>
-      <c r="C193" s="117" t="s">
+      <c r="C193" s="81" t="s">
         <v>325</v>
       </c>
       <c r="D193" s="10" t="s">
@@ -7285,7 +7310,7 @@
     <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="65"/>
       <c r="B194" s="69"/>
-      <c r="C194" s="118"/>
+      <c r="C194" s="82"/>
       <c r="D194" s="10" t="s">
         <v>232</v>
       </c>
@@ -7305,7 +7330,7 @@
     <row r="195" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="65"/>
       <c r="B195" s="69"/>
-      <c r="C195" s="118"/>
+      <c r="C195" s="82"/>
       <c r="D195" s="10" t="s">
         <v>233</v>
       </c>
@@ -7325,7 +7350,7 @@
     <row r="196" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="65"/>
       <c r="B196" s="69"/>
-      <c r="C196" s="118"/>
+      <c r="C196" s="82"/>
       <c r="D196" s="10" t="s">
         <v>234</v>
       </c>
@@ -7345,7 +7370,7 @@
     <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="65"/>
       <c r="B197" s="69"/>
-      <c r="C197" s="63" t="s">
+      <c r="C197" s="83" t="s">
         <v>326</v>
       </c>
       <c r="D197" s="10" t="s">
@@ -7354,18 +7379,22 @@
       <c r="E197" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F197" s="60"/>
-      <c r="G197" s="35"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="34">
-        <v>0</v>
+      <c r="F197" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="G197" s="46"/>
+      <c r="H197" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I197" s="30"/>
+      <c r="J197" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="65"/>
       <c r="B198" s="69"/>
-      <c r="C198" s="63"/>
+      <c r="C198" s="83"/>
       <c r="D198" s="10" t="s">
         <v>236</v>
       </c>
@@ -7373,17 +7402,19 @@
         <v>463</v>
       </c>
       <c r="F198" s="60"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="34">
-        <v>0</v>
+      <c r="G198" s="46"/>
+      <c r="H198" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I198" s="30"/>
+      <c r="J198" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="65"/>
       <c r="B199" s="69"/>
-      <c r="C199" s="63"/>
+      <c r="C199" s="83"/>
       <c r="D199" s="10" t="s">
         <v>240</v>
       </c>
@@ -7391,17 +7422,19 @@
         <v>466</v>
       </c>
       <c r="F199" s="60"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="34">
-        <v>0</v>
+      <c r="G199" s="46"/>
+      <c r="H199" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I199" s="30"/>
+      <c r="J199" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="65"/>
       <c r="B200" s="69"/>
-      <c r="C200" s="63"/>
+      <c r="C200" s="83"/>
       <c r="D200" s="10" t="s">
         <v>241</v>
       </c>
@@ -7409,17 +7442,19 @@
         <v>465</v>
       </c>
       <c r="F200" s="60"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="33"/>
-      <c r="J200" s="34">
-        <v>0</v>
+      <c r="G200" s="8"/>
+      <c r="H200" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I200" s="30"/>
+      <c r="J200" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="65"/>
       <c r="B201" s="69"/>
-      <c r="C201" s="78" t="s">
+      <c r="C201" s="84" t="s">
         <v>327</v>
       </c>
       <c r="D201" s="10" t="s">
@@ -7428,66 +7463,76 @@
       <c r="E201" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F201" s="82"/>
-      <c r="G201" s="35"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="34">
-        <v>0</v>
+      <c r="F201" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="G201" s="46"/>
+      <c r="H201" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I201" s="30"/>
+      <c r="J201" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="65"/>
       <c r="B202" s="69"/>
-      <c r="C202" s="79"/>
+      <c r="C202" s="85"/>
       <c r="D202" s="10" t="s">
         <v>243</v>
       </c>
       <c r="E202" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F202" s="83"/>
-      <c r="G202" s="35"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="33"/>
-      <c r="J202" s="34">
-        <v>0</v>
+      <c r="F202" s="88"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I202" s="30"/>
+      <c r="J202" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="65"/>
       <c r="B203" s="69"/>
-      <c r="C203" s="79"/>
+      <c r="C203" s="85"/>
       <c r="D203" s="10" t="s">
         <v>244</v>
       </c>
       <c r="E203" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F203" s="83"/>
-      <c r="G203" s="35"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="34">
-        <v>0</v>
+      <c r="F203" s="88"/>
+      <c r="G203" s="46"/>
+      <c r="H203" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I203" s="30"/>
+      <c r="J203" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="65"/>
-      <c r="B204" s="90"/>
-      <c r="C204" s="81"/>
+      <c r="B204" s="96"/>
+      <c r="C204" s="86"/>
       <c r="D204" s="10" t="s">
         <v>245</v>
       </c>
       <c r="E204" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F204" s="84"/>
-      <c r="G204" s="35"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="34">
-        <v>0</v>
+      <c r="F204" s="89"/>
+      <c r="G204" s="46"/>
+      <c r="H204" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I204" s="30"/>
+      <c r="J204" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7497,7 +7542,7 @@
       <c r="B205" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C205" s="66" t="s">
+      <c r="C205" s="123" t="s">
         <v>328</v>
       </c>
       <c r="D205" s="10" t="s">
@@ -7506,18 +7551,22 @@
       <c r="E205" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F205" s="60"/>
-      <c r="G205" s="38"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="33"/>
-      <c r="J205" s="34">
-        <v>0</v>
+      <c r="F205" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="G205" s="8"/>
+      <c r="H205" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I205" s="30"/>
+      <c r="J205" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="65"/>
       <c r="B206" s="69"/>
-      <c r="C206" s="67"/>
+      <c r="C206" s="124"/>
       <c r="D206" s="10" t="s">
         <v>247</v>
       </c>
@@ -7525,17 +7574,19 @@
         <v>463</v>
       </c>
       <c r="F206" s="60"/>
-      <c r="G206" s="37"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="34">
-        <v>0</v>
+      <c r="G206" s="9"/>
+      <c r="H206" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I206" s="30"/>
+      <c r="J206" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="65"/>
       <c r="B207" s="69"/>
-      <c r="C207" s="67"/>
+      <c r="C207" s="124"/>
       <c r="D207" s="10" t="s">
         <v>248</v>
       </c>
@@ -7543,17 +7594,19 @@
         <v>466</v>
       </c>
       <c r="F207" s="60"/>
-      <c r="G207" s="37"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="34">
-        <v>0</v>
+      <c r="G207" s="46"/>
+      <c r="H207" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I207" s="30"/>
+      <c r="J207" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="65"/>
       <c r="B208" s="69"/>
-      <c r="C208" s="67"/>
+      <c r="C208" s="124"/>
       <c r="D208" s="10" t="s">
         <v>249</v>
       </c>
@@ -7561,17 +7614,19 @@
         <v>465</v>
       </c>
       <c r="F208" s="60"/>
-      <c r="G208" s="37"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="34">
-        <v>0</v>
+      <c r="G208" s="46"/>
+      <c r="H208" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I208" s="30"/>
+      <c r="J208" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="65"/>
       <c r="B209" s="69"/>
-      <c r="C209" s="66" t="s">
+      <c r="C209" s="123" t="s">
         <v>329</v>
       </c>
       <c r="D209" s="10" t="s">
@@ -7580,18 +7635,22 @@
       <c r="E209" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F209" s="60"/>
-      <c r="G209" s="38"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="34">
-        <v>0</v>
+      <c r="F209" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G209" s="8"/>
+      <c r="H209" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I209" s="30"/>
+      <c r="J209" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="65"/>
       <c r="B210" s="69"/>
-      <c r="C210" s="67"/>
+      <c r="C210" s="124"/>
       <c r="D210" s="10" t="s">
         <v>251</v>
       </c>
@@ -7599,17 +7658,19 @@
         <v>463</v>
       </c>
       <c r="F210" s="60"/>
-      <c r="G210" s="37"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="33"/>
-      <c r="J210" s="34">
-        <v>0</v>
+      <c r="G210" s="9"/>
+      <c r="H210" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I210" s="30"/>
+      <c r="J210" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="65"/>
       <c r="B211" s="69"/>
-      <c r="C211" s="67"/>
+      <c r="C211" s="124"/>
       <c r="D211" s="10" t="s">
         <v>258</v>
       </c>
@@ -7617,17 +7678,19 @@
         <v>466</v>
       </c>
       <c r="F211" s="60"/>
-      <c r="G211" s="37"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
-      <c r="J211" s="34">
-        <v>0</v>
+      <c r="G211" s="8"/>
+      <c r="H211" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I211" s="30"/>
+      <c r="J211" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="65"/>
       <c r="B212" s="69"/>
-      <c r="C212" s="67"/>
+      <c r="C212" s="124"/>
       <c r="D212" s="10" t="s">
         <v>259</v>
       </c>
@@ -7635,17 +7698,19 @@
         <v>465</v>
       </c>
       <c r="F212" s="60"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
-      <c r="J212" s="34">
-        <v>0</v>
+      <c r="G212" s="46"/>
+      <c r="H212" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I212" s="30"/>
+      <c r="J212" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="65"/>
       <c r="B213" s="69"/>
-      <c r="C213" s="63" t="s">
+      <c r="C213" s="125" t="s">
         <v>330</v>
       </c>
       <c r="D213" s="10" t="s">
@@ -7654,18 +7719,22 @@
       <c r="E213" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F213" s="60"/>
-      <c r="G213" s="35"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="34">
-        <v>0</v>
+      <c r="F213" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="G213" s="46"/>
+      <c r="H213" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I213" s="30"/>
+      <c r="J213" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="65"/>
       <c r="B214" s="69"/>
-      <c r="C214" s="63"/>
+      <c r="C214" s="125"/>
       <c r="D214" s="10" t="s">
         <v>261</v>
       </c>
@@ -7673,17 +7742,19 @@
         <v>463</v>
       </c>
       <c r="F214" s="60"/>
-      <c r="G214" s="35"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="33"/>
-      <c r="J214" s="34">
-        <v>0</v>
+      <c r="G214" s="46"/>
+      <c r="H214" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I214" s="30"/>
+      <c r="J214" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="65"/>
       <c r="B215" s="69"/>
-      <c r="C215" s="63"/>
+      <c r="C215" s="125"/>
       <c r="D215" s="10" t="s">
         <v>262</v>
       </c>
@@ -7691,17 +7762,19 @@
         <v>466</v>
       </c>
       <c r="F215" s="60"/>
-      <c r="G215" s="35"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="34">
-        <v>0</v>
+      <c r="G215" s="46"/>
+      <c r="H215" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I215" s="30"/>
+      <c r="J215" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="65"/>
       <c r="B216" s="69"/>
-      <c r="C216" s="63"/>
+      <c r="C216" s="125"/>
       <c r="D216" s="10" t="s">
         <v>263</v>
       </c>
@@ -7709,11 +7782,13 @@
         <v>465</v>
       </c>
       <c r="F216" s="60"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="34">
-        <v>0</v>
+      <c r="G216" s="8"/>
+      <c r="H216" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I216" s="30"/>
+      <c r="J216" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7728,12 +7803,16 @@
       <c r="E217" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F217" s="60"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="34">
-        <v>0</v>
+      <c r="F217" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="G217" s="46"/>
+      <c r="H217" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I217" s="30"/>
+      <c r="J217" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7747,11 +7826,13 @@
         <v>463</v>
       </c>
       <c r="F218" s="60"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="34">
-        <v>0</v>
+      <c r="G218" s="46"/>
+      <c r="H218" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I218" s="30"/>
+      <c r="J218" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7765,17 +7846,19 @@
         <v>466</v>
       </c>
       <c r="F219" s="60"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="33"/>
-      <c r="J219" s="34">
-        <v>0</v>
+      <c r="G219" s="46"/>
+      <c r="H219" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I219" s="30"/>
+      <c r="J219" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="65"/>
-      <c r="B220" s="90"/>
-      <c r="C220" s="81"/>
+      <c r="B220" s="96"/>
+      <c r="C220" s="92"/>
       <c r="D220" s="10" t="s">
         <v>267</v>
       </c>
@@ -7783,11 +7866,13 @@
         <v>465</v>
       </c>
       <c r="F220" s="60"/>
-      <c r="G220" s="35"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="33"/>
-      <c r="J220" s="34">
-        <v>0</v>
+      <c r="G220" s="46"/>
+      <c r="H220" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I220" s="30"/>
+      <c r="J220" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7806,12 +7891,16 @@
       <c r="E221" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F221" s="60"/>
-      <c r="G221" s="38"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="33"/>
-      <c r="J221" s="34">
-        <v>0</v>
+      <c r="F221" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="G221" s="8"/>
+      <c r="H221" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I221" s="30"/>
+      <c r="J221" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7825,11 +7914,13 @@
         <v>463</v>
       </c>
       <c r="F222" s="60"/>
-      <c r="G222" s="37"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="33"/>
-      <c r="J222" s="34">
-        <v>0</v>
+      <c r="G222" s="46"/>
+      <c r="H222" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I222" s="30"/>
+      <c r="J222" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7843,11 +7934,13 @@
         <v>466</v>
       </c>
       <c r="F223" s="60"/>
-      <c r="G223" s="37"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="33"/>
-      <c r="J223" s="34">
-        <v>0</v>
+      <c r="G223" s="46"/>
+      <c r="H223" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I223" s="30"/>
+      <c r="J223" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7861,11 +7954,13 @@
         <v>465</v>
       </c>
       <c r="F224" s="60"/>
-      <c r="G224" s="37"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="34">
-        <v>0</v>
+      <c r="G224" s="46"/>
+      <c r="H224" s="30">
+        <v>43320</v>
+      </c>
+      <c r="I224" s="30"/>
+      <c r="J224" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8137,7 +8232,7 @@
         <f>AVERAGE(J241:J304)</f>
         <v>0</v>
       </c>
-      <c r="K238" s="112">
+      <c r="K238" s="118">
         <f>SUM(F241:F304)</f>
         <v>0</v>
       </c>
@@ -8156,7 +8251,7 @@
       <c r="H239" s="55"/>
       <c r="I239" s="55"/>
       <c r="J239" s="57"/>
-      <c r="K239" s="112"/>
+      <c r="K239" s="118"/>
       <c r="L239" s="14"/>
       <c r="M239" s="14"/>
       <c r="N239" s="14"/>
@@ -8477,8 +8572,8 @@
     </row>
     <row r="256" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="65"/>
-      <c r="B256" s="90"/>
-      <c r="C256" s="81"/>
+      <c r="B256" s="96"/>
+      <c r="C256" s="92"/>
       <c r="D256" s="10" t="s">
         <v>366</v>
       </c>
@@ -8520,7 +8615,7 @@
     <row r="258" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="64"/>
       <c r="B258" s="69"/>
-      <c r="C258" s="96"/>
+      <c r="C258" s="102"/>
       <c r="D258" s="10" t="s">
         <v>368</v>
       </c>
@@ -8538,7 +8633,7 @@
     <row r="259" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="64"/>
       <c r="B259" s="69"/>
-      <c r="C259" s="96"/>
+      <c r="C259" s="102"/>
       <c r="D259" s="10" t="s">
         <v>369</v>
       </c>
@@ -8556,7 +8651,7 @@
     <row r="260" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="64"/>
       <c r="B260" s="69"/>
-      <c r="C260" s="96"/>
+      <c r="C260" s="102"/>
       <c r="D260" s="10" t="s">
         <v>370</v>
       </c>
@@ -8594,7 +8689,7 @@
     <row r="262" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="65"/>
       <c r="B262" s="69"/>
-      <c r="C262" s="94"/>
+      <c r="C262" s="100"/>
       <c r="D262" s="20" t="s">
         <v>372</v>
       </c>
@@ -8612,7 +8707,7 @@
     <row r="263" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="65"/>
       <c r="B263" s="69"/>
-      <c r="C263" s="94"/>
+      <c r="C263" s="100"/>
       <c r="D263" s="20" t="s">
         <v>373</v>
       </c>
@@ -8630,7 +8725,7 @@
     <row r="264" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="65"/>
       <c r="B264" s="69"/>
-      <c r="C264" s="94"/>
+      <c r="C264" s="100"/>
       <c r="D264" s="20" t="s">
         <v>374</v>
       </c>
@@ -8652,7 +8747,7 @@
       <c r="B265" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="113" t="s">
+      <c r="C265" s="119" t="s">
         <v>385</v>
       </c>
       <c r="D265" s="20" t="s">
@@ -8672,7 +8767,7 @@
     <row r="266" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="73"/>
       <c r="B266" s="63"/>
-      <c r="C266" s="114"/>
+      <c r="C266" s="120"/>
       <c r="D266" s="20" t="s">
         <v>376</v>
       </c>
@@ -8690,7 +8785,7 @@
     <row r="267" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="73"/>
       <c r="B267" s="63"/>
-      <c r="C267" s="114"/>
+      <c r="C267" s="120"/>
       <c r="D267" s="20" t="s">
         <v>377</v>
       </c>
@@ -8708,7 +8803,7 @@
     <row r="268" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="73"/>
       <c r="B268" s="63"/>
-      <c r="C268" s="115"/>
+      <c r="C268" s="121"/>
       <c r="D268" s="20" t="s">
         <v>378</v>
       </c>
@@ -8874,7 +8969,7 @@
     <row r="277" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="73"/>
       <c r="B277" s="63"/>
-      <c r="C277" s="87" t="s">
+      <c r="C277" s="93" t="s">
         <v>395</v>
       </c>
       <c r="D277" s="20" t="s">
@@ -8894,7 +8989,7 @@
     <row r="278" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="73"/>
       <c r="B278" s="63"/>
-      <c r="C278" s="88"/>
+      <c r="C278" s="94"/>
       <c r="D278" s="20" t="s">
         <v>398</v>
       </c>
@@ -8912,7 +9007,7 @@
     <row r="279" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="73"/>
       <c r="B279" s="63"/>
-      <c r="C279" s="88"/>
+      <c r="C279" s="94"/>
       <c r="D279" s="20" t="s">
         <v>399</v>
       </c>
@@ -8930,7 +9025,7 @@
     <row r="280" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="73"/>
       <c r="B280" s="63"/>
-      <c r="C280" s="116"/>
+      <c r="C280" s="122"/>
       <c r="D280" s="20" t="s">
         <v>400</v>
       </c>
@@ -9026,7 +9121,7 @@
       <c r="B285" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="C285" s="95" t="s">
+      <c r="C285" s="101" t="s">
         <v>413</v>
       </c>
       <c r="D285" s="20" t="s">
@@ -9046,7 +9141,7 @@
     <row r="286" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="64"/>
       <c r="B286" s="76"/>
-      <c r="C286" s="96"/>
+      <c r="C286" s="102"/>
       <c r="D286" s="20" t="s">
         <v>409</v>
       </c>
@@ -9064,7 +9159,7 @@
     <row r="287" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="64"/>
       <c r="B287" s="76"/>
-      <c r="C287" s="96"/>
+      <c r="C287" s="102"/>
       <c r="D287" s="20" t="s">
         <v>410</v>
       </c>
@@ -9082,7 +9177,7 @@
     <row r="288" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="64"/>
       <c r="B288" s="76"/>
-      <c r="C288" s="96"/>
+      <c r="C288" s="102"/>
       <c r="D288" s="20" t="s">
         <v>411</v>
       </c>
@@ -9440,7 +9535,7 @@
         <f>AVERAGE(J309:J332)</f>
         <v>0</v>
       </c>
-      <c r="K306" s="112">
+      <c r="K306" s="118">
         <f>SUM(F309:F332)</f>
         <v>0</v>
       </c>
@@ -9459,7 +9554,7 @@
       <c r="H307" s="55"/>
       <c r="I307" s="55"/>
       <c r="J307" s="57"/>
-      <c r="K307" s="112"/>
+      <c r="K307" s="118"/>
       <c r="L307" s="14"/>
       <c r="M307" s="14"/>
     </row>
@@ -9496,7 +9591,7 @@
       </c>
     </row>
     <row r="309" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="97" t="s">
+      <c r="A309" s="103" t="s">
         <v>32</v>
       </c>
       <c r="B309" s="66" t="s">
@@ -9520,9 +9615,9 @@
       </c>
     </row>
     <row r="310" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="98"/>
-      <c r="B310" s="96"/>
-      <c r="C310" s="96"/>
+      <c r="A310" s="104"/>
+      <c r="B310" s="102"/>
+      <c r="C310" s="102"/>
       <c r="D310" s="10" t="s">
         <v>434</v>
       </c>
@@ -9538,9 +9633,9 @@
       </c>
     </row>
     <row r="311" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="98"/>
-      <c r="B311" s="96"/>
-      <c r="C311" s="96"/>
+      <c r="A311" s="104"/>
+      <c r="B311" s="102"/>
+      <c r="C311" s="102"/>
       <c r="D311" s="10" t="s">
         <v>435</v>
       </c>
@@ -9556,7 +9651,7 @@
       </c>
     </row>
     <row r="312" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="99"/>
+      <c r="A312" s="105"/>
       <c r="B312" s="67"/>
       <c r="C312" s="67"/>
       <c r="D312" s="10" t="s">
@@ -9994,7 +10089,7 @@
         <f>AVERAGE(J337:J354)</f>
         <v>0</v>
       </c>
-      <c r="K334" s="112">
+      <c r="K334" s="118">
         <f>SUM(F337:F354)</f>
         <v>0</v>
       </c>
@@ -10013,7 +10108,7 @@
       <c r="H335" s="55"/>
       <c r="I335" s="55"/>
       <c r="J335" s="57"/>
-      <c r="K335" s="112"/>
+      <c r="K335" s="118"/>
       <c r="L335" s="14"/>
       <c r="M335" s="14"/>
     </row>
